--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27771009" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27890794" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28000145" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28115658" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28242873" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28372391" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ28502907" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28634314" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ28772307" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ28906468" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ29041513" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ29175776" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ29307801" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ29445203" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ29579935" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ29714444" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ29849918" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ29985427" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ30118942" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ30254306" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ30389895" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ30523247" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ30656282" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ30789820" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ30923097" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ31055131" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ31186834" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ31324358" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ31458072" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ31591587" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ31721421" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ31856466" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ31992814" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ32124334" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ32259371" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ32388878" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ32519390" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ32654427" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ32790937" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ32922448" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ33056716" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ33191233" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ33324272" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ33458636" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ33590151" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ33726200" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ33862958" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ34034485" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ34168515" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ34300031" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ01319359" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01443819" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01569287" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01681272" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01790130" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ01902538" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02014848" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ02118752" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ02232015" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ02343920" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ02452467" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ02568254" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ02675354" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ02789293" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ02900874" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ03011783" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ03128970" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ03261968" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ03415455" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ03574817" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ03725965" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ03920943" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ04098836" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ04278905" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ04453445" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ04641131" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ04829886" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ05004498" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ05154973" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ05309897" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05457771" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ05604116" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ05786958" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ05968031" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06129371" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ06279101" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ06441137" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ06615117" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ06776367" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ06927420" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ07133643" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ07292148" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ07449600" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ07601347" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ07763778" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ07945161" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ08108533" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ08258140" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ08421051" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ08578059" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01319359" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01443819" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01569287" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01681272" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ01790130" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ01902538" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02014848" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ02118752" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ02232015" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ02343920" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ02452467" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ02568254" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ02675354" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ02789293" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ02900874" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ03011783" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ03128970" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ03261968" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ03415455" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ03574817" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ03725965" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ03920943" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ04098836" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ04278905" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ04453445" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ04641131" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ04829886" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ05004498" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ05154973" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ05309897" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05457771" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ05604116" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ05786958" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ05968031" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06129371" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ06279101" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ06441137" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ06615117" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ06776367" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ06927420" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ07133643" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ07292148" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ07449600" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ07601347" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ07763778" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ07945161" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ08108533" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ08258140" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ08421051" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ08578059" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ49647398" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49806175" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ49913705" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ50019216" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ50124728" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ50229922" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50336433" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50439943" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50544451" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50649219" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ50752735" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ50856248" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ50958762" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ51062455" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ51166967" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ51270482" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ51374995" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ51479505" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ51583015" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ51691049" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51794559" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51899579" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ52001108" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ52105617" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ52210137" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ52313452" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ52417265" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ52519772" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ52624289" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ52726806" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ52829320" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ52932829" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ53040018" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ53142561" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ53248070" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ53352660" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53460172" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ53569688" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ53679205" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ53786730" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53898244" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ54005271" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ54109792" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ54216502" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54352148" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54463983" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54579076" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54692408" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54806435" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ54911949" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.779780638381</v>
+        <v>2184.671897585625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001176208394394705</v>
+        <v>0.001464959308295246</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.74574702276774</v>
+        <v>32.20427098408096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2091069838984121</v>
+        <v>0.2018500697268321</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.2718379658623</v>
+        <v>219.4032122837116</v>
       </c>
       <c r="C4" t="n">
-        <v>6.345634217949654e-29</v>
+        <v>5.178226277373071e-30</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00833065789228904</v>
+        <v>-0.006767235529891346</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5467878702067113</v>
+        <v>0.6200870539911902</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.2043125746863e-06</v>
+        <v>-1.065224135243074e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6777406186633086</v>
+        <v>0.5841095566541908</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.60481401169739</v>
+        <v>-22.31511208267146</v>
       </c>
       <c r="C7" t="n">
-        <v>2.233841031158548e-05</v>
+        <v>2.595484464360115e-05</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.115554230775419</v>
+        <v>-6.842493566901218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003894950842877537</v>
+        <v>0.004914889980501361</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-324.4969550605083</v>
+        <v>-312.0200184911391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4943089659447112</v>
+        <v>0.5101634350393942</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.1999265885715</v>
+        <v>181.6719673322254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5319797365158215</v>
+        <v>0.5595502185884507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-577.7184094766308</v>
+        <v>7347.930301938146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4430382973488209</v>
+        <v>2.253268557271011e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7421.089856702949</v>
+        <v>28.5740810157844</v>
       </c>
       <c r="C12" t="n">
-        <v>1.973702110181725e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.17543376833642</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001133381388201629</v>
+        <v>0.0001383850540452723</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.428475372792</v>
+        <v>2084.181934526227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003450458728916425</v>
+        <v>0.004222899910442269</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.38189169769748</v>
+        <v>54.7875585361935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03981729397858182</v>
+        <v>0.0396759281226494</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.2965190210132</v>
+        <v>204.6508153132049</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05917592958528e-26</v>
+        <v>8.943720579291455e-28</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01129589156952515</v>
+        <v>-0.009772178852145777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4281947472843065</v>
+        <v>0.4950463074362658</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.824145532037348e-05</v>
+        <v>-1.974697787943149e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3665859260745938</v>
+        <v>0.3313032360373086</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.38377607249663</v>
+        <v>-21.29179020199017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001228788616556133</v>
+        <v>0.0001441983486052054</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.698410842963753</v>
+        <v>-7.347447884232579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00208469708566145</v>
+        <v>0.003358916694700558</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-528.2066555331558</v>
+        <v>-658.2534778467502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2839183235715476</v>
+        <v>0.1799423020129585</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242.837389004505</v>
+        <v>239.5561986184839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4456084581702517</v>
+        <v>0.4548224626091316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1233.567297978878</v>
+        <v>8406.830723919009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08889360668661409</v>
+        <v>1.227757061651854e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8650.177438553359</v>
+        <v>29.27046505139065</v>
       </c>
       <c r="C12" t="n">
-        <v>5.415361298665723e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.40158800724853</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001142515388323667</v>
+        <v>0.0002846484130686527</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2045.651303684159</v>
+        <v>2036.55480110673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003795185486403442</v>
+        <v>0.004554106841391315</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.32797154220684</v>
+        <v>52.86726688667938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04578972160696099</v>
+        <v>0.08284264529382589</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.3905230571948</v>
+        <v>186.8545540909772</v>
       </c>
       <c r="C4" t="n">
-        <v>3.97706892216293e-20</v>
+        <v>2.274817638435891e-21</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0158409664582779</v>
+        <v>-0.01763532848892987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2792042253625042</v>
+        <v>0.2355498293595141</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.433908670040124e-05</v>
+        <v>-1.731547307709614e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4900343264561196</v>
+        <v>0.4115455218370372</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.1676739212562</v>
+        <v>-25.60222013434809</v>
       </c>
       <c r="C7" t="n">
-        <v>4.247167559578803e-06</v>
+        <v>8.866806503386372e-06</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.148985614571288</v>
+        <v>-4.690582087980964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03854862688897182</v>
+        <v>0.06252343821100069</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-809.2831554666368</v>
+        <v>-1049.120047862506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1105206535144619</v>
+        <v>0.03841209725207944</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.8329231555837</v>
+        <v>501.3723217728149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1293689717149706</v>
+        <v>0.1150602520702754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1796.903468295247</v>
+        <v>9153.941492937971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01825224693105315</v>
+        <v>5.276805600609548e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9335.687657891605</v>
+        <v>27.23896104702468</v>
       </c>
       <c r="C12" t="n">
-        <v>1.989399194918465e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.19067591188667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001191182778790201</v>
+        <v>0.0006698299807444702</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2224.288756034311</v>
+        <v>2228.780356651185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003532109436924571</v>
+        <v>0.003732458567111421</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.43556070504988</v>
+        <v>57.71244606262609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05045950303852175</v>
+        <v>0.04723599755696528</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.8319331805623</v>
+        <v>207.3290946252516</v>
       </c>
       <c r="C4" t="n">
-        <v>2.909894735630023e-25</v>
+        <v>3.542874783169109e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01835701186764935</v>
+        <v>-0.01606674982294076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2378417294125792</v>
+        <v>0.3036468237008369</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.066811573956254e-06</v>
+        <v>-6.913613368327056e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8448603927909084</v>
+        <v>0.9787137534036836</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.10411069003332</v>
+        <v>-25.20397205306766</v>
       </c>
       <c r="C7" t="n">
-        <v>3.07013625777511e-05</v>
+        <v>3.288218435038148e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.061046589478934</v>
+        <v>-7.048971829094061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02417118249139815</v>
+        <v>0.02557486254263178</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-386.9402994893703</v>
+        <v>-414.4378914559757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4178846698876357</v>
+        <v>0.3893215643193384</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.398851219011</v>
+        <v>486.1069454234237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1581244081561828</v>
+        <v>0.1522983301034083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1453.212051433261</v>
+        <v>7862.878070785458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06943243686141191</v>
+        <v>1.10954624263059e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8208.908389559525</v>
+        <v>26.57093753955175</v>
       </c>
       <c r="C12" t="n">
-        <v>4.000296774874387e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.55316832162557</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000595436756874125</v>
+        <v>0.001342187505150175</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2167.497725606631</v>
+        <v>2141.616240967183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001818212445533616</v>
+        <v>0.001866668197215712</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.19539892891892</v>
+        <v>24.72187479518843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2797674634091253</v>
+        <v>0.2864975922764511</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.7376349058503</v>
+        <v>219.0073569695077</v>
       </c>
       <c r="C4" t="n">
-        <v>1.885388023778079e-30</v>
+        <v>4.140227203981798e-32</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01968986287224088</v>
+        <v>-0.01929576823475082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1293607691733163</v>
+        <v>0.1343664312511645</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.48994015038347e-05</v>
+        <v>-1.582813074298654e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.404701880354882</v>
+        <v>0.3690627552587032</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.79463045229276</v>
+        <v>-16.61963901434451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001397268405177734</v>
+        <v>0.001431428261887347</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.033799887433126</v>
+        <v>-3.934726240276714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1163036473794719</v>
+        <v>0.1218825624602394</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.302827538636564</v>
+        <v>3.994442701451419</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9939602707650037</v>
+        <v>0.9926637749446302</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>465.4570903769942</v>
+        <v>465.1876601163426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1351565649045652</v>
+        <v>0.134149523172795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-239.5767602852011</v>
+        <v>5537.603788237127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7320206069254915</v>
+        <v>7.777337682622151e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5590.136123006443</v>
+        <v>22.09333036236202</v>
       </c>
       <c r="C12" t="n">
-        <v>7.797523756579452e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.36956064364125</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001871675636726226</v>
+        <v>0.001921706963761898</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1913.027510631977</v>
+        <v>1832.572058857011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007299084049254267</v>
+        <v>0.01069463566958917</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.61797011230412</v>
+        <v>68.4337969134191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01453159151906863</v>
+        <v>0.01290008680878527</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.008802630792</v>
+        <v>211.1899986064032</v>
       </c>
       <c r="C4" t="n">
-        <v>7.142538237896916e-29</v>
+        <v>4.153526615419223e-30</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005589734994873051</v>
+        <v>-0.003090769902269364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6998520387644289</v>
+        <v>0.8321525781671919</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.457244594267302e-06</v>
+        <v>-7.011170444538438e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9025885440279406</v>
+        <v>0.7277795023635383</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.38852440471669</v>
+        <v>-18.55150142545676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008760914709697378</v>
+        <v>0.00153540346789049</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.978460250338529</v>
+        <v>-6.385604986434778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004143195038823377</v>
+        <v>0.008656476016633958</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-399.3562367494542</v>
+        <v>-458.7438417373105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3687244484986156</v>
+        <v>0.3056604260416209</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-68.59703579663108</v>
+        <v>-92.39022450638424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8394022442745033</v>
+        <v>0.7868309046493094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1384.900276164298</v>
+        <v>8479.542802431521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05271706633564115</v>
+        <v>2.597554622229851e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8818.199319133531</v>
+        <v>27.33289645261022</v>
       </c>
       <c r="C12" t="n">
-        <v>8.651924294410615e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.78797281368256</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000277237830023407</v>
+        <v>0.0007871968991445487</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2272.006070918708</v>
+        <v>2207.848004243044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003488703133894923</v>
+        <v>0.004971242275815094</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.18008121203037</v>
+        <v>40.87978434688684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444047807683814</v>
+        <v>0.1424871467620588</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.3537925123808</v>
+        <v>209.6246039363434</v>
       </c>
       <c r="C4" t="n">
-        <v>1.77307647664505e-24</v>
+        <v>2.538681650679018e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01015503959191581</v>
+        <v>-0.008718758658622303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4922163990412429</v>
+        <v>0.5598596946814007</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.600148541413641e-05</v>
+        <v>-2.029919886032899e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4473390488813747</v>
+        <v>0.339198622890467</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.78780401216317</v>
+        <v>-22.05966560286425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000135107749137343</v>
+        <v>0.0002487661985963568</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.859633404586283</v>
+        <v>-5.92771389745425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01254503208903565</v>
+        <v>0.03042315751724271</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-375.5699398026732</v>
+        <v>-483.2524570471517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4324907943822783</v>
+        <v>0.3161920277311055</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.1774640188107</v>
+        <v>293.7692694512368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3501958858161192</v>
+        <v>0.3939307550260044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1626.269494358991</v>
+        <v>7685.432783415249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03401519502961529</v>
+        <v>4.225572919965988e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8157.055260599145</v>
+        <v>24.87121009848531</v>
       </c>
       <c r="C12" t="n">
-        <v>1.103214562615411e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.07710110088064</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001242143514917006</v>
+        <v>0.003967096567330898</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2556.328822219986</v>
+        <v>2502.555368683241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001087645441056688</v>
+        <v>0.001562384921988164</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.24876656743031</v>
+        <v>50.67176796156512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07031031569198895</v>
+        <v>0.07720500133363015</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.147178163969</v>
+        <v>204.7418060096386</v>
       </c>
       <c r="C4" t="n">
-        <v>5.924933071170395e-22</v>
+        <v>3.656543134492914e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01190406757201866</v>
+        <v>-0.009243036874028667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4197039088974914</v>
+        <v>0.5346305561960536</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.340753763128928e-05</v>
+        <v>-2.817401227268937e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2615539440446698</v>
+        <v>0.1801686698031189</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.77808648772732</v>
+        <v>-24.21461068261848</v>
       </c>
       <c r="C7" t="n">
-        <v>6.420787007923748e-05</v>
+        <v>0.0001101028506764791</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.642157078363446</v>
+        <v>-7.368378288632826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004245668299413874</v>
+        <v>0.006364059865957498</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-178.1018399738068</v>
+        <v>-175.5625989727927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7209230847412487</v>
+        <v>0.7281352383146029</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273.2717182507348</v>
+        <v>265.4627191161941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4272257834916044</v>
+        <v>0.4463867123295318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1689.801506052083</v>
+        <v>7856.907959253014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03179159854506743</v>
+        <v>3.42822714604567e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8354.208828499581</v>
+        <v>24.65894206969507</v>
       </c>
       <c r="C12" t="n">
-        <v>8.421500259834428e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.48077538556552</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001320587554738406</v>
+        <v>0.003851669961018007</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.571056406596</v>
+        <v>1526.014066547021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0289288945912527</v>
+        <v>0.03524356344889881</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.37940256567467</v>
+        <v>37.34840636625154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1689934047893446</v>
+        <v>0.1612430995160363</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.9179817381474</v>
+        <v>183.5688080905029</v>
       </c>
       <c r="C4" t="n">
-        <v>3.227404111527461e-21</v>
+        <v>1.452230028335714e-21</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02313823395152276</v>
+        <v>-0.02226684290635299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1228269832650732</v>
+        <v>0.1403871172353704</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.061157097881908e-05</v>
+        <v>-2.509445684354259e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3157775545014935</v>
+        <v>0.2226730812440651</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.99405600670558</v>
+        <v>-17.29450247791265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00182481576792746</v>
+        <v>0.002847039039928194</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.331727186812758</v>
+        <v>-1.813316660354928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3837865953424272</v>
+        <v>0.4989611302468068</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-26.11376493569151</v>
+        <v>-91.72586247434583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9538121412206348</v>
+        <v>0.8395594157206578</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.5905955430467</v>
+        <v>687.4054360457542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02619332253022039</v>
+        <v>0.03238041246018368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1274.055066201179</v>
+        <v>8339.751098720981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07172717290005906</v>
+        <v>3.130779755279955e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8588.036900721832</v>
+        <v>24.40321183454216</v>
       </c>
       <c r="C12" t="n">
-        <v>1.224012456910767e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.57744390814355</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000706641903291777</v>
+        <v>0.001729846907400414</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.245168675722</v>
+        <v>1933.234346333301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004608275282352749</v>
+        <v>0.005765299107606185</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.80332299944945</v>
+        <v>49.33945352047084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06083818177272844</v>
+        <v>0.06454544967444564</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.8243031071408</v>
+        <v>202.3797518905491</v>
       </c>
       <c r="C4" t="n">
-        <v>3.079454429430133e-25</v>
+        <v>5.502200737826421e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01586064937327656</v>
+        <v>-0.01460533331557212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2602544490785855</v>
+        <v>0.3013424473260762</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.022536122348039e-06</v>
+        <v>-1.069916084460033e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6984697500256468</v>
+        <v>0.6060553283093706</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.83676102854142</v>
+        <v>-21.31449309183552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001089159759158849</v>
+        <v>0.0001624831024698176</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.776273435430905</v>
+        <v>-4.411380204632106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06304893166246836</v>
+        <v>0.0859659059064313</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-744.6284292515156</v>
+        <v>-797.2174191505255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1130480310272999</v>
+        <v>0.09075279096728955</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.7484173030306</v>
+        <v>423.6294758302297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.190581948579376</v>
+        <v>0.1970779102714982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1154.102428617851</v>
+        <v>8374.401210232474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1211053258217927</v>
+        <v>2.493481499852181e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8789.249637168537</v>
+        <v>24.03016189434695</v>
       </c>
       <c r="C12" t="n">
-        <v>9.266857181730017e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.7541160058425</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00159573145031934</v>
+        <v>0.003021236170201696</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2709.171040467669</v>
+        <v>2666.053388363348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001848831352096839</v>
+        <v>0.0002394280750034617</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.77807127185184</v>
+        <v>51.15040481800057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05822662370446139</v>
+        <v>0.06704590908653041</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.337331434795</v>
+        <v>235.0149554418936</v>
       </c>
       <c r="C4" t="n">
-        <v>1.049261165205046e-33</v>
+        <v>1.475876818579366e-35</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008503050813769071</v>
+        <v>-0.008156045873815139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5349990900027723</v>
+        <v>0.55314134431665</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.67262373589218e-06</v>
+        <v>2.142743119606873e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9308895073082364</v>
+        <v>0.9911549115140164</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.5732891573954</v>
+        <v>-23.0252653738992</v>
       </c>
       <c r="C7" t="n">
-        <v>1.034125881299813e-05</v>
+        <v>1.620179659569069e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.371770089174017</v>
+        <v>-9.048319225915598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008515198302704004</v>
+        <v>0.001262178097813852</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-700.6962803214817</v>
+        <v>-749.6897736183648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1317322769212982</v>
+        <v>0.1072944333107795</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-102.0893891510123</v>
+        <v>-96.99459207221798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7489446370059598</v>
+        <v>0.7618991133519254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-946.188523072932</v>
+        <v>6534.906888805428</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1567577051528879</v>
+        <v>2.528354061644946e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6704.419872657976</v>
+        <v>26.82898995423158</v>
       </c>
       <c r="C12" t="n">
-        <v>1.592293403753675e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.89214431086389</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001315758844597099</v>
+        <v>0.0002955539737736559</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.652527385779</v>
+        <v>2339.558247118403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000709469897277526</v>
+        <v>0.001026401323258725</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.51110509043436</v>
+        <v>66.20632451311735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02920670142610173</v>
+        <v>0.02877615500200899</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.3113188895011</v>
+        <v>212.2731992439498</v>
       </c>
       <c r="C4" t="n">
-        <v>1.192427830296875e-27</v>
+        <v>7.255670129763594e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01430623685043159</v>
+        <v>-0.01300885299572152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3009327499753416</v>
+        <v>0.3499111069081942</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.769895628551634e-06</v>
+        <v>-9.075030505277304e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7657938958987192</v>
+        <v>0.6406588276595788</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.36996789080876</v>
+        <v>-20.88886551791214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001212514904005949</v>
+        <v>0.0001855894600184299</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.749521459780368</v>
+        <v>-7.28851534067233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002097431800676536</v>
+        <v>0.003833379163274783</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-577.3381010288845</v>
+        <v>-677.8514271564995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.202607450974681</v>
+        <v>0.1351977089003456</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.1193270204608</v>
+        <v>188.7184237789625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5315995680877021</v>
+        <v>0.5602152103347451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1295.256891549942</v>
+        <v>7167.785626221653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07268834699644645</v>
+        <v>3.090056949962588e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7422.952798316375</v>
+        <v>25.96485079112371</v>
       </c>
       <c r="C12" t="n">
-        <v>1.35494135626949e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.08303027008679</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002515461963392198</v>
+        <v>0.0006469562420170184</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2062.213826132919</v>
+        <v>1955.951391949848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003396931109981123</v>
+        <v>0.006251198152263257</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.51565774025687</v>
+        <v>62.63975503608584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01063017119045984</v>
+        <v>0.01957844173194288</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.7928285757095</v>
+        <v>206.8277819808788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.897074061860888e-27</v>
+        <v>1.072276910858774e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009368984594114334</v>
+        <v>-0.006821087586483629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5160463237314995</v>
+        <v>0.6420740074557725</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.283944424917284e-05</v>
+        <v>-3.6513942530305e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.587012648935727</v>
+        <v>0.9876186777207441</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.30863557832206</v>
+        <v>-23.01946562778756</v>
       </c>
       <c r="C7" t="n">
-        <v>4.075420219903614e-05</v>
+        <v>6.850650731001989e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.861804563166004</v>
+        <v>-4.886027381740757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01940660240773488</v>
+        <v>0.05253930701951117</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-462.9641959222873</v>
+        <v>-591.9517194551752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.297525374318742</v>
+        <v>0.189288657684179</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>284.8194704589441</v>
+        <v>320.9825407965301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3756806610014541</v>
+        <v>0.3273926884624083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2140.286785193378</v>
+        <v>6677.089799983844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01058575826769114</v>
+        <v>3.911998622329809e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6906.672983060111</v>
+        <v>28.58339467205984</v>
       </c>
       <c r="C12" t="n">
-        <v>1.577891071410879e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.5609705471548</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001035205891574628</v>
+        <v>0.0004612295740917816</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.074302063887</v>
+        <v>1148.704496118002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1074548404088463</v>
+        <v>0.126819529419151</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.45249227394018</v>
+        <v>60.55790572724287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02042397120474699</v>
+        <v>0.01802397833568123</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.9015293103294</v>
+        <v>189.760970145291</v>
       </c>
       <c r="C4" t="n">
-        <v>1.830830754159196e-24</v>
+        <v>3.676676146646793e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01286077066493949</v>
+        <v>-0.01210646105550875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.361184640587028</v>
+        <v>0.3888009226078066</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.889155831504431e-05</v>
+        <v>-3.115515347475918e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1584109076872967</v>
+        <v>0.1253687064148939</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.71802240426214</v>
+        <v>-14.27891761883955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01366585271933022</v>
+        <v>0.01623436430748583</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.046318172563719</v>
+        <v>-0.6198899292269928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7003713574090544</v>
+        <v>0.8167694733299129</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-22.72294572693409</v>
+        <v>-36.99396682798169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9598695889759814</v>
+        <v>0.9346288224802926</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.5333302790067</v>
+        <v>505.2467869772782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09744020950954756</v>
+        <v>0.09934557960311106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-651.588518839661</v>
+        <v>7865.266721200603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.367473543481768</v>
+        <v>5.877357281647184e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7994.74291928421</v>
+        <v>26.25522325050475</v>
       </c>
       <c r="C12" t="n">
-        <v>4.537053880707915e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.18230423916967</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005137944955194495</v>
+        <v>0.0006943837404061048</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1627.646951545639</v>
+        <v>1660.137577503403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0213712640394268</v>
+        <v>0.02040897570649093</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.04788469459392</v>
+        <v>43.78503911517744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05905821355481165</v>
+        <v>0.1062879925981913</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.070312563451</v>
+        <v>215.1290398078216</v>
       </c>
       <c r="C4" t="n">
-        <v>2.014091037648069e-25</v>
+        <v>6.635129558527977e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01573962435680082</v>
+        <v>-0.01553063495028763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2657908082267869</v>
+        <v>0.2780715881995451</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.519695672200859e-06</v>
+        <v>5.504345386174231e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7431672769418669</v>
+        <v>0.9779785091662604</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.71786228465179</v>
+        <v>-18.42336175586687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006723731432182062</v>
+        <v>0.0009295847834352562</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.710523907378629</v>
+        <v>-5.613355914705771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02251715413769433</v>
+        <v>0.02664059141643719</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-405.0488439082997</v>
+        <v>-599.360915918706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4373571652694956</v>
+        <v>0.2495439599138528</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.1327689274177</v>
+        <v>227.9218218392245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4748497191424542</v>
+        <v>0.4587354280792894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1769.708619138578</v>
+        <v>8450.238216519418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03476533873073769</v>
+        <v>1.292940061409033e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8557.523420805712</v>
+        <v>28.18705644917925</v>
       </c>
       <c r="C12" t="n">
-        <v>6.808483482944323e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.84663841923379</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001026339534200187</v>
+        <v>0.0004722435036597974</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2498.694914532598</v>
+        <v>2407.438353574691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002570030118677765</v>
+        <v>0.0005156509233977599</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.60270572888371</v>
+        <v>44.76508204480142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09085149006981713</v>
+        <v>0.0955274535105789</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2571125309925</v>
+        <v>212.9089332707075</v>
       </c>
       <c r="C4" t="n">
-        <v>3.243981519098047e-27</v>
+        <v>1.138758710684548e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01035180219960009</v>
+        <v>-0.008372943634154931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4621379958176007</v>
+        <v>0.5583857892065345</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.606742921852911e-06</v>
+        <v>-1.227454259874206e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6556285953777148</v>
+        <v>0.5311760638429107</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.39217486015548</v>
+        <v>-22.8352341232294</v>
       </c>
       <c r="C7" t="n">
-        <v>2.28820521239577e-05</v>
+        <v>4.619101285960712e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.482697250137367</v>
+        <v>-5.957783575126964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00808159026410816</v>
+        <v>0.01616411781363724</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-714.9577834699705</v>
+        <v>-747.3517600526958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1100431084650363</v>
+        <v>0.1008426779067347</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-63.57891161285602</v>
+        <v>-47.36146199081213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8515132491713667</v>
+        <v>0.8910559471393619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1672.080238100295</v>
+        <v>7403.842273557777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01392202619141233</v>
+        <v>2.58903608548686e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7811.63341052293</v>
+        <v>25.74353277614317</v>
       </c>
       <c r="C12" t="n">
-        <v>5.958458568402014e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.60692546976779</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001670978516197288</v>
+        <v>0.0007124837846708607</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2593.205256132966</v>
+        <v>2577.827908559487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000965266313778157</v>
+        <v>0.001266283598682975</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.3633999014333</v>
+        <v>43.3425157440459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1620151708139185</v>
+        <v>0.1503445462351298</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.6631694794911</v>
+        <v>199.2547640025363</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4132351480824e-23</v>
+        <v>1.924028845456925e-24</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02289625267814273</v>
+        <v>-0.02025143971960557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1185903295035344</v>
+        <v>0.1738913018647776</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.546694201969115e-06</v>
+        <v>-4.829229371382738e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9169033315169564</v>
+        <v>0.8449396371060296</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.55987410379792</v>
+        <v>-27.76484834406386</v>
       </c>
       <c r="C7" t="n">
-        <v>5.964423078717577e-06</v>
+        <v>1.424291881249464e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.876532684380477</v>
+        <v>-8.318057854715596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005272875438762555</v>
+        <v>0.009943272308805847</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-338.4932570620149</v>
+        <v>-414.4211219138351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4624367083304785</v>
+        <v>0.3764208249267892</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525.0643662766906</v>
+        <v>500.652572614445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1503083837207639</v>
+        <v>0.1778984995467239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1900.704673459993</v>
+        <v>8371.110229022397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01263936564983664</v>
+        <v>6.390163727694937e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8948.207802442277</v>
+        <v>25.41929081698436</v>
       </c>
       <c r="C12" t="n">
-        <v>9.859960148449127e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.29824330516408</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004727520580082693</v>
+        <v>0.002311091061322152</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2787.403714491604</v>
+        <v>2732.742428431292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000136899776324047</v>
+        <v>0.0001826371675712097</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.37355223721838</v>
+        <v>45.90795489766117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08777469540141158</v>
+        <v>0.0983621335823063</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.0847990315517</v>
+        <v>218.1499245726231</v>
       </c>
       <c r="C4" t="n">
-        <v>1.003640271659081e-28</v>
+        <v>3.146330649790839e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005906146170640971</v>
+        <v>-0.004696747782928428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6913296105559326</v>
+        <v>0.7522050423929019</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.854050200314432e-05</v>
+        <v>-2.125282349203069e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3754511802850696</v>
+        <v>0.3083870729373187</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.12881178505956</v>
+        <v>-24.61669483801063</v>
       </c>
       <c r="C7" t="n">
-        <v>5.995836047489418e-06</v>
+        <v>8.818343054797408e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.924518163935247</v>
+        <v>-7.569525501305041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00191220707191676</v>
+        <v>0.002874704207148859</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-421.1185749496456</v>
+        <v>-454.3569609530725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3683998884777665</v>
+        <v>0.3322268077650877</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.5588653489027</v>
+        <v>507.2539875058163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1129077035160299</v>
+        <v>0.1215641559382281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-945.5457183771039</v>
+        <v>6000.040713638453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2045720987433723</v>
+        <v>0.0001088830867577793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6307.138387265864</v>
+        <v>22.49269537227283</v>
       </c>
       <c r="C12" t="n">
-        <v>5.912173624360947e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.62828524952595</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.004601494270935461</v>
+        <v>0.006704610904050615</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2315.463593813</v>
+        <v>2240.209047972232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003457325165667335</v>
+        <v>0.005426415028147375</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.4151166041079</v>
+        <v>33.02598638792408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277027877597366</v>
+        <v>0.2468612589071175</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.7133462873702</v>
+        <v>193.5418949791872</v>
       </c>
       <c r="C4" t="n">
-        <v>9.110442658286883e-24</v>
+        <v>1.616545185709578e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01725508108407284</v>
+        <v>-0.01585284419164192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2415848165782697</v>
+        <v>0.290816104438837</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.10261322268128e-05</v>
+        <v>-1.735313955610228e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6078264763972778</v>
+        <v>0.4255619847968406</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.33668538963348</v>
+        <v>-25.28682055602184</v>
       </c>
       <c r="C7" t="n">
-        <v>1.444245146179368e-05</v>
+        <v>3.972673070638558e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.886534262975204</v>
+        <v>-4.020390027627576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1319030552298421</v>
+        <v>0.2209262313471561</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-760.9805190765896</v>
+        <v>-844.1975998468429</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1167091344552393</v>
+        <v>0.08741281030313749</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.3308690781932</v>
+        <v>470.0605477919048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.151772514538316</v>
+        <v>0.1687883850373665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1860.784233566355</v>
+        <v>7738.452829258096</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01119303060905509</v>
+        <v>4.226552521986975e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8193.128018256399</v>
+        <v>25.31945573061093</v>
       </c>
       <c r="C12" t="n">
-        <v>9.220508160158536e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.07944790370619</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005033198215405409</v>
+        <v>0.002399332477905032</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2483.968752615008</v>
+        <v>2292.284066022792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001365563030451683</v>
+        <v>0.0006707155865047011</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.9039742314425</v>
+        <v>60.27971990050477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007272094107670143</v>
+        <v>0.01813167547332238</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.6952942968928</v>
+        <v>213.4736739610393</v>
       </c>
       <c r="C4" t="n">
-        <v>1.062476479100865e-32</v>
+        <v>3.635923913952182e-32</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01038937741334642</v>
+        <v>-0.01011226989350933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4053404350904645</v>
+        <v>0.4378596796841095</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.951887008084273e-05</v>
+        <v>4.678904727353647e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3390184412733188</v>
+        <v>0.8225851849746401</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.75931638011107</v>
+        <v>-17.3137740733924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001832383354202574</v>
+        <v>0.00143207193492699</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.079545423946119</v>
+        <v>-3.770036587884313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04247331107628932</v>
+        <v>0.1436857644747084</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-641.9410949980743</v>
+        <v>-735.6534504578231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1053245396772196</v>
+        <v>0.07515795544816321</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-65.25375082542269</v>
+        <v>-26.33739700776096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8273852583366896</v>
+        <v>0.9327812068693908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2443.252234145884</v>
+        <v>5068.505942671616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003023883192857875</v>
+        <v>0.0002820300097648125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5344.414967095596</v>
+        <v>23.55455012536957</v>
       </c>
       <c r="C12" t="n">
-        <v>7.124923524458005e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.5307837492794</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.146438587554192e-05</v>
+        <v>0.0007896149768923148</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378.757347574116</v>
+        <v>1309.066631216243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0549347727107087</v>
+        <v>0.06706062626748079</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.93598017037899</v>
+        <v>53.43093636583571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04713095705320301</v>
+        <v>0.04513926028704209</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8333505940506</v>
+        <v>205.1274326145406</v>
       </c>
       <c r="C4" t="n">
-        <v>6.539979410371061e-25</v>
+        <v>3.650308769173732e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01312849257302118</v>
+        <v>-0.01233069907814068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3692293346888981</v>
+        <v>0.3984055584060509</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.507467276365174e-05</v>
+        <v>-1.689047932105998e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4559448165128741</v>
+        <v>0.4019759687364963</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.62057565535198</v>
+        <v>-20.37742880830176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002991410634269441</v>
+        <v>0.0003461333531769509</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.659124968355673</v>
+        <v>-6.335983795224525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009336012681645901</v>
+        <v>0.01261652816742633</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-61.70436344442351</v>
+        <v>-85.14122159835279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8937237522460466</v>
+        <v>0.8536153957655805</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.3500584393623</v>
+        <v>510.6185435754787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1087998753618538</v>
+        <v>0.1107413636968091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-782.6283443210964</v>
+        <v>10410.56844258945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3019583550362446</v>
+        <v>3.305775312855262e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10528.30239928922</v>
+        <v>30.93005029316975</v>
       </c>
       <c r="C12" t="n">
-        <v>2.467995779437953e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.95808786983914</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.120174561336468e-05</v>
+        <v>0.0001325384480979579</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2473.817167850205</v>
+        <v>2462.173892220775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001492358269258125</v>
+        <v>0.001579831798357279</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.76317936778396</v>
+        <v>41.81216661080397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1356205600493592</v>
+        <v>0.144644394006197</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.6444523270949</v>
+        <v>218.8014539411512</v>
       </c>
       <c r="C4" t="n">
-        <v>5.848243157853416e-24</v>
+        <v>6.206492046569322e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01579224202212522</v>
+        <v>-0.01442659403416531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.302057351982457</v>
+        <v>0.3445441210200274</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.043833013359663e-07</v>
+        <v>-7.485379981959065e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9781390820538409</v>
+        <v>0.9729111598307754</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.86558625659656</v>
+        <v>-22.53890553514634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002197318003101163</v>
+        <v>0.00026606318153681</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.516464519676376</v>
+        <v>-6.284867655531661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01292844029171833</v>
+        <v>0.01618540205363416</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-719.2972073582941</v>
+        <v>-764.667832208359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1939558788092615</v>
+        <v>0.166720301632573</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.3567394422412</v>
+        <v>300.5821974123419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3559605655627092</v>
+        <v>0.3861613173861604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-864.5263737739829</v>
+        <v>6798.47784766682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2629163886408379</v>
+        <v>4.651016893374319e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7033.103943332031</v>
+        <v>22.01525745697334</v>
       </c>
       <c r="C12" t="n">
-        <v>2.981873633768915e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.03159601200402</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003810544787768903</v>
+        <v>0.006536725828333887</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2477.648629421619</v>
+        <v>2434.95767048417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001143475159681617</v>
+        <v>0.00160485909301573</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.08495962476866</v>
+        <v>35.01363323686886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2167593746059952</v>
+        <v>0.1975594746566409</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8316110208006</v>
+        <v>192.2375112469947</v>
       </c>
       <c r="C4" t="n">
-        <v>1.674073975711982e-21</v>
+        <v>1.468185475402424e-22</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01880573490485895</v>
+        <v>-0.01793264129970095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1878874740828224</v>
+        <v>0.2155824386653944</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.260406759482713e-05</v>
+        <v>-1.69867406960542e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5253022789505464</v>
+        <v>0.3969172593362906</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.68184903082357</v>
+        <v>-25.24462810765257</v>
       </c>
       <c r="C7" t="n">
-        <v>1.165996129242631e-05</v>
+        <v>2.058961975067268e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.968243635620034</v>
+        <v>-5.494486084639316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02214481156420875</v>
+        <v>0.03699593736618902</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-514.5459061410677</v>
+        <v>-579.2469766351421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2584875016131161</v>
+        <v>0.2093482485444245</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.7856218948614</v>
+        <v>380.7961914464963</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2885079325540789</v>
+        <v>0.2761643972534024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1635.510801768441</v>
+        <v>8088.336515724724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02410755653933543</v>
+        <v>5.000887546572757e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8588.077736900806</v>
+        <v>23.98551010595565</v>
       </c>
       <c r="C12" t="n">
-        <v>1.225217831366599e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.78046413192207</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001110755423222323</v>
+        <v>0.003462264061515304</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.765730286385</v>
+        <v>2238.48985943179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001663460479818822</v>
+        <v>0.001814100806957034</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.50755304640126</v>
+        <v>54.94164574596164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03465751015461575</v>
+        <v>0.04346169889286869</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.3652182784494</v>
+        <v>208.5612207094264</v>
       </c>
       <c r="C4" t="n">
-        <v>8.544118220028401e-26</v>
+        <v>3.816658079320842e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01240875301090433</v>
+        <v>-0.01076857841712986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3932934523765143</v>
+        <v>0.4582521588017808</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.331789109673516e-05</v>
+        <v>-2.645528147966076e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2483573606011034</v>
+        <v>0.1887673316606765</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.11089859224004</v>
+        <v>-24.08769761479073</v>
       </c>
       <c r="C7" t="n">
-        <v>1.400314795306161e-05</v>
+        <v>1.492141585835616e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.183917824924294</v>
+        <v>-6.987230159500463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004279878549263249</v>
+        <v>0.00546250074146566</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.41284115798862</v>
+        <v>-31.43886081340133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9711661057141698</v>
+        <v>0.9447778343266442</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.4456090503966</v>
+        <v>459.8474177182301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180399758823005</v>
+        <v>0.1677204873571247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1043.512381066277</v>
+        <v>7961.692264619114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1848956993226877</v>
+        <v>5.311072972366854e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8331.621732665095</v>
+        <v>24.40641101644929</v>
       </c>
       <c r="C12" t="n">
-        <v>2.474992746654899e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.64125931067419</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002818789535962728</v>
+        <v>0.004279985276708463</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2471.707876374659</v>
+        <v>2372.882484550335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008419144224006953</v>
+        <v>0.001464073173073752</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.06562927078286</v>
+        <v>56.52861306202024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03828385773776736</v>
+        <v>0.03547369721100189</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.0712400597204</v>
+        <v>207.34174735539</v>
       </c>
       <c r="C4" t="n">
-        <v>3.206599406518922e-25</v>
+        <v>2.047065181250048e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01035707549667066</v>
+        <v>-0.008193539025133045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4868947634314603</v>
+        <v>0.5855710480990562</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.439438809839393e-05</v>
+        <v>-1.766858705997798e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4749628273301399</v>
+        <v>0.3847212379105283</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.28059254552079</v>
+        <v>-23.27779432168581</v>
       </c>
       <c r="C7" t="n">
-        <v>2.773090581979836e-05</v>
+        <v>6.347210453094784e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.352278519345543</v>
+        <v>-6.800207391070732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004128058645925711</v>
+        <v>0.008206678184672165</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-209.1269069177342</v>
+        <v>-212.6280605040066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6477884024791221</v>
+        <v>0.6461079175951118</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.4605604048695</v>
+        <v>441.55789064859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166133828138809</v>
+        <v>0.1889525017220642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1547.626148022912</v>
+        <v>7312.160265956361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04029364838158734</v>
+        <v>6.146945795351658e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7695.106641801943</v>
+        <v>23.49374701700164</v>
       </c>
       <c r="C12" t="n">
-        <v>1.953870606481967e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.56066926668272</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001606117892978088</v>
+        <v>0.00488152250308394</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2474.792885026603</v>
+        <v>2468.712602724419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002634084239667541</v>
+        <v>0.0003231227324362784</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.7288564172744</v>
+        <v>18.64601947250144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3683237423433204</v>
+        <v>0.4648469746173821</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.981478093378</v>
+        <v>211.8795138737989</v>
       </c>
       <c r="C4" t="n">
-        <v>1.469500906511498e-25</v>
+        <v>5.5226263384585e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01757076485054931</v>
+        <v>-0.0168623620502432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1917882106852263</v>
+        <v>0.2159841135389395</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.142896013731995e-05</v>
+        <v>-1.7447565375414e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5510617979471979</v>
+        <v>0.364303669592841</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.70830393204733</v>
+        <v>-20.94324992886222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001006871485156415</v>
+        <v>0.0001987524284910924</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.5850484709113</v>
+        <v>-8.478889544073891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004201806564276067</v>
+        <v>0.0005745070731839018</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-255.9641392101062</v>
+        <v>-302.0481215025447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5597377650782548</v>
+        <v>0.4965032221492017</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.9301136149252</v>
+        <v>236.4684753416334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.394653821171369</v>
+        <v>0.4493744278738903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1661.948933292912</v>
+        <v>7909.172910383013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03154085429962351</v>
+        <v>3.598258993729365e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8113.197258221233</v>
+        <v>26.60675920847881</v>
       </c>
       <c r="C12" t="n">
-        <v>1.449515367668155e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.54563785705858</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.600418468725393e-05</v>
+        <v>0.0003927131298815069</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2155.293033474709</v>
+        <v>2150.014120552776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00722838336202666</v>
+        <v>0.007843152091241071</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.0099236937948</v>
+        <v>45.69638555391532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08429821333881872</v>
+        <v>0.102586537743817</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.2816281010627</v>
+        <v>208.6161680151275</v>
       </c>
       <c r="C4" t="n">
-        <v>1.498587208422192e-25</v>
+        <v>2.030928808715061e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02443060330601644</v>
+        <v>-0.02329217455000551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1353596961579984</v>
+        <v>0.1574181321803778</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.963685662704625e-05</v>
+        <v>1.336349428121805e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4695729775431453</v>
+        <v>0.6224483454767071</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.79081917089111</v>
+        <v>-26.00575882495227</v>
       </c>
       <c r="C7" t="n">
-        <v>1.83389294738226e-05</v>
+        <v>3.395006745160129e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.431605921904293</v>
+        <v>-6.050278914417634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01292560263995375</v>
+        <v>0.01977696001920811</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-762.4485471241935</v>
+        <v>-881.7365306766201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1676790413466091</v>
+        <v>0.1113456465148551</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.2461238008264</v>
+        <v>556.7656317346791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09426027333157623</v>
+        <v>0.1190448274486383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1365.310130991907</v>
+        <v>8004.100193729958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07045298889047225</v>
+        <v>1.574858055599497e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8305.210622784411</v>
+        <v>25.78812318585165</v>
       </c>
       <c r="C12" t="n">
-        <v>6.410572331021942e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.26550696727169</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002364295644007803</v>
+        <v>0.005273410605873097</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1034.25848040681</v>
+        <v>986.4476083764548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1740308124705549</v>
+        <v>0.1943393743493212</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.936444027356</v>
+        <v>76.62778392974886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01091714206335907</v>
+        <v>0.01129392538621194</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.5634140401729</v>
+        <v>195.1779016311895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.420096578450049e-23</v>
+        <v>2.452063147370924e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01285162957025772</v>
+        <v>-0.01160511405282512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3766150500459085</v>
+        <v>0.4235609298722277</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.877791038783439e-05</v>
+        <v>-3.05804520341551e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1775163526576697</v>
+        <v>0.1512365847744079</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.44102988299891</v>
+        <v>-13.33906886914806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02212098881829049</v>
+        <v>0.02322669866396069</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03677740729622059</v>
+        <v>0.3194347791670786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9913665372913538</v>
+        <v>0.9248592386283205</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.68368034256576</v>
+        <v>-7.157367920666218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9025004382985726</v>
+        <v>0.9873506680587537</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.8467389926914</v>
+        <v>509.0942176211938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.128754463401502</v>
+        <v>0.1236160520849499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-865.0322259917079</v>
+        <v>7068.448146493673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2646644129378353</v>
+        <v>6.176343222819332e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7310.635830659417</v>
+        <v>27.78658060254461</v>
       </c>
       <c r="C12" t="n">
-        <v>3.792452281952232e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.96853775271209</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001722377305701257</v>
+        <v>0.0002700143059087228</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2233.918227960671</v>
+        <v>2124.239139005941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001355124910644287</v>
+        <v>0.002477616872548777</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.32807055977182</v>
+        <v>52.29752870981702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05514798757443384</v>
+        <v>0.05347473409739726</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.3054172778945</v>
+        <v>212.1808741093014</v>
       </c>
       <c r="C4" t="n">
-        <v>1.834140083802862e-29</v>
+        <v>4.456164587728041e-30</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008303013124926331</v>
+        <v>-0.006626946019002627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.53523434264432</v>
+        <v>0.6241071059240216</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.629805257562574e-06</v>
+        <v>-2.331767535151655e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8872761671291536</v>
+        <v>0.9003403905042174</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.09155679274883</v>
+        <v>-22.75287200398231</v>
       </c>
       <c r="C7" t="n">
-        <v>1.542173426735e-05</v>
+        <v>2.456324892294393e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.004134801328236</v>
+        <v>-4.095222844508561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04518111575975232</v>
+        <v>0.09912216115927111</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-939.7887021123379</v>
+        <v>-999.5740368129573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03611550225969636</v>
+        <v>0.02742314171333733</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-80.33243472826143</v>
+        <v>-39.5018969631783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7995806604823941</v>
+        <v>0.901617984105762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1427.216408983709</v>
+        <v>7892.245873633025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03788792655626462</v>
+        <v>1.293459160981836e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8284.4369049872</v>
+        <v>23.25406765780259</v>
       </c>
       <c r="C12" t="n">
-        <v>3.761458001523052e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.5244344906065</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0007129111459058194</v>
+        <v>0.001991307014650542</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.148065094568</v>
+        <v>2067.794823837327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005485418453610881</v>
+        <v>0.008738887208343827</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.39467293727041</v>
+        <v>56.8086008191152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0455424172123885</v>
+        <v>0.03733175722351312</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.7961330767459</v>
+        <v>193.8291726501704</v>
       </c>
       <c r="C4" t="n">
-        <v>6.965831693964491e-23</v>
+        <v>1.551722275055788e-23</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01229382017604667</v>
+        <v>-0.01029206441587957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4177373461287919</v>
+        <v>0.4974787232327802</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.854521329131909e-05</v>
+        <v>-2.195759712565489e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3950263276185429</v>
+        <v>0.3135079528666196</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.33663407554451</v>
+        <v>-25.08647819969021</v>
       </c>
       <c r="C7" t="n">
-        <v>1.437812724193473e-05</v>
+        <v>1.839370185000702e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.250334631265181</v>
+        <v>-5.601688585236946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02056145844544316</v>
+        <v>0.03583969956431247</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-476.3768078018593</v>
+        <v>-525.0845711876127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3201428925932829</v>
+        <v>0.2742399352847948</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.0653109409943</v>
+        <v>381.9006846913942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2552375710947704</v>
+        <v>0.2422663422645275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1152.334324939038</v>
+        <v>7942.902927723253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1394717406767687</v>
+        <v>5.52123810304385e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8070.027989532595</v>
+        <v>31.09537370318349</v>
       </c>
       <c r="C12" t="n">
-        <v>3.783792961365384e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.51222328467832</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000249714268714142</v>
+        <v>0.0004369448010715597</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2497.609113271115</v>
+        <v>2548.503595981489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00110086404819055</v>
+        <v>0.00107442631287775</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.04258767747203</v>
+        <v>64.66990857169834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01846028021062487</v>
+        <v>0.02971376984784752</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.6258932868711</v>
+        <v>211.1974965350598</v>
       </c>
       <c r="C4" t="n">
-        <v>1.221540309722815e-26</v>
+        <v>1.162337718252892e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01195975273131622</v>
+        <v>-0.01187554614207437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4295186518491959</v>
+        <v>0.4412201529753131</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.995185374258713e-06</v>
+        <v>-1.162864356423816e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8578940492441791</v>
+        <v>0.6056900168250927</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.64636577560669</v>
+        <v>-24.22857145417652</v>
       </c>
       <c r="C7" t="n">
-        <v>2.722479026223279e-05</v>
+        <v>4.91237106605722e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.36110156999068</v>
+        <v>-6.229909393447073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04682669905738998</v>
+        <v>0.05580400551563475</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-502.0686273588096</v>
+        <v>-604.8614327912844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2695946363937337</v>
+        <v>0.1902360627308471</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.0632450804145</v>
+        <v>330.0591373319193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3335019453651498</v>
+        <v>0.3365289849977048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2115.039611033072</v>
+        <v>6699.695789931021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01310741481627714</v>
+        <v>3.198065106919778e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7222.129338026919</v>
+        <v>22.06617967026759</v>
       </c>
       <c r="C12" t="n">
-        <v>6.799738356785724e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.41346153304042</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001440637058510891</v>
+        <v>0.005622376328739797</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2176.716374441319</v>
+        <v>2167.869024790696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001819665665276159</v>
+        <v>0.002108825229385256</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.26050603211291</v>
+        <v>54.47115436543859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03967762021499595</v>
+        <v>0.04100649750657077</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1915867745724</v>
+        <v>222.9980908985856</v>
       </c>
       <c r="C4" t="n">
-        <v>6.091305208598495e-30</v>
+        <v>6.527997412849448e-31</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008316614392304494</v>
+        <v>-0.00793022868802773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5430316992122739</v>
+        <v>0.5660252401188588</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.801189888904513e-06</v>
+        <v>-1.235416683204431e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6412369832353442</v>
+        <v>0.515851889757591</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.478930382728</v>
+        <v>-22.12014810824902</v>
       </c>
       <c r="C7" t="n">
-        <v>3.587219848200779e-05</v>
+        <v>5.516879109930079e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.12624232076573</v>
+        <v>-6.705015792288336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003406563479319712</v>
+        <v>0.006105210404022141</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-388.5158747274045</v>
+        <v>-492.2164808028811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3867571210236745</v>
+        <v>0.2751408057791194</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.2814583667941</v>
+        <v>334.1403371097408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3415557540399504</v>
+        <v>0.3106730991855465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1360.560155258607</v>
+        <v>8228.400577159746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04613033278546326</v>
+        <v>9.531087013748681e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8592.677377734411</v>
+        <v>20.92835343016156</v>
       </c>
       <c r="C12" t="n">
-        <v>2.690554020098495e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.7629282323369</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002014093177146907</v>
+        <v>0.005976483447771804</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2253.931176935719</v>
+        <v>2156.984894514498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001792393757823755</v>
+        <v>0.002776039077645525</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.87744299303634</v>
+        <v>48.29473761631345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06182046940255138</v>
+        <v>0.07150029029742064</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.3235728852819</v>
+        <v>211.0896991930692</v>
       </c>
       <c r="C4" t="n">
-        <v>3.39918532350751e-26</v>
+        <v>9.989741136342704e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006462744707322877</v>
+        <v>-0.004009045131611932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6557542473322698</v>
+        <v>0.7817319256515366</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.261695513614689e-05</v>
+        <v>-1.646870116702858e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5171216312963758</v>
+        <v>0.3961589487531071</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.50882693318166</v>
+        <v>-22.05640159069</v>
       </c>
       <c r="C7" t="n">
-        <v>6.65151254577186e-05</v>
+        <v>9.549139626201995e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.827190653265617</v>
+        <v>-7.560743690509266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001565729097923992</v>
+        <v>0.002267921993483205</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-152.739738123597</v>
+        <v>-127.2071273760648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.745358154352544</v>
+        <v>0.7876006797965264</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.22215441607</v>
+        <v>88.57865605195911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7578605422473353</v>
+        <v>0.794129084469875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1129.020777214014</v>
+        <v>7523.145629202239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1313201633192948</v>
+        <v>6.64204175908648e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7723.795610581516</v>
+        <v>30.43935112832632</v>
       </c>
       <c r="C12" t="n">
-        <v>3.83148705052193e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.76415905097532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.980428280590856e-05</v>
+        <v>0.0001473219069228178</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1823.981815196945</v>
+        <v>1889.595834879414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01139303438603265</v>
+        <v>0.01112565986225391</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.55637698245219</v>
+        <v>71.48938500958927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00346505726221194</v>
+        <v>0.01036865279136104</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.9146307557323</v>
+        <v>210.8718568626964</v>
       </c>
       <c r="C4" t="n">
-        <v>8.639065620204654e-28</v>
+        <v>1.445444280018022e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01228474389273591</v>
+        <v>-0.01094185486751511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4316744034904413</v>
+        <v>0.4974971382169991</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.162577869195696e-05</v>
+        <v>-7.186899591639416e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6587112581829276</v>
+        <v>0.9786788633070319</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.43227407255655</v>
+        <v>-22.65926922141488</v>
       </c>
       <c r="C7" t="n">
-        <v>3.318747005468291e-05</v>
+        <v>9.466194573722793e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.307343823425001</v>
+        <v>-5.833006433789492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02929239692316209</v>
+        <v>0.05033373257164821</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-317.9383067771778</v>
+        <v>-450.2545394521608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4832619886540815</v>
+        <v>0.3348882805918501</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.1464419321696</v>
+        <v>414.61209396756</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1971627382534236</v>
+        <v>0.2242970405761529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2456.56596708283</v>
+        <v>8054.147162772867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001518274951311314</v>
+        <v>4.627140847029488e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8569.627531550048</v>
+        <v>25.65531475347035</v>
       </c>
       <c r="C12" t="n">
-        <v>4.705980136499233e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.99152916902095</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000165899476044863</v>
+        <v>0.001871777013601125</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1396.153518584406</v>
+        <v>1350.72393206168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04633846214004567</v>
+        <v>0.05492107424934404</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.50730139822011</v>
+        <v>17.02412819367497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4847545634369426</v>
+        <v>0.5224180138267031</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.6763580181319</v>
+        <v>187.4169687826075</v>
       </c>
       <c r="C4" t="n">
-        <v>1.934186978677068e-21</v>
+        <v>1.385062753735536e-22</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.027195762740343</v>
+        <v>-0.02613192379992285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05328982820297459</v>
+        <v>0.06432395921557343</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.134779917497325e-06</v>
+        <v>-1.20050256847519e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7288047252631067</v>
+        <v>0.6090413371880496</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.57311530123695</v>
+        <v>-13.46031155916079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01449023697377645</v>
+        <v>0.02350751566022335</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6595591517876436</v>
+        <v>-0.111962843267527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8048971068399786</v>
+        <v>0.9664579753056542</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-449.2988306154457</v>
+        <v>-522.9887955457675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3628926876455445</v>
+        <v>0.290359985446243</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.2768922375753</v>
+        <v>597.0260941468149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04615024430439055</v>
+        <v>0.05661459492470523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1113.416975772289</v>
+        <v>7726.509067593308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1109486104661594</v>
+        <v>1.197978093351609e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8048.229323290161</v>
+        <v>24.35500906787975</v>
       </c>
       <c r="C12" t="n">
-        <v>4.599647198726184e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.78804439753964</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0008692358222815773</v>
+        <v>0.002087522586655934</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.337097316176</v>
+        <v>1513.701538985157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0330325270611036</v>
+        <v>0.03393033696771482</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.45691271936559</v>
+        <v>49.13636062963376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08419203714031689</v>
+        <v>0.09278946349720374</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.5311141058735</v>
+        <v>209.0868033504586</v>
       </c>
       <c r="C4" t="n">
-        <v>8.351908480371298e-26</v>
+        <v>1.358197122274078e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02098709074681199</v>
+        <v>-0.01936837110750702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1388211214384908</v>
+        <v>0.1703531932355005</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.138550524565263e-06</v>
+        <v>1.401065043625988e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8599891558965551</v>
+        <v>0.9522250033411946</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.54199107499107</v>
+        <v>-15.12387421735825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007757294038493807</v>
+        <v>0.009497936877304323</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.170455511176836</v>
+        <v>-2.853641245433224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247128690871242</v>
+        <v>0.295780722371102</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-513.4651933019039</v>
+        <v>-569.8110528324382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3036288159328244</v>
+        <v>0.2524268782304571</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0793599216054</v>
+        <v>115.6089854493787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6786277000417</v>
+        <v>0.7248508468787628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-926.3553681929711</v>
+        <v>7554.2653897626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2332948973095753</v>
+        <v>5.003075921010541e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7917.268011189898</v>
+        <v>27.46531395770573</v>
       </c>
       <c r="C12" t="n">
-        <v>2.637083446847109e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.16649310676159</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002319117077325645</v>
+        <v>0.0004166862588986071</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2544.24905491608</v>
+        <v>2410.017806561767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009064477673389699</v>
+        <v>0.001586936782654073</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.27036890706776</v>
+        <v>37.62455899224918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1773306596033494</v>
+        <v>0.1865500121041828</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.1977927981708</v>
+        <v>210.422774644956</v>
       </c>
       <c r="C4" t="n">
-        <v>4.066208096717372e-26</v>
+        <v>2.791677150227641e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01112425082433133</v>
+        <v>-0.009826072063665293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4664711843372014</v>
+        <v>0.5211096080556148</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.583038726124305e-06</v>
+        <v>-8.887131042359769e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.752538860077299</v>
+        <v>0.6709095821812916</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.20778882308162</v>
+        <v>-23.68734836363517</v>
       </c>
       <c r="C7" t="n">
-        <v>7.675401364746218e-05</v>
+        <v>0.000111183819607526</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.774318052248191</v>
+        <v>-5.094688631775675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03413127543844782</v>
+        <v>0.05859962631475889</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-344.066011356434</v>
+        <v>-397.6674560501546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4651598648096192</v>
+        <v>0.3994019676685256</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.6119545003288</v>
+        <v>325.0354858752198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3449049006453291</v>
+        <v>0.35942828686648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1147.292513747789</v>
+        <v>6402.648218489627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1369895398678155</v>
+        <v>0.0001287403198080752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6587.542819364505</v>
+        <v>22.8074698573793</v>
       </c>
       <c r="C12" t="n">
-        <v>8.206932489903392e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.05132287958837</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.004304268333276212</v>
+        <v>0.006660835542671563</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2710.00468493057</v>
+        <v>2636.481845373062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002975734772054986</v>
+        <v>0.0006041962643911608</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.44302189314459</v>
+        <v>47.40527363629968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03849612724522101</v>
+        <v>0.06312032488790832</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.861466701987</v>
+        <v>214.6192780836025</v>
       </c>
       <c r="C4" t="n">
-        <v>1.076316926923124e-26</v>
+        <v>3.899190808732875e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003151000821798575</v>
+        <v>-0.001758115066788885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8270429021962143</v>
+        <v>0.9056651671283232</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.237989307602372e-05</v>
+        <v>-2.257111815386821e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5402731357790201</v>
+        <v>0.2721123733864976</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.96730245697483</v>
+        <v>-26.64724859623689</v>
       </c>
       <c r="C7" t="n">
-        <v>4.485065454074525e-07</v>
+        <v>2.393668781597321e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.221009486332925</v>
+        <v>-7.969291919934577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004564582302840515</v>
+        <v>0.007433260060433887</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-318.5619443980122</v>
+        <v>-370.113962164829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.466827259876326</v>
+        <v>0.4112181708055921</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.9837971918505</v>
+        <v>418.1904671331677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1595012964504124</v>
+        <v>0.1895835189378622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2300.950365900688</v>
+        <v>6962.064066495501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002625829955992787</v>
+        <v>1.316236062624168e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7091.143900576867</v>
+        <v>24.51070398633311</v>
       </c>
       <c r="C12" t="n">
-        <v>5.343533015931389e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.54221667990859</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002208889154787711</v>
+        <v>0.001623534081712691</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2279.330591798613</v>
+        <v>2191.151256591467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001612068818358281</v>
+        <v>0.00255788556580324</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.4324360471896</v>
+        <v>53.27227446805939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623235422886197</v>
+        <v>0.05076241307707432</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.20518102705</v>
+        <v>191.7498958515936</v>
       </c>
       <c r="C4" t="n">
-        <v>8.948334956024175e-22</v>
+        <v>6.202818461576964e-23</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009928442853753612</v>
+        <v>-0.007929510751023943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4994984504291583</v>
+        <v>0.5918792074647408</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.892911224445613e-05</v>
+        <v>-2.330520395192128e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3818432483899545</v>
+        <v>0.2834220648579631</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.70270019199128</v>
+        <v>-24.20832528640741</v>
       </c>
       <c r="C7" t="n">
-        <v>2.096157611245951e-05</v>
+        <v>3.402080017089515e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.773875892056973</v>
+        <v>-7.416905049780324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002194392782193492</v>
+        <v>0.003618820012375239</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-389.4857884920148</v>
+        <v>-439.1733048299553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3942118913411367</v>
+        <v>0.3403463757915828</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.7798523296726</v>
+        <v>362.6061214534943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2938552200270689</v>
+        <v>0.2970341609955041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1358.635323780072</v>
+        <v>8569.922815805956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06208308507187815</v>
+        <v>1.305405335375117e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8782.540267666329</v>
+        <v>30.02706066794717</v>
       </c>
       <c r="C12" t="n">
-        <v>5.803866052096527e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.08856816777829</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001015582592353516</v>
+        <v>0.000260760170489337</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1730.077199162526</v>
+        <v>1765.147959415403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01803150263529486</v>
+        <v>0.01666749064913045</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.32938708398402</v>
+        <v>56.74093433045283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03260625848380259</v>
+        <v>0.03898624414998039</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.4807778215089</v>
+        <v>206.9399464203908</v>
       </c>
       <c r="C4" t="n">
-        <v>4.873721377499913e-27</v>
+        <v>1.10534217310517e-27</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02173904561913417</v>
+        <v>-0.02128316302855268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1246180816178002</v>
+        <v>0.135692247029248</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.270057829519847e-06</v>
+        <v>-1.345182332944948e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6388438613797811</v>
+        <v>0.496552340518108</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.01039287102038</v>
+        <v>-18.99364675345056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007187174260675237</v>
+        <v>0.0007969039315042438</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.987623728679992</v>
+        <v>-4.616932923024841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04929702133172636</v>
+        <v>0.06979922439026792</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-540.2526839296861</v>
+        <v>-615.2177090585515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2660972231911389</v>
+        <v>0.2076459761508694</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.9602097095976</v>
+        <v>435.5875592819239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1944182628435252</v>
+        <v>0.1678958196871452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1293.445694990507</v>
+        <v>8800.810190251339</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07155639827542178</v>
+        <v>1.411873164786624e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9279.392300774949</v>
+        <v>23.86501341214026</v>
       </c>
       <c r="C12" t="n">
-        <v>3.993017888042475e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.53768611963781</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00139571269451129</v>
+        <v>0.003637913380565004</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2306.230609376425</v>
+        <v>2306.529098904352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002837865269242552</v>
+        <v>0.003162976064461647</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.29813484597815</v>
+        <v>62.37318219462254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04708484666999518</v>
+        <v>0.04233009081944113</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.8580869664967</v>
+        <v>198.831551506474</v>
       </c>
       <c r="C4" t="n">
-        <v>3.112066017931477e-22</v>
+        <v>4.973644344086675e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01273466036425962</v>
+        <v>-0.01004894029550372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3869156200543545</v>
+        <v>0.4979806279158638</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.672296579762253e-06</v>
+        <v>-1.32426609303362e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6291915652376749</v>
+        <v>0.5121482070246777</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.22818425378198</v>
+        <v>-26.1265598918898</v>
       </c>
       <c r="C7" t="n">
-        <v>7.056604681256265e-06</v>
+        <v>9.516617745655807e-06</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.34029351737956</v>
+        <v>-6.064317830611564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01563396720938015</v>
+        <v>0.0219912868307933</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-701.6908363250845</v>
+        <v>-717.7492487477489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.134609437850143</v>
+        <v>0.130400390411755</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.3635151690188</v>
+        <v>386.348684987816</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2661695851411653</v>
+        <v>0.2372088977228813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1512.920844168033</v>
+        <v>7965.751290522509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03816838482011513</v>
+        <v>6.100564489731091e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8662.009498054573</v>
+        <v>25.48843245638204</v>
       </c>
       <c r="C12" t="n">
-        <v>1.219728370767548e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.37764327587945</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001416140431472398</v>
+        <v>0.003988084805897575</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.149125821621</v>
+        <v>1616.724715069047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01686040618510137</v>
+        <v>0.02137881668200838</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.71020207546707</v>
+        <v>67.28775603623239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01116878685786023</v>
+        <v>0.01183620240658778</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.4496137888738</v>
+        <v>211.441016558749</v>
       </c>
       <c r="C4" t="n">
-        <v>1.198730100354765e-27</v>
+        <v>4.228921426625133e-29</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02041396276913774</v>
+        <v>-0.01827039123372738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1703016817838935</v>
+        <v>0.2174043957160231</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.176809643092514e-06</v>
+        <v>4.320202220475051e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6993262670444128</v>
+        <v>0.8541064063651643</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.19100099510715</v>
+        <v>-21.83810648564265</v>
       </c>
       <c r="C7" t="n">
-        <v>7.599523788528392e-05</v>
+        <v>9.832459678927257e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.118346819083309</v>
+        <v>-5.869835291116415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01282167147655568</v>
+        <v>0.01673629726674365</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-521.7340409921169</v>
+        <v>-555.8255602507065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2454885617810719</v>
+        <v>0.216288768168105</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.1126196378318</v>
+        <v>394.1949070334771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2463099721866065</v>
+        <v>0.2472166434574102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-977.9584668708576</v>
+        <v>8896.777777964289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2062771800558793</v>
+        <v>1.920524981911915e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9056.653899809804</v>
+        <v>29.59369029014914</v>
       </c>
       <c r="C12" t="n">
-        <v>1.199076501838917e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.76334614555961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001139906836847211</v>
+        <v>0.000185923809450875</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2756.597035513571</v>
+        <v>2812.084113264088</v>
       </c>
       <c r="C2" t="n">
-        <v>4.057632119641015e-05</v>
+        <v>3.880237961797625e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.49781889034927</v>
+        <v>29.55146680312882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1397234719446291</v>
+        <v>0.2484795331535117</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.9389099069113</v>
+        <v>226.641080387757</v>
       </c>
       <c r="C4" t="n">
-        <v>2.744343897391942e-31</v>
+        <v>6.572433536878796e-33</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009731453596307667</v>
+        <v>-0.0131235304394088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4570837185579023</v>
+        <v>0.3223757260715812</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.929459956947994e-06</v>
+        <v>3.760382678568526e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7529607086522949</v>
+        <v>0.8444063121076003</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.74813711463572</v>
+        <v>-19.96110408931654</v>
       </c>
       <c r="C7" t="n">
-        <v>8.642608352687878e-05</v>
+        <v>0.0001935169909571966</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.207428640861778</v>
+        <v>-7.99847740068115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004377793622219343</v>
+        <v>0.0007405966593815687</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-408.198495706637</v>
+        <v>-649.4521831259661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4035962825637531</v>
+        <v>0.1837972261275342</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.81422205879164</v>
+        <v>-22.24405074161484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9122879331413752</v>
+        <v>0.9415342517665941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1793.218199312321</v>
+        <v>6345.017950920103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.014001395811558</v>
+        <v>2.027811809116358e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6521.23926878081</v>
+        <v>20.0341640506917</v>
       </c>
       <c r="C12" t="n">
-        <v>8.96619664633186e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.53751829487791</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001356619011155209</v>
+        <v>0.007756261411880135</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.05788316787</v>
+        <v>1491.139887978916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03182036422509479</v>
+        <v>0.04336697462009475</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.25171063279419</v>
+        <v>39.28799793266445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1770749267222836</v>
+        <v>0.1580333328841518</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.1852874155523</v>
+        <v>188.70071176429</v>
       </c>
       <c r="C4" t="n">
-        <v>2.85854022195467e-23</v>
+        <v>7.3737109492979e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02187950394238083</v>
+        <v>-0.01973701020874843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.120266699495453</v>
+        <v>0.1630265638458927</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.479501790225112e-05</v>
+        <v>-2.107637335441979e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4636861665682314</v>
+        <v>0.2945487556981911</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.48128295253521</v>
+        <v>-17.07960458796786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002250110854168538</v>
+        <v>0.004685936530627868</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.201648730357517</v>
+        <v>-1.449097209890667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4324955818068177</v>
+        <v>0.6046541869414497</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-167.0069998639611</v>
+        <v>-203.8362028412379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7204298280651436</v>
+        <v>0.6648089235740802</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.9938941606829</v>
+        <v>596.751810720993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06059603318593136</v>
+        <v>0.08498576319292835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1389.716341202644</v>
+        <v>7306.257217477691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06232903052577103</v>
+        <v>5.529015935842919e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7767.844003403454</v>
+        <v>27.11477031618172</v>
       </c>
       <c r="C12" t="n">
-        <v>1.661662282900827e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.14616605463183</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002047409744153479</v>
+        <v>0.0005203144813302179</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1362.140304644859</v>
+        <v>1336.371049323512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08929034690485711</v>
+        <v>0.09574904443302955</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.20796615529357</v>
+        <v>46.52445130460487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08386174927717988</v>
+        <v>0.09511238869264989</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.4151010622206</v>
+        <v>197.9505362367144</v>
       </c>
       <c r="C4" t="n">
-        <v>1.127585091958273e-22</v>
+        <v>2.721331646967303e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01196387486049419</v>
+        <v>-0.01129492832908635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4350242960369977</v>
+        <v>0.4613648143071223</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.474870364064502e-05</v>
+        <v>-2.635040854472912e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2553066676894478</v>
+        <v>0.225659951508989</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.1596722692731</v>
+        <v>-15.79878840180778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338299886567021</v>
+        <v>0.01556114491485539</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.234267512389746</v>
+        <v>-0.9059638082438912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6741982127990094</v>
+        <v>0.7568495687956543</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-60.80879173415087</v>
+        <v>-104.6914172853631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9069932501835793</v>
+        <v>0.8403948656671605</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.9877566207667</v>
+        <v>527.3464364081926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1221100370342785</v>
+        <v>0.1086415916007447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-906.0036766892999</v>
+        <v>7069.54444844546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2422703346776039</v>
+        <v>7.759923943571945e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7369.849174612983</v>
+        <v>25.94932340553237</v>
       </c>
       <c r="C12" t="n">
-        <v>4.374746558041992e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.82716928164339</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002365143089385062</v>
+        <v>0.003948310296941204</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2186.427302169998</v>
+        <v>2047.194354617641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006687431739364156</v>
+        <v>0.01079706381733196</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.27684700388585</v>
+        <v>36.82258908824375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1726398126900808</v>
+        <v>0.1798119183247436</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.9193167157254</v>
+        <v>212.7895918797497</v>
       </c>
       <c r="C4" t="n">
-        <v>1.637929235152562e-24</v>
+        <v>8.39848115506476e-26</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005644417586036829</v>
+        <v>-0.003357281618692969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7278906250073962</v>
+        <v>0.8360481569799133</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.940631485124057e-05</v>
+        <v>-3.172036993512896e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1984532093690292</v>
+        <v>0.1665317995746406</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.85601454222775</v>
+        <v>-21.5099618653666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000271005718616426</v>
+        <v>0.0003512898052293805</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.153491105678121</v>
+        <v>-4.25837721511871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1256107161345117</v>
+        <v>0.1999210217829903</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-250.1998122073473</v>
+        <v>-279.6444107762236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5982522618870885</v>
+        <v>0.5574065737622309</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.5884787002428</v>
+        <v>375.79602249962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2611513297245969</v>
+        <v>0.2827305389944649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1174.851542465525</v>
+        <v>7161.498532643799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1329558091811369</v>
+        <v>7.061235284339626e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7398.602802912363</v>
+        <v>24.3108721570975</v>
       </c>
       <c r="C12" t="n">
-        <v>3.73504779940559e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.0378242634829</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001494784012478901</v>
+        <v>0.002802895761373957</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1996.135738642632</v>
+        <v>2101.663523628664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005064878247206926</v>
+        <v>0.004322000469545249</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.73507521177298</v>
+        <v>58.98616564575207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02474857915052565</v>
+        <v>0.03779858192452339</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.6507505700017</v>
+        <v>194.8321686559501</v>
       </c>
       <c r="C4" t="n">
-        <v>6.776733474026879e-23</v>
+        <v>4.313302886143173e-23</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02388083701071563</v>
+        <v>-0.02360904005813821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09471340389717786</v>
+        <v>0.1102038089862598</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.152231654662581e-05</v>
+        <v>4.216955422562349e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.356421111744565</v>
+        <v>0.8575786443517421</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.20972367927627</v>
+        <v>-26.64367814274057</v>
       </c>
       <c r="C7" t="n">
-        <v>2.622603787830745e-06</v>
+        <v>1.489078616475389e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.185081199043438</v>
+        <v>-4.647637366837031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04262967733091866</v>
+        <v>0.0779054915809457</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-717.3162673279157</v>
+        <v>-804.9198218466672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1223438988877668</v>
+        <v>0.09354805836361046</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>583.0088874173834</v>
+        <v>592.8278149032549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06923796386637192</v>
+        <v>0.07411738911789569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2572.782824588596</v>
+        <v>8206.19498040048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001172233624490883</v>
+        <v>2.521893358676593e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8786.193863342567</v>
+        <v>25.90429074629441</v>
       </c>
       <c r="C12" t="n">
-        <v>1.93186433599294e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.50776947466504</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.721932128151383e-05</v>
+        <v>0.001202936546373498</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.977346952825</v>
+        <v>1520.699952313589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03056024717898478</v>
+        <v>0.04682133084754728</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.57014315837882</v>
+        <v>45.86186528885932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07972050965907344</v>
+        <v>0.07929182340518796</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8720268504925</v>
+        <v>191.609041758331</v>
       </c>
       <c r="C4" t="n">
-        <v>2.444935111057679e-25</v>
+        <v>2.446682260887439e-26</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02249927053582695</v>
+        <v>-0.02076431584549958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1115143956083206</v>
+        <v>0.1423658943291604</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.697906091899628e-05</v>
+        <v>-2.028934820801116e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3986192645732115</v>
+        <v>0.3130831591091731</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.59656272200177</v>
+        <v>-17.993658135185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002453564162520427</v>
+        <v>0.003435822639121045</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.315612793743487</v>
+        <v>-0.7594130478202885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6862881844062063</v>
+        <v>0.8154208505408342</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.89569666516354</v>
+        <v>66.33547549029208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.864447537489528</v>
+        <v>0.886412666651466</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.4687126674195</v>
+        <v>873.1944150117371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01048585991252375</v>
+        <v>0.01026922996227103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1102.528581013602</v>
+        <v>6693.35742990942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1218795167950476</v>
+        <v>1.193589610005266e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6949.201397095989</v>
+        <v>22.56213582054547</v>
       </c>
       <c r="C12" t="n">
-        <v>5.94578618501706e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.26221423199546</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003065635629044186</v>
+        <v>0.00416124915372619</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.627351329294</v>
+        <v>2141.629266546179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003186345188266916</v>
+        <v>0.004120724772361729</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.23184276722147</v>
+        <v>66.70627079992371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02440433986988092</v>
+        <v>0.03034205645691924</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.2315308890554</v>
+        <v>219.9344626665018</v>
       </c>
       <c r="C4" t="n">
-        <v>1.040136525922701e-25</v>
+        <v>1.529502639286596e-27</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009802263565176217</v>
+        <v>-0.008605142582744196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5006137276408855</v>
+        <v>0.555112306460203</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.140660645868743e-06</v>
+        <v>-5.072471294202756e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9178467328796155</v>
+        <v>0.8067251829240427</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.53424242116569</v>
+        <v>-20.05479863649738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000405293033423206</v>
+        <v>0.0005580767097572831</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.048084289655336</v>
+        <v>-6.643644463770467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006654923963859761</v>
+        <v>0.01024255947701557</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-242.0838824237405</v>
+        <v>-272.2751914953458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6128405977794875</v>
+        <v>0.5703992597008438</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>237.0373932153441</v>
+        <v>248.7200075857091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4887594232960104</v>
+        <v>0.469182434511746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1070.203253044285</v>
+        <v>6997.359123007374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1519576711392879</v>
+        <v>3.965917234761552e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7249.126517316829</v>
+        <v>24.56454183487061</v>
       </c>
       <c r="C12" t="n">
-        <v>2.234394018571518e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.65991140229251</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001477927094151545</v>
+        <v>0.002958376049954686</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2444.03487065756</v>
+        <v>2396.228792000601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005107609286379594</v>
+        <v>0.0006486697535763125</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.62933421452854</v>
+        <v>25.14829235402151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3136278130400535</v>
+        <v>0.3234885348121669</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.069522260595</v>
+        <v>222.2074582400053</v>
       </c>
       <c r="C4" t="n">
-        <v>2.008016928252303e-28</v>
+        <v>5.175506817115904e-30</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003604744243741489</v>
+        <v>0.004693600485248216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8095076975319091</v>
+        <v>0.7535884960613424</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.096224141152495e-05</v>
+        <v>-2.345230936471792e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3122577948666684</v>
+        <v>0.25688224134446</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.7723442304966</v>
+        <v>-21.3538516688135</v>
       </c>
       <c r="C7" t="n">
-        <v>4.256434821245979e-05</v>
+        <v>5.770828192478726e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.738264047830594</v>
+        <v>-6.318580041547758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006762358845701084</v>
+        <v>0.01031923671234274</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-632.7120638943484</v>
+        <v>-666.1938323934761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1440110752789937</v>
+        <v>0.1239521365997216</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-175.7885307227958</v>
+        <v>-198.5575733748041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5796479450942572</v>
+        <v>0.5315561369094084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-922.8883576532448</v>
+        <v>7261.830313250763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228015116729242</v>
+        <v>4.270243030139143e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7512.21147553881</v>
+        <v>25.32904546307809</v>
       </c>
       <c r="C12" t="n">
-        <v>2.477278349960341e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.79101277513416</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0007460171817873525</v>
+        <v>0.001246601387549621</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49647398" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49806175" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ49913705" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ50019216" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ50124728" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50229922" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50336433" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50439943" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50544451" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ50649219" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ50752735" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ50856248" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ50958762" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ51062455" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ51166967" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ51270482" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ51374995" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ51479505" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ51583015" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51691049" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51794559" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51899579" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ52001108" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ52105617" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ52210137" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52313452" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ52417265" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ52519772" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ52624289" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ52726806" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ52829320" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ52932829" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ53040018" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ53142561" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ53248070" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53352660" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53460172" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ53569688" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ53679205" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ53786730" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ53898244" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ54005271" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ54109792" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ54216502" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ54352148" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ54463983" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ54579076" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ54692408" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ54806435" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ54911949" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ13438600" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13570258" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13678043" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13784935" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13895517" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14001035" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14109551" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14218582" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14328110" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14436618" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14541444" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ14649951" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ14756469" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ14866976" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ14970491" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ15078000" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ15182240" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ15288772" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ15395286" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15565574" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15698223" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ15798621" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ15902136" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16007646" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ16111154" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ16214186" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ16318702" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ16419224" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ16513227" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ16620191" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ16720702" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ16821852" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ16923366" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ17024903" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ17126801" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ17227843" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ17327800" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ17431849" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ17534360" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ17634886" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ17736403" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ17837973" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ17939591" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ18039543" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ18142048" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ18244510" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ18347475" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ18448465" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ18551972" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ18653868" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13438600" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13570258" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13678043" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13784935" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13895517" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14001035" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14109551" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14218582" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14328110" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ14436618" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ14541444" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ14649951" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ14756469" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ14866976" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14970491" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ15078000" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ15182240" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ15288772" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15395286" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15565574" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15698223" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ15798621" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ15902136" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16007646" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16111154" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ16214186" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ16318702" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ16419224" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ16513227" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ16620191" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ16720702" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ16821852" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ16923366" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ17024903" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ17126801" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ17227843" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ17327800" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ17431849" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ17534360" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ17634886" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ17736403" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ17837973" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ17939591" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ18039543" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ18142048" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ18244510" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ18347475" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ18448465" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ18551972" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ18653868" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ03538252" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ03663282" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ03769301" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03877815" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ03983330" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04089846" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04197355" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04301864" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ04408374" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ04514886" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ04620399" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ04724910" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ04830420" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ04936791" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ05043299" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ05149809" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ05254337" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ05363611" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ05469640" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ05578154" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ05685670" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ05791528" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ05897039" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ06003551" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ06110060" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ06218327" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ06322839" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ06432349" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ06545862" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ06653899" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ06759421" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ06864941" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ06969960" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ07076491" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ07183276" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ07285789" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ07391302" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ07496982" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ07603495" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ07709006" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ07815519" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ07923355" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ08030868" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ08136383" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ08241895" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ08347408" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ08453925" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ08561445" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ08675474" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ08781988" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2184.671897585625</v>
+        <v>2170.176182420139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001464959308295246</v>
+        <v>0.001618302838871311</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.20427098408096</v>
+        <v>32.91414063608492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2018500697268321</v>
+        <v>0.1910835740710154</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.4032122837116</v>
+        <v>219.7795084156244</v>
       </c>
       <c r="C4" t="n">
-        <v>5.178226277373071e-30</v>
+        <v>4.540147644037695e-30</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006767235529891346</v>
+        <v>-0.004423529900073733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6200870539911902</v>
+        <v>0.7098671120303152</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.065224135243074e-05</v>
+        <v>-1.152797683909206e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5841095566541908</v>
+        <v>0.5588565586837057</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.31511208267146</v>
+        <v>-22.36807930823091</v>
       </c>
       <c r="C7" t="n">
-        <v>2.595484464360115e-05</v>
+        <v>2.486421322511119e-05</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.842493566901218</v>
+        <v>-6.869070527530356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004914889980501361</v>
+        <v>0.004749365161395641</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-312.0200184911391</v>
+        <v>-288.0771461441964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5101634350393942</v>
+        <v>0.5403401397215811</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.6719673322254</v>
+        <v>165.2861679910279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5595502185884507</v>
+        <v>0.594566345985691</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7347.930301938146</v>
+        <v>7349.176755182738</v>
       </c>
       <c r="C11" t="n">
-        <v>2.253268557271011e-06</v>
+        <v>2.269382947193285e-06</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.5740810157844</v>
+        <v>28.77377872594838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001383850540452723</v>
+        <v>0.0001362602886993124</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2084.181934526227</v>
+        <v>2078.024104842238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004222899910442269</v>
+        <v>0.004393898990417589</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.7875585361935</v>
+        <v>55.58246691399711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0396759281226494</v>
+        <v>0.03593916649253516</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.6508153132049</v>
+        <v>204.6458938474208</v>
       </c>
       <c r="C4" t="n">
-        <v>8.943720579291455e-28</v>
+        <v>1.009099038160923e-27</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009772178852145777</v>
+        <v>-0.007807850772322867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4950463074362658</v>
+        <v>0.5341765405028105</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.974697787943149e-05</v>
+        <v>-2.00588113137924e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3313032360373086</v>
+        <v>0.3282165836818749</v>
       </c>
     </row>
     <row r="7">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.29179020199017</v>
+        <v>-21.3497949348608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001441983486052054</v>
+        <v>0.0001377027871117439</v>
       </c>
     </row>
     <row r="8">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.347447884232579</v>
+        <v>-7.378784208602475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003358916694700558</v>
+        <v>0.003213119724342439</v>
       </c>
     </row>
     <row r="9">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-658.2534778467502</v>
+        <v>-639.6297211907158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1799423020129585</v>
+        <v>0.1885675199664207</v>
       </c>
     </row>
     <row r="10">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.5561986184839</v>
+        <v>231.0641749233644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4548224626091316</v>
+        <v>0.4700226989577957</v>
       </c>
     </row>
     <row r="11">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8406.830723919009</v>
+        <v>8426.230239065084</v>
       </c>
       <c r="C11" t="n">
-        <v>1.227757061651854e-07</v>
+        <v>1.157413251739574e-07</v>
       </c>
     </row>
     <row r="12">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.27046505139065</v>
+        <v>29.3306891420221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002846484130686527</v>
+        <v>0.0003015679150095954</v>
       </c>
     </row>
   </sheetData>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.55480110673</v>
+        <v>2044.295730473664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004554106841391315</v>
+        <v>0.004595942077691096</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.86726688667938</v>
+        <v>54.82558948775436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08284264529382589</v>
+        <v>0.07076776142320021</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.8545540909772</v>
+        <v>187.3871959753373</v>
       </c>
       <c r="C4" t="n">
-        <v>2.274817638435891e-21</v>
+        <v>1.97102635976676e-21</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01763532848892987</v>
+        <v>-0.01327535518185219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2355498293595141</v>
+        <v>0.2980909667334513</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.731547307709614e-05</v>
+        <v>-1.822407500478765e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4115455218370372</v>
+        <v>0.3927853058674716</v>
       </c>
     </row>
     <row r="7">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.60222013434809</v>
+        <v>-25.76414135032804</v>
       </c>
       <c r="C7" t="n">
-        <v>8.866806503386372e-06</v>
+        <v>7.825924279333568e-06</v>
       </c>
     </row>
     <row r="8">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.690582087980964</v>
+        <v>-4.790588651208171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06252343821100069</v>
+        <v>0.05694509989773969</v>
       </c>
     </row>
     <row r="9">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1049.120047862506</v>
+        <v>-1012.649830508268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03841209725207944</v>
+        <v>0.04434221879976016</v>
       </c>
     </row>
     <row r="10">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.3723217728149</v>
+        <v>477.7298879573958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1150602520702754</v>
+        <v>0.1310676887383808</v>
       </c>
     </row>
     <row r="11">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9153.941492937971</v>
+        <v>9113.470800135743</v>
       </c>
       <c r="C11" t="n">
-        <v>5.276805600609548e-08</v>
+        <v>6.004394399302466e-08</v>
       </c>
     </row>
     <row r="12">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.23896104702468</v>
+        <v>27.22153767412348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006698299807444702</v>
+        <v>0.000756625192174193</v>
       </c>
     </row>
   </sheetData>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.780356651185</v>
+        <v>2249.302074982003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003732458567111421</v>
+        <v>0.00349868081290243</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.71244606262609</v>
+        <v>58.10819319639391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04723599755696528</v>
+        <v>0.044749871479599</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.3290946252516</v>
+        <v>207.1003889266694</v>
       </c>
       <c r="C4" t="n">
-        <v>3.542874783169109e-26</v>
+        <v>3.911902411816285e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01606674982294076</v>
+        <v>-0.01505729505371414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3036468237008369</v>
+        <v>0.2728233919032783</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.913613368327056e-07</v>
+        <v>9.287126238557538e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9787137534036836</v>
+        <v>0.971772840606052</v>
       </c>
     </row>
     <row r="7">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.20397205306766</v>
+        <v>-25.27312658839007</v>
       </c>
       <c r="C7" t="n">
-        <v>3.288218435038148e-05</v>
+        <v>3.086166764450198e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.048971829094061</v>
+        <v>-7.106341738144817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02557486254263178</v>
+        <v>0.02435596457179242</v>
       </c>
     </row>
     <row r="9">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-414.4378914559757</v>
+        <v>-410.4312615007993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3893215643193384</v>
+        <v>0.3898802159849728</v>
       </c>
     </row>
     <row r="10">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.1069454234237</v>
+        <v>494.29598241241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1522983301034083</v>
+        <v>0.145440588331494</v>
       </c>
     </row>
     <row r="11">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7862.878070785458</v>
+        <v>7894.213271746576</v>
       </c>
       <c r="C11" t="n">
-        <v>1.10954624263059e-06</v>
+        <v>1.01894178795798e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.57093753955175</v>
+        <v>26.17492928803928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001342187505150175</v>
+        <v>0.001692137493882246</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2141.616240967183</v>
+        <v>2127.794883089387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001866668197215712</v>
+        <v>0.002062273212588537</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.72187479518843</v>
+        <v>26.07059065139137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2864975922764511</v>
+        <v>0.2603170150433661</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.0073569695077</v>
+        <v>219.497941991703</v>
       </c>
       <c r="C4" t="n">
-        <v>4.140227203981798e-32</v>
+        <v>4.481436545639746e-32</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01929576823475082</v>
+        <v>-0.01511779684442188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1343664312511645</v>
+        <v>0.1843920545454973</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.582813074298654e-05</v>
+        <v>-1.632837633594651e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3690627552587032</v>
+        <v>0.3615583334311404</v>
       </c>
     </row>
     <row r="7">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.61963901434451</v>
+        <v>-16.76041423180335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001431428261887347</v>
+        <v>0.001322454750752502</v>
       </c>
     </row>
     <row r="8">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.934726240276714</v>
+        <v>-4.015688716073469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1218825624602394</v>
+        <v>0.1147264313351097</v>
       </c>
     </row>
     <row r="9">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.994442701451419</v>
+        <v>37.02505841454922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9926637749446302</v>
+        <v>0.9318366096056839</v>
       </c>
     </row>
     <row r="10">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>465.1876601163426</v>
+        <v>443.6152404110915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.134149523172795</v>
+        <v>0.1535765139168311</v>
       </c>
     </row>
     <row r="11">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5537.603788237127</v>
+        <v>5570.674570185707</v>
       </c>
       <c r="C11" t="n">
-        <v>7.777337682622151e-05</v>
+        <v>7.233274834163577e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09333036236202</v>
+        <v>22.24204001146276</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001921706963761898</v>
+        <v>0.001924017813230293</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1832.572058857011</v>
+        <v>1825.404813679603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01069463566958917</v>
+        <v>0.01129042284631514</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.4337969134191</v>
+        <v>68.90530671734678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01290008680878527</v>
+        <v>0.01197194396023443</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.1899986064032</v>
+        <v>211.2785397393055</v>
       </c>
       <c r="C4" t="n">
-        <v>4.153526615419223e-30</v>
+        <v>4.056837028825434e-30</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003090769902269364</v>
+        <v>-0.001981978828296579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8321525781671919</v>
+        <v>0.8768026594302474</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.011170444538438e-06</v>
+        <v>-7.461421450853683e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7277795023635383</v>
+        <v>0.7154977659060855</v>
       </c>
     </row>
     <row r="7">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.55150142545676</v>
+        <v>-18.56222305014919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00153540346789049</v>
+        <v>0.001526084492875189</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.385604986434778</v>
+        <v>-6.402545493210937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008656476016633958</v>
+        <v>0.008414901937346746</v>
       </c>
     </row>
     <row r="9">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-458.7438417373105</v>
+        <v>-448.5179288711233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3056604260416209</v>
+        <v>0.3135025450007743</v>
       </c>
     </row>
     <row r="10">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-92.39022450638424</v>
+        <v>-100.6078996659987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7868309046493094</v>
+        <v>0.7672460729639613</v>
       </c>
     </row>
     <row r="11">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8479.542802431521</v>
+        <v>8477.911419219199</v>
       </c>
       <c r="C11" t="n">
-        <v>2.597554622229851e-07</v>
+        <v>2.634836480303384e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.33289645261022</v>
+        <v>27.4651028570016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007871968991445487</v>
+        <v>0.0008381638454543714</v>
       </c>
     </row>
   </sheetData>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2207.848004243044</v>
+        <v>2182.918663512321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004971242275815094</v>
+        <v>0.005585320492501182</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.87978434688684</v>
+        <v>42.04587231790585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1424871467620588</v>
+        <v>0.1303776942135109</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6246039363434</v>
+        <v>209.8865873076966</v>
       </c>
       <c r="C4" t="n">
-        <v>2.538681650679018e-25</v>
+        <v>2.520623097352767e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008718758658622303</v>
+        <v>-0.005644041527767464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5598596946814007</v>
+        <v>0.6651077545162529</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.029919886032899e-05</v>
+        <v>-2.16352167966533e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.339198622890467</v>
+        <v>0.3142142658964603</v>
       </c>
     </row>
     <row r="7">
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.05966560286425</v>
+        <v>-22.14691445374307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002487661985963568</v>
+        <v>0.000235126918668122</v>
       </c>
     </row>
     <row r="8">
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.92771389745425</v>
+        <v>-5.935408793979999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03042315751724271</v>
+        <v>0.03035295181307609</v>
       </c>
     </row>
     <row r="9">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-483.2524570471517</v>
+        <v>-453.0682879463193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3161920277311055</v>
+        <v>0.3439314120477577</v>
       </c>
     </row>
     <row r="10">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293.7692694512368</v>
+        <v>274.6305313292497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3939307550260044</v>
+        <v>0.4245928022213752</v>
       </c>
     </row>
     <row r="11">
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7685.432783415249</v>
+        <v>7689.994341339468</v>
       </c>
       <c r="C11" t="n">
-        <v>4.225572919965988e-06</v>
+        <v>4.240658804458015e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.87121009848531</v>
+        <v>25.21734197449917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003967096567330898</v>
+        <v>0.003687253154980074</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2502.555368683241</v>
+        <v>2496.918536619725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001562384921988164</v>
+        <v>0.00166425960266274</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.67176796156512</v>
+        <v>51.35396529314887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07720500133363015</v>
+        <v>0.07238852576872556</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.7418060096386</v>
+        <v>204.8308788289263</v>
       </c>
       <c r="C4" t="n">
-        <v>3.656543134492914e-24</v>
+        <v>4.357855269375121e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009243036874028667</v>
+        <v>-0.007238603573132471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5346305561960536</v>
+        <v>0.5790019852433537</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.817401227268937e-05</v>
+        <v>-2.856111975154006e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1801686698031189</v>
+        <v>0.1786170269341486</v>
       </c>
     </row>
     <row r="7">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.21461068261848</v>
+        <v>-24.26638595402747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001101028506764791</v>
+        <v>0.0001066688990514424</v>
       </c>
     </row>
     <row r="8">
@@ -1838,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.368378288632826</v>
+        <v>-7.409472389670519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006364059865957498</v>
+        <v>0.006052403169384746</v>
       </c>
     </row>
     <row r="9">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-175.5625989727927</v>
+        <v>-159.5743891192816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7281352383146029</v>
+        <v>0.7508137650046802</v>
       </c>
     </row>
     <row r="10">
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265.4627191161941</v>
+        <v>255.6051118191931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4463867123295318</v>
+        <v>0.4624319828197864</v>
       </c>
     </row>
     <row r="11">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7856.907959253014</v>
+        <v>7869.168764914632</v>
       </c>
       <c r="C11" t="n">
-        <v>3.42822714604567e-06</v>
+        <v>3.323185963345312e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.65894206969507</v>
+        <v>24.76282986383678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003851669961018007</v>
+        <v>0.003891810377271334</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.014066547021</v>
+        <v>1515.695064210129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03524356344889881</v>
+        <v>0.0373538664683014</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.34840636625154</v>
+        <v>38.94011087773756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1612430995160363</v>
+        <v>0.1433497312026235</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.5688080905029</v>
+        <v>184.3936773919569</v>
       </c>
       <c r="C4" t="n">
-        <v>1.452230028335714e-21</v>
+        <v>9.981968826699182e-22</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02226684290635299</v>
+        <v>-0.01709554929718589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1403871172353704</v>
+        <v>0.1882577602778247</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.509445684354259e-05</v>
+        <v>-2.559157461383309e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2226730812440651</v>
+        <v>0.2207717285427054</v>
       </c>
     </row>
     <row r="7">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.29450247791265</v>
+        <v>-17.46595663663446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002847039039928194</v>
+        <v>0.002611642118145868</v>
       </c>
     </row>
     <row r="8">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.813316660354928</v>
+        <v>-1.892900502474655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4989611302468068</v>
+        <v>0.4807296359512694</v>
       </c>
     </row>
     <row r="9">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-91.72586247434583</v>
+        <v>-55.34976526806031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8395594157206578</v>
+        <v>0.9022446581887582</v>
       </c>
     </row>
     <row r="10">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.4054360457542</v>
+        <v>663.8541060752507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03238041246018368</v>
+        <v>0.03823345569336482</v>
       </c>
     </row>
     <row r="11">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8339.751098720981</v>
+        <v>8340.958871872657</v>
       </c>
       <c r="C11" t="n">
-        <v>3.130779755279955e-08</v>
+        <v>3.264966792489981e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.40321183454216</v>
+        <v>24.43616199242249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001729846907400414</v>
+        <v>0.001883680101091413</v>
       </c>
     </row>
   </sheetData>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.234346333301</v>
+        <v>1928.176268529798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005765299107606185</v>
+        <v>0.006048834217659968</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.33945352047084</v>
+        <v>50.45731283921953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06454544967444564</v>
+        <v>0.05838262902156079</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.3797518905491</v>
+        <v>202.8132278849213</v>
       </c>
       <c r="C4" t="n">
-        <v>5.502200737826421e-27</v>
+        <v>4.900035094386861e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01460533331557212</v>
+        <v>-0.01071341858151729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3013424473260762</v>
+        <v>0.3844321926018619</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.069916084460033e-05</v>
+        <v>-1.197614071680772e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6060553283093706</v>
+        <v>0.5682384539044653</v>
       </c>
     </row>
     <row r="7">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.31449309183552</v>
+        <v>-21.47211179219688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001624831024698176</v>
+        <v>0.0001458766986443473</v>
       </c>
     </row>
     <row r="8">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.411380204632106</v>
+        <v>-4.472055186696842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0859659059064313</v>
+        <v>0.08184418280719519</v>
       </c>
     </row>
     <row r="9">
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-797.2174191505255</v>
+        <v>-763.0394000748333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09075279096728955</v>
+        <v>0.1029759434363901</v>
       </c>
     </row>
     <row r="10">
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.6294758302297</v>
+        <v>403.0071689241491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1970779102714982</v>
+        <v>0.2191923905841335</v>
       </c>
     </row>
     <row r="11">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8374.401210232474</v>
+        <v>8379.049968902516</v>
       </c>
       <c r="C11" t="n">
-        <v>2.493481499852181e-07</v>
+        <v>2.542052937856902e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.03016189434695</v>
+        <v>24.07758652317377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003021236170201696</v>
+        <v>0.003230797881857901</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2666.053388363348</v>
+        <v>2669.807950686391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002394280750034617</v>
+        <v>0.0002397395515231257</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.15040481800057</v>
+        <v>51.55485669041364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06704590908653041</v>
+        <v>0.06297110243941301</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.0149554418936</v>
+        <v>234.9296173315926</v>
       </c>
       <c r="C4" t="n">
-        <v>1.475876818579366e-35</v>
+        <v>1.723363398491808e-35</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008156045873815139</v>
+        <v>-0.007171907673711522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55314134431665</v>
+        <v>0.5503110642248502</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.142743119606873e-07</v>
+        <v>4.833198018366935e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9911549115140164</v>
+        <v>0.9802336070882847</v>
       </c>
     </row>
     <row r="7">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.0252653738992</v>
+        <v>-23.04077442226919</v>
       </c>
       <c r="C7" t="n">
-        <v>1.620179659569069e-05</v>
+        <v>1.593137421088459e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.048319225915598</v>
+        <v>-9.082417500812568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001262178097813852</v>
+        <v>0.00121221011870663</v>
       </c>
     </row>
     <row r="9">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-749.6897736183648</v>
+        <v>-743.8076322917912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1072944333107795</v>
+        <v>0.1072072449019154</v>
       </c>
     </row>
     <row r="10">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-96.99459207221798</v>
+        <v>-98.20395069483948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7618991133519254</v>
+        <v>0.7581034207452249</v>
       </c>
     </row>
     <row r="11">
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6534.906888805428</v>
+        <v>6550.031926316513</v>
       </c>
       <c r="C11" t="n">
-        <v>2.528354061644946e-05</v>
+        <v>2.491486895135485e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.82898995423158</v>
+        <v>26.7634396451013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002955539737736559</v>
+        <v>0.0003234032845554927</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2339.558247118403</v>
+        <v>2327.46318269974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001026401323258725</v>
+        <v>0.001106425813772799</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.20632451311735</v>
+        <v>67.83792416840383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02877615500200899</v>
+        <v>0.02434673564792727</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.2731992439498</v>
+        <v>212.3996218768918</v>
       </c>
       <c r="C4" t="n">
-        <v>7.255670129763594e-29</v>
+        <v>8.322788976208186e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01300885299572152</v>
+        <v>-0.009840155427865822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3499111069081942</v>
+        <v>0.4187274980403904</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.075030505277304e-06</v>
+        <v>-9.625718165499404e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6406588276595788</v>
+        <v>0.6255031719723854</v>
       </c>
     </row>
     <row r="7">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.88886551791214</v>
+        <v>-20.98136676227935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001855894600184299</v>
+        <v>0.0001749178549484494</v>
       </c>
     </row>
     <row r="8">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.28851534067233</v>
+        <v>-7.332956843929374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003833379163274783</v>
+        <v>0.003631596289265158</v>
       </c>
     </row>
     <row r="9">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-677.8514271564995</v>
+        <v>-654.1764600286924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1351977089003456</v>
+        <v>0.147620185191421</v>
       </c>
     </row>
     <row r="10">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.7184237789625</v>
+        <v>173.1981338443052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5602152103347451</v>
+        <v>0.5925641361659018</v>
       </c>
     </row>
     <row r="11">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7167.785626221653</v>
+        <v>7166.608223155238</v>
       </c>
       <c r="C11" t="n">
-        <v>3.090056949962588e-06</v>
+        <v>3.21089421694447e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2606,10 +2606,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.96485079112371</v>
+        <v>26.1602958399222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006469562420170184</v>
+        <v>0.000628941357343778</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1955.951391949848</v>
+        <v>1953.464655101325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006251198152263257</v>
+        <v>0.006488670449530239</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.63975503608584</v>
+        <v>63.26061812025414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01957844173194288</v>
+        <v>0.01790146930282208</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.8277819808788</v>
+        <v>206.8941650846817</v>
       </c>
       <c r="C4" t="n">
-        <v>1.072276910858774e-27</v>
+        <v>1.107500657630981e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006821087586483629</v>
+        <v>-0.005218917940331285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6420740074557725</v>
+        <v>0.6884455410235093</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.6513942530305e-07</v>
+        <v>-6.944744885285093e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9876186777207441</v>
+        <v>0.9769760117143267</v>
       </c>
     </row>
     <row r="7">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.01946562778756</v>
+        <v>-23.07814625451001</v>
       </c>
       <c r="C7" t="n">
-        <v>6.850650731001989e-05</v>
+        <v>6.53410167324199e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.886027381740757</v>
+        <v>-4.906012100949248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05253930701951117</v>
+        <v>0.05153326957212778</v>
       </c>
     </row>
     <row r="9">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-591.9517194551752</v>
+        <v>-578.6485924007779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189288657684179</v>
+        <v>0.1970768258530708</v>
       </c>
     </row>
     <row r="10">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.9825407965301</v>
+        <v>313.6324328947301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3273926884624083</v>
+        <v>0.338470797533868</v>
       </c>
     </row>
     <row r="11">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6677.089799983844</v>
+        <v>6675.240193354127</v>
       </c>
       <c r="C11" t="n">
-        <v>3.911998622329809e-05</v>
+        <v>4.002860982978349e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.58339467205984</v>
+        <v>28.61741656006879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004612295740917816</v>
+        <v>0.0005150882148909702</v>
       </c>
     </row>
   </sheetData>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.704496118002</v>
+        <v>1149.620829163978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126819529419151</v>
+        <v>0.1278504320511074</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.55790572724287</v>
+        <v>61.28335380573712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01802397833568123</v>
+        <v>0.01631070371546774</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.760970145291</v>
+        <v>189.8710829810231</v>
       </c>
       <c r="C4" t="n">
-        <v>3.676676146646793e-25</v>
+        <v>3.743754001216263e-25</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01210646105550875</v>
+        <v>-0.009786223788250732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3888009226078066</v>
+        <v>0.422067224942959</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.115515347475918e-05</v>
+        <v>-3.131310216231468e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1253687064148939</v>
+        <v>0.128345292692976</v>
       </c>
     </row>
     <row r="7">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.27891761883955</v>
+        <v>-14.39948578278279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01623436430748583</v>
+        <v>0.01532553676969867</v>
       </c>
     </row>
     <row r="8">
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6198899292269928</v>
+        <v>-0.6682194886513635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8167694733299129</v>
+        <v>0.8027817964470911</v>
       </c>
     </row>
     <row r="9">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.99396682798169</v>
+        <v>-22.56029342408351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9346288224802926</v>
+        <v>0.9599220026931747</v>
       </c>
     </row>
     <row r="10">
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>505.2467869772782</v>
+        <v>497.5626854389238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09934557960311106</v>
+        <v>0.1041441909265231</v>
       </c>
     </row>
     <row r="11">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7865.266721200603</v>
+        <v>7880.465107413501</v>
       </c>
       <c r="C11" t="n">
-        <v>5.877357281647184e-07</v>
+        <v>5.683729208928202e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.25522325050475</v>
+        <v>26.23565668376905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006943837404061048</v>
+        <v>0.0007589702685307531</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.137577503403</v>
+        <v>1658.20334037005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02040897570649093</v>
+        <v>0.0208761817885709</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.78503911517744</v>
+        <v>44.73844922333621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1062879925981913</v>
+        <v>0.09751360264456942</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.1290398078216</v>
+        <v>215.2794260691346</v>
       </c>
       <c r="C4" t="n">
-        <v>6.635129558527977e-27</v>
+        <v>6.493158060094452e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01553063495028763</v>
+        <v>-0.01281308872668423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2780715881995451</v>
+        <v>0.3052287145200414</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.504345386174231e-07</v>
+        <v>5.646714371932966e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9779785091662604</v>
+        <v>0.977723227923601</v>
       </c>
     </row>
     <row r="7">
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.42336175586687</v>
+        <v>-18.47110815380724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009295847834352562</v>
+        <v>0.0009056640161930701</v>
       </c>
     </row>
     <row r="8">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.613355914705771</v>
+        <v>-5.642964404563543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02664059141643719</v>
+        <v>0.02593639605135583</v>
       </c>
     </row>
     <row r="9">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-599.360915918706</v>
+        <v>-578.1633085705907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2495439599138528</v>
+        <v>0.2636388954138361</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.9218218392245</v>
+        <v>218.5449596743719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4587354280792894</v>
+        <v>0.4762236275319209</v>
       </c>
     </row>
     <row r="11">
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8450.238216519418</v>
+        <v>8453.014209584908</v>
       </c>
       <c r="C11" t="n">
-        <v>1.292940061409033e-07</v>
+        <v>1.309461698335197e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.18705644917925</v>
+        <v>28.12484130341949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004722435036597974</v>
+        <v>0.000527045672267292</v>
       </c>
     </row>
   </sheetData>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2407.438353574691</v>
+        <v>2396.174677510475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005156509233977599</v>
+        <v>0.0005650719270180575</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.76508204480142</v>
+        <v>45.75652691028118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0955274535105789</v>
+        <v>0.08750521891549923</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.9089332707075</v>
+        <v>213.2270223911143</v>
       </c>
       <c r="C4" t="n">
-        <v>1.138758710684548e-28</v>
+        <v>1.182777320444171e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008372943634154931</v>
+        <v>-0.005464045720224034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5583857892065345</v>
+        <v>0.6623347888186074</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.227454259874206e-05</v>
+        <v>-1.334315596264242e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5311760638429107</v>
+        <v>0.5027458356245749</v>
       </c>
     </row>
     <row r="7">
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.8352341232294</v>
+        <v>-22.89735470837107</v>
       </c>
       <c r="C7" t="n">
-        <v>4.619101285960712e-05</v>
+        <v>4.434486582664925e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.957783575126964</v>
+        <v>-6.004463677120008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01616411781363724</v>
+        <v>0.01530004615638334</v>
       </c>
     </row>
     <row r="9">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-747.3517600526958</v>
+        <v>-720.9266184665132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1008426779067347</v>
+        <v>0.1113955853612299</v>
       </c>
     </row>
     <row r="10">
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.36146199081213</v>
+        <v>-68.32197372328869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8910559471393619</v>
+        <v>0.8429813612243412</v>
       </c>
     </row>
     <row r="11">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7403.842273557777</v>
+        <v>7395.063115947662</v>
       </c>
       <c r="C11" t="n">
-        <v>2.58903608548686e-06</v>
+        <v>2.686087611881295e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3322,10 +3322,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.74353277614317</v>
+        <v>25.96081665538726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007124837846708607</v>
+        <v>0.000683750684865525</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.827908559487</v>
+        <v>2590.817472121276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001266283598682975</v>
+        <v>0.001239687031110657</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.3425157440459</v>
+        <v>44.17593051438448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1503445462351298</v>
+        <v>0.141172323086937</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.2547640025363</v>
+        <v>199.325567066149</v>
       </c>
       <c r="C4" t="n">
-        <v>1.924028845456925e-24</v>
+        <v>1.82571190910423e-24</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02025143971960557</v>
+        <v>-0.01779176538985507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1738913018647776</v>
+        <v>0.1753627941881176</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.829229371382738e-06</v>
+        <v>-3.945456041076671e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8449396371060296</v>
+        <v>0.8745792508575483</v>
       </c>
     </row>
     <row r="7">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.76484834406386</v>
+        <v>-27.81943658544569</v>
       </c>
       <c r="C7" t="n">
-        <v>1.424291881249464e-05</v>
+        <v>1.377758063236565e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.318057854715596</v>
+        <v>-8.39889864558964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009943272308805847</v>
+        <v>0.009289922710520511</v>
       </c>
     </row>
     <row r="9">
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-414.4211219138351</v>
+        <v>-398.8468375420257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3764208249267892</v>
+        <v>0.3910956387507881</v>
       </c>
     </row>
     <row r="10">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.652572614445</v>
+        <v>494.765503521463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1778984995467239</v>
+        <v>0.181232236261925</v>
       </c>
     </row>
     <row r="11">
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8371.110229022397</v>
+        <v>8408.836646522959</v>
       </c>
       <c r="C11" t="n">
-        <v>6.390163727694937e-07</v>
+        <v>5.797754403540256e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.41929081698436</v>
+        <v>25.12306742254957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002311091061322152</v>
+        <v>0.002825717828136815</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2732.742428431292</v>
+        <v>2710.344970135629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001826371675712097</v>
+        <v>0.0002182798226511036</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.90795489766117</v>
+        <v>47.1249817661284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0983621335823063</v>
+        <v>0.08865258887339658</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1499245726231</v>
+        <v>218.660231829067</v>
       </c>
       <c r="C4" t="n">
-        <v>3.146330649790839e-30</v>
+        <v>2.94031180716048e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004696747782928428</v>
+        <v>-0.001552208913127819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7522050423929019</v>
+        <v>0.9049558444534913</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.125282349203069e-05</v>
+        <v>-2.307625240079986e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3083870729373187</v>
+        <v>0.2737486859906225</v>
       </c>
     </row>
     <row r="7">
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.61669483801063</v>
+        <v>-24.76704276443748</v>
       </c>
       <c r="C7" t="n">
-        <v>8.818343054797408e-06</v>
+        <v>7.552672086324091e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.569525501305041</v>
+        <v>-7.633959126426699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002874704207148859</v>
+        <v>0.002612743071988959</v>
       </c>
     </row>
     <row r="9">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-454.3569609530725</v>
+        <v>-424.5234089449112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3322268077650877</v>
+        <v>0.3610586685462199</v>
       </c>
     </row>
     <row r="10">
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.2539875058163</v>
+        <v>484.4755554737678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1215641559382281</v>
+        <v>0.1385710628560236</v>
       </c>
     </row>
     <row r="11">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6000.040713638453</v>
+        <v>5985.584175481396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001088830867577793</v>
+        <v>0.0001138842863800894</v>
       </c>
     </row>
     <row r="12">
@@ -3680,10 +3680,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.49269537227283</v>
+        <v>22.99395929204108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006704610904050615</v>
+        <v>0.006203900550447244</v>
       </c>
     </row>
   </sheetData>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.209047972232</v>
+        <v>2228.818851256317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005426415028147375</v>
+        <v>0.005924834215914797</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.02598638792408</v>
+        <v>34.55406713774843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2468612589071175</v>
+        <v>0.2240687102773613</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.5418949791872</v>
+        <v>193.8358027405561</v>
       </c>
       <c r="C4" t="n">
-        <v>1.616545185709578e-24</v>
+        <v>1.737076554811148e-24</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01585284419164192</v>
+        <v>-0.01187593745249924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.290816104438837</v>
+        <v>0.3629250176035275</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.735313955610228e-05</v>
+        <v>-1.83971353349128e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4255619847968406</v>
+        <v>0.4035557976141944</v>
       </c>
     </row>
     <row r="7">
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.28682055602184</v>
+        <v>-25.40495169315191</v>
       </c>
       <c r="C7" t="n">
-        <v>3.972673070638558e-05</v>
+        <v>3.729849705838965e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.020390027627576</v>
+        <v>-4.095224158179331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2209262313471561</v>
+        <v>0.2130783391316538</v>
       </c>
     </row>
     <row r="9">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-844.1975998468429</v>
+        <v>-808.0938719011865</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08741281030313749</v>
+        <v>0.09919644237651348</v>
       </c>
     </row>
     <row r="10">
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.0605477919048</v>
+        <v>450.2616269589878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1687883850373665</v>
+        <v>0.1875526986765686</v>
       </c>
     </row>
     <row r="11">
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7738.452829258096</v>
+        <v>7748.550168680575</v>
       </c>
       <c r="C11" t="n">
-        <v>4.226552521986975e-06</v>
+        <v>4.23956707903453e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.31945573061093</v>
+        <v>25.48983034641051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002399332477905032</v>
+        <v>0.00244026556059241</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2292.284066022792</v>
+        <v>2294.871814274674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006707155865047011</v>
+        <v>0.0006866789260047073</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.27971990050477</v>
+        <v>61.19784787683746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01813167547332238</v>
+        <v>0.01617826196235884</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4736739610393</v>
+        <v>213.7938275238417</v>
       </c>
       <c r="C4" t="n">
-        <v>3.635923913952182e-32</v>
+        <v>3.143535959594892e-32</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01011226989350933</v>
+        <v>-0.007490891836133565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4378596796841095</v>
+        <v>0.512705610435479</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.678904727353647e-06</v>
+        <v>4.193142590306199e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8225851849746401</v>
+        <v>0.8434681703744944</v>
       </c>
     </row>
     <row r="7">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.3137740733924</v>
+        <v>-17.45638621840427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00143207193492699</v>
+        <v>0.001293582187028606</v>
       </c>
     </row>
     <row r="8">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.770036587884313</v>
+        <v>-3.840447442508601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1436857644747084</v>
+        <v>0.1358143301673317</v>
       </c>
     </row>
     <row r="9">
@@ -3999,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-735.6534504578231</v>
+        <v>-718.7778668591936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07515795544816321</v>
+        <v>0.08133733550218269</v>
       </c>
     </row>
     <row r="10">
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-26.33739700776096</v>
+        <v>-43.72889554068433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9327812068693908</v>
+        <v>0.888377421737615</v>
       </c>
     </row>
     <row r="11">
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5068.505942671616</v>
+        <v>5057.920720025967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002820300097648125</v>
+        <v>0.0002946755750370561</v>
       </c>
     </row>
     <row r="12">
@@ -4038,10 +4038,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.55455012536957</v>
+        <v>23.64249956739899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007896149768923148</v>
+        <v>0.0008510343912010571</v>
       </c>
     </row>
   </sheetData>
@@ -4087,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.066631216243</v>
+        <v>1313.510869104789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06706062626748079</v>
+        <v>0.06704812944446725</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.43093636583571</v>
+        <v>53.84239748170852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04513926028704209</v>
+        <v>0.04296249538361573</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.1274326145406</v>
+        <v>205.173504945183</v>
       </c>
       <c r="C4" t="n">
-        <v>3.650308769173732e-26</v>
+        <v>3.645115025770943e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01233069907814068</v>
+        <v>-0.01063059449150374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3984055584060509</v>
+        <v>0.41183935504422</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.689047932105998e-05</v>
+        <v>-1.655145859385949e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4019759687364963</v>
+        <v>0.4192586332790418</v>
       </c>
     </row>
     <row r="7">
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.37742880830176</v>
+        <v>-20.40558485899525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003461333531769509</v>
+        <v>0.0003393124418753738</v>
       </c>
     </row>
     <row r="8">
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.335983795224525</v>
+        <v>-6.359923917332704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01261652816742633</v>
+        <v>0.01228822698975812</v>
       </c>
     </row>
     <row r="9">
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-85.14122159835279</v>
+        <v>-73.53619835403697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8536153957655805</v>
+        <v>0.8724778244023556</v>
       </c>
     </row>
     <row r="10">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.6185435754787</v>
+        <v>505.7633329267655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1107413636968091</v>
+        <v>0.1131437264233694</v>
       </c>
     </row>
     <row r="11">
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10410.56844258945</v>
+        <v>10414.93989258357</v>
       </c>
       <c r="C11" t="n">
-        <v>3.305775312855262e-10</v>
+        <v>3.319255833315621e-10</v>
       </c>
     </row>
     <row r="12">
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.93005029316975</v>
+        <v>30.81274943956124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001325384480979579</v>
+        <v>0.0001604565661657674</v>
       </c>
     </row>
   </sheetData>
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2462.173892220775</v>
+        <v>2447.369989225352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001579831798357279</v>
+        <v>0.001737055039032479</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.81216661080397</v>
+        <v>43.01452299054566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.144644394006197</v>
+        <v>0.1323015488002173</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.8014539411512</v>
+        <v>219.0401438136472</v>
       </c>
       <c r="C4" t="n">
-        <v>6.206492046569322e-26</v>
+        <v>6.657591472069244e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01442659403416531</v>
+        <v>-0.01092672601442024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3445441210200274</v>
+        <v>0.4127776324283008</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.485379981959065e-07</v>
+        <v>-1.580963133415817e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9729111598307754</v>
+        <v>0.9436089761973852</v>
       </c>
     </row>
     <row r="7">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.53890553514634</v>
+        <v>-22.6440293524171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00026606318153681</v>
+        <v>0.0002507565581741337</v>
       </c>
     </row>
     <row r="8">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.284867655531661</v>
+        <v>-6.331033622985359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01618540205363416</v>
+        <v>0.01549759949990571</v>
       </c>
     </row>
     <row r="9">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-764.667832208359</v>
+        <v>-732.8087214677362</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166720301632573</v>
+        <v>0.182809807470448</v>
       </c>
     </row>
     <row r="10">
@@ -4370,10 +4370,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>300.5821974123419</v>
+        <v>283.2983185283369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3861613173861604</v>
+        <v>0.4137661330795306</v>
       </c>
     </row>
     <row r="11">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6798.47784766682</v>
+        <v>6811.313370776402</v>
       </c>
       <c r="C11" t="n">
-        <v>4.651016893374319e-05</v>
+        <v>4.573880123458897e-05</v>
       </c>
     </row>
     <row r="12">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.01525745697334</v>
+        <v>22.20869605969088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006536725828333887</v>
+        <v>0.006360848760554558</v>
       </c>
     </row>
   </sheetData>
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2434.95767048417</v>
+        <v>2435.202201676998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00160485909301573</v>
+        <v>0.001650574223710071</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.01363323686886</v>
+        <v>35.83715512738817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1975594746566409</v>
+        <v>0.1865544856426217</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.2375112469947</v>
+        <v>192.5194702767341</v>
       </c>
       <c r="C4" t="n">
-        <v>1.468185475402424e-22</v>
+        <v>1.372716361959256e-22</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01793264129970095</v>
+        <v>-0.01459969053019467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2155824386653944</v>
+        <v>0.2473720335210311</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.69867406960542e-05</v>
+        <v>-1.699080352599252e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3969172593362906</v>
+        <v>0.4026315831380824</v>
       </c>
     </row>
     <row r="7">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.24462810765257</v>
+        <v>-25.33682116263126</v>
       </c>
       <c r="C7" t="n">
-        <v>2.058961975067268e-05</v>
+        <v>1.939949208877335e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.494486084639316</v>
+        <v>-5.57494278304646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03699593736618902</v>
+        <v>0.03430260062240117</v>
       </c>
     </row>
     <row r="9">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-579.2469766351421</v>
+        <v>-557.0416412872826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2093482485444245</v>
+        <v>0.2247992399669223</v>
       </c>
     </row>
     <row r="10">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.7961914464963</v>
+        <v>363.8227088674257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2761643972534024</v>
+        <v>0.2958544240308995</v>
       </c>
     </row>
     <row r="11">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8088.336515724724</v>
+        <v>8100.655029579537</v>
       </c>
       <c r="C11" t="n">
-        <v>5.000887546572757e-06</v>
+        <v>5.003506442672537e-06</v>
       </c>
     </row>
     <row r="12">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.98551010595565</v>
+        <v>24.01034730686825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003462264061515304</v>
+        <v>0.003607357687732833</v>
       </c>
     </row>
   </sheetData>
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2238.48985943179</v>
+        <v>2239.849923606322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001814100806957034</v>
+        <v>0.001840269949161628</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.94164574596164</v>
+        <v>55.65203231633362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04346169889286869</v>
+        <v>0.03981035296001739</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.5612207094264</v>
+        <v>208.6042429650463</v>
       </c>
       <c r="C4" t="n">
-        <v>3.816658079320842e-27</v>
+        <v>3.978076436019524e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01076857841712986</v>
+        <v>-0.008929384429385245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4582521588017808</v>
+        <v>0.4767507119427375</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.645528147966076e-05</v>
+        <v>-2.650826820521396e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1887673316606765</v>
+        <v>0.1913749629412203</v>
       </c>
     </row>
     <row r="7">
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.08769761479073</v>
+        <v>-24.1063605021355</v>
       </c>
       <c r="C7" t="n">
-        <v>1.492141585835616e-05</v>
+        <v>1.471531448119162e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.987230159500463</v>
+        <v>-7.015282998257147</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00546250074146566</v>
+        <v>0.005246528760242668</v>
       </c>
     </row>
     <row r="9">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.43886081340133</v>
+        <v>-18.35767221352216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9447778343266442</v>
+        <v>0.9674888895512901</v>
       </c>
     </row>
     <row r="10">
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>459.8474177182301</v>
+        <v>452.8402620973991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1677204873571247</v>
+        <v>0.1721484348042399</v>
       </c>
     </row>
     <row r="11">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7961.692264619114</v>
+        <v>7973.577416546073</v>
       </c>
       <c r="C11" t="n">
-        <v>5.311072972366854e-07</v>
+        <v>5.12475445502792e-07</v>
       </c>
     </row>
     <row r="12">
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.40641101644929</v>
+        <v>24.30999988176366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004279985276708463</v>
+        <v>0.004705040576879696</v>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2372.882484550335</v>
+        <v>2345.152713343328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001464073173073752</v>
+        <v>0.001684595173700764</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.52861306202024</v>
+        <v>57.80311367230063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03547369721100189</v>
+        <v>0.03075920330247613</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.34174735539</v>
+        <v>207.8056748438586</v>
       </c>
       <c r="C4" t="n">
-        <v>2.047065181250048e-27</v>
+        <v>1.745944909975853e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008193539025133045</v>
+        <v>-0.00503738571662158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5855710480990562</v>
+        <v>0.6964549245514586</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.766858705997798e-05</v>
+        <v>-1.893260941568363e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3847212379105283</v>
+        <v>0.3569100907343367</v>
       </c>
     </row>
     <row r="7">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.27779432168581</v>
+        <v>-23.27497439464289</v>
       </c>
       <c r="C7" t="n">
-        <v>6.347210453094784e-05</v>
+        <v>6.412079432233358e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.800207391070732</v>
+        <v>-6.828400024169529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008206678184672165</v>
+        <v>0.007957701079240867</v>
       </c>
     </row>
     <row r="9">
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-212.6280605040066</v>
+        <v>-181.9018172623604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6461079175951118</v>
+        <v>0.6920185771773548</v>
       </c>
     </row>
     <row r="10">
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.55789064859</v>
+        <v>418.2194304947366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1889525017220642</v>
+        <v>0.2106731647451759</v>
       </c>
     </row>
     <row r="11">
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7312.160265956361</v>
+        <v>7329.654841462957</v>
       </c>
       <c r="C11" t="n">
-        <v>6.146945795351658e-06</v>
+        <v>5.872261240866028e-06</v>
       </c>
     </row>
     <row r="12">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.49374701700164</v>
+        <v>23.80642843902169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00488152250308394</v>
+        <v>0.004574300325150629</v>
       </c>
     </row>
   </sheetData>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2468.712602724419</v>
+        <v>2470.576668487904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003231227324362784</v>
+        <v>0.0003412328247968706</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.64601947250144</v>
+        <v>19.84337610989267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4648469746173821</v>
+        <v>0.4349807818734051</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.8795138737989</v>
+        <v>211.8258397534915</v>
       </c>
       <c r="C4" t="n">
-        <v>5.5226263384585e-27</v>
+        <v>7.762223417082588e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0168623620502432</v>
+        <v>-0.01370881823076765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2159841135389395</v>
+        <v>0.2554071817412927</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.7447565375414e-05</v>
+        <v>-1.755469610089982e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.364303669592841</v>
+        <v>0.368961941670132</v>
       </c>
     </row>
     <row r="7">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.94324992886222</v>
+        <v>-21.10357521559315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001987524284910924</v>
+        <v>0.0001787812551123757</v>
       </c>
     </row>
     <row r="8">
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.478889544073891</v>
+        <v>-8.529145799287832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005745070731839018</v>
+        <v>0.0005390656183443363</v>
       </c>
     </row>
     <row r="9">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-302.0481215025447</v>
+        <v>-281.3025228659276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4965032221492017</v>
+        <v>0.5250616568541873</v>
       </c>
     </row>
     <row r="10">
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>236.4684753416334</v>
+        <v>222.9634943739693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4493744278738903</v>
+        <v>0.4751438524840512</v>
       </c>
     </row>
     <row r="11">
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7909.172910383013</v>
+        <v>7917.342470019434</v>
       </c>
       <c r="C11" t="n">
-        <v>3.598258993729365e-07</v>
+        <v>3.642167995340021e-07</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.60675920847881</v>
+        <v>26.61847201061018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003927131298815069</v>
+        <v>0.0004265436845633748</v>
       </c>
     </row>
   </sheetData>
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2150.014120552776</v>
+        <v>2166.050226717222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007843152091241071</v>
+        <v>0.007454413439655347</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.69638555391532</v>
+        <v>46.51654758639157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102586537743817</v>
+        <v>0.09499923136613339</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.6161680151275</v>
+        <v>208.7638530557992</v>
       </c>
       <c r="C4" t="n">
-        <v>2.030928808715061e-26</v>
+        <v>1.741779726665129e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02329217455000551</v>
+        <v>-0.02142246365072936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1574181321803778</v>
+        <v>0.1430831112694696</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.336349428121805e-05</v>
+        <v>1.626691704656409e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6224483454767071</v>
+        <v>0.5613080413821702</v>
       </c>
     </row>
     <row r="7">
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.00575882495227</v>
+        <v>-26.15154027866859</v>
       </c>
       <c r="C7" t="n">
-        <v>3.395006745160129e-05</v>
+        <v>2.998181963354693e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.050278914417634</v>
+        <v>-6.102867983922547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01977696001920811</v>
+        <v>0.01856186330747908</v>
       </c>
     </row>
     <row r="9">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-881.7365306766201</v>
+        <v>-882.4534495117723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1113456465148551</v>
+        <v>0.1088912123657191</v>
       </c>
     </row>
     <row r="10">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>556.7656317346791</v>
+        <v>563.9240670764261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1190448274486383</v>
+        <v>0.1146330042258895</v>
       </c>
     </row>
     <row r="11">
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8004.100193729958</v>
+        <v>8048.117839773729</v>
       </c>
       <c r="C11" t="n">
-        <v>1.574858055599497e-06</v>
+        <v>1.388725903812603e-06</v>
       </c>
     </row>
     <row r="12">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.78812318585165</v>
+        <v>25.28459467624997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005273410605873097</v>
+        <v>0.006622918858135297</v>
       </c>
     </row>
   </sheetData>
@@ -5340,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>986.4476083764548</v>
+        <v>981.2035939615525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1943393743493212</v>
+        <v>0.1981581121068355</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.62778392974886</v>
+        <v>77.83732023416616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01129392538621194</v>
+        <v>0.009814680259729999</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1779016311895</v>
+        <v>195.4409284535254</v>
       </c>
       <c r="C4" t="n">
-        <v>2.452063147370924e-24</v>
+        <v>2.442807618892581e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01160511405282512</v>
+        <v>-0.008800262344683424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4235609298722277</v>
+        <v>0.4887151811955243</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.05804520341551e-05</v>
+        <v>-3.132927421881204e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1512365847744079</v>
+        <v>0.144016310362212</v>
       </c>
     </row>
     <row r="7">
@@ -5405,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.33906886914806</v>
+        <v>-13.42687680583179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02322669866396069</v>
+        <v>0.02233950442890474</v>
       </c>
     </row>
     <row r="8">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3194347791670786</v>
+        <v>0.259492365252548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9248592386283205</v>
+        <v>0.9389517428799072</v>
       </c>
     </row>
     <row r="9">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.157367920666218</v>
+        <v>16.20208157688592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9873506680587537</v>
+        <v>0.971161203297728</v>
       </c>
     </row>
     <row r="10">
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.0942176211938</v>
+        <v>492.5126486108484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1236160520849499</v>
+        <v>0.1354909987451232</v>
       </c>
     </row>
     <row r="11">
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7068.448146493673</v>
+        <v>7075.921833877999</v>
       </c>
       <c r="C11" t="n">
-        <v>6.176343222819332e-06</v>
+        <v>6.340675271554713e-06</v>
       </c>
     </row>
     <row r="12">
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.78658060254461</v>
+        <v>27.89018481599252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002700143059087228</v>
+        <v>0.000282882812606249</v>
       </c>
     </row>
   </sheetData>
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.239139005941</v>
+        <v>2123.65448567028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002477616872548777</v>
+        <v>0.002586646946945753</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.29752870981702</v>
+        <v>52.81637969106603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05347473409739726</v>
+        <v>0.05074236440639256</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.1808741093014</v>
+        <v>212.363395681022</v>
       </c>
       <c r="C4" t="n">
-        <v>4.456164587728041e-30</v>
+        <v>4.290200081423091e-30</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006626946019002627</v>
+        <v>-0.004764174026957377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6241071059240216</v>
+        <v>0.6847401811550368</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.331767535151655e-06</v>
+        <v>-2.822444592191812e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9003403905042174</v>
+        <v>0.8805522535907053</v>
       </c>
     </row>
     <row r="7">
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.75287200398231</v>
+        <v>-22.81494193024731</v>
       </c>
       <c r="C7" t="n">
-        <v>2.456324892294393e-05</v>
+        <v>2.316370210743751e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.095222844508561</v>
+        <v>-4.127863576363792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09912216115927111</v>
+        <v>0.09619673590339078</v>
       </c>
     </row>
     <row r="9">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-999.5740368129573</v>
+        <v>-983.8926974013093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02742314171333733</v>
+        <v>0.02886108850079215</v>
       </c>
     </row>
     <row r="10">
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.5018969631783</v>
+        <v>-51.00377885095349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.901617984105762</v>
+        <v>0.8727912930144841</v>
       </c>
     </row>
     <row r="11">
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7892.245873633025</v>
+        <v>7872.931647297729</v>
       </c>
       <c r="C11" t="n">
-        <v>1.293459160981836e-06</v>
+        <v>1.344930471127941e-06</v>
       </c>
     </row>
     <row r="12">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.25406765780259</v>
+        <v>23.32915804841156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001991307014650542</v>
+        <v>0.002152620381795805</v>
       </c>
     </row>
   </sheetData>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2067.794823837327</v>
+        <v>2054.435745238503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008738887208343827</v>
+        <v>0.009636156889007465</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.8086008191152</v>
+        <v>57.81938452259055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03733175722351312</v>
+        <v>0.03344552603882171</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.8291726501704</v>
+        <v>193.9123027513108</v>
       </c>
       <c r="C4" t="n">
-        <v>1.551722275055788e-23</v>
+        <v>1.708993011931774e-23</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01029206441587957</v>
+        <v>-0.00761429199296821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4974787232327802</v>
+        <v>0.5681661213514505</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.195759712565489e-05</v>
+        <v>-2.284804983859043e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3135079528666196</v>
+        <v>0.2987679558453022</v>
       </c>
     </row>
     <row r="7">
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.08647819969021</v>
+        <v>-25.18564320586545</v>
       </c>
       <c r="C7" t="n">
-        <v>1.839370185000702e-05</v>
+        <v>1.69416663898909e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5776,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.601688585236946</v>
+        <v>-5.619908167111149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03583969956431247</v>
+        <v>0.03538907983048059</v>
       </c>
     </row>
     <row r="9">
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-525.0845711876127</v>
+        <v>-501.6446194472658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2742399352847948</v>
+        <v>0.292831748938196</v>
       </c>
     </row>
     <row r="10">
@@ -5802,10 +5802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.9006846913942</v>
+        <v>368.8363774519983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2422663422645275</v>
+        <v>0.2579184696183255</v>
       </c>
     </row>
     <row r="11">
@@ -5815,10 +5815,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7942.902927723253</v>
+        <v>7949.511343789982</v>
       </c>
       <c r="C11" t="n">
-        <v>5.52123810304385e-06</v>
+        <v>5.49086828816553e-06</v>
       </c>
     </row>
     <row r="12">
@@ -5828,10 +5828,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.09537370318349</v>
+        <v>31.28975226481228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004369448010715597</v>
+        <v>0.0004559580510440437</v>
       </c>
     </row>
   </sheetData>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2548.503595981489</v>
+        <v>2537.550039487696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00107442631287775</v>
+        <v>0.001160273461322391</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.66990857169834</v>
+        <v>66.06188150037407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02971376984784752</v>
+        <v>0.02590110490651614</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.1974965350598</v>
+        <v>211.7134768026613</v>
       </c>
       <c r="C4" t="n">
-        <v>1.162337718252892e-27</v>
+        <v>9.004965719446029e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01187554614207437</v>
+        <v>-0.008417151056239117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4412201529753131</v>
+        <v>0.5314698007182775</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.162864356423816e-05</v>
+        <v>-1.274014699076724e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6056900168250927</v>
+        <v>0.5776074699327574</v>
       </c>
     </row>
     <row r="7">
@@ -5942,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.22857145417652</v>
+        <v>-24.2762702264527</v>
       </c>
       <c r="C7" t="n">
-        <v>4.91237106605722e-05</v>
+        <v>4.799307961356862e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5955,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.229909393447073</v>
+        <v>-6.293339923714811</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05580400551563475</v>
+        <v>0.05339355205789539</v>
       </c>
     </row>
     <row r="9">
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-604.8614327912844</v>
+        <v>-577.4732272996525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1902360627308471</v>
+        <v>0.2078675640722863</v>
       </c>
     </row>
     <row r="10">
@@ -5981,10 +5981,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.0591373319193</v>
+        <v>306.5503311549985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3365289849977048</v>
+        <v>0.3706989834729602</v>
       </c>
     </row>
     <row r="11">
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6699.695789931021</v>
+        <v>6701.626170662454</v>
       </c>
       <c r="C11" t="n">
-        <v>3.198065106919778e-05</v>
+        <v>3.250815930172704e-05</v>
       </c>
     </row>
     <row r="12">
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.06617967026759</v>
+        <v>22.20591459714359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005622376328739797</v>
+        <v>0.005636241223047239</v>
       </c>
     </row>
   </sheetData>
@@ -6056,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2167.869024790696</v>
+        <v>2178.985729382327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002108825229385256</v>
+        <v>0.002015418233061689</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.47115436543859</v>
+        <v>54.49900333033856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04100649750657077</v>
+        <v>0.04026006421790591</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.9980908985856</v>
+        <v>222.725809006462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.527997412849448e-31</v>
+        <v>7.669556327739265e-31</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00793022868802773</v>
+        <v>-0.007956605074056794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5660252401188588</v>
+        <v>0.5118674483765767</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.235416683204431e-05</v>
+        <v>-1.145529709114119e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.515851889757591</v>
+        <v>0.5501036337272143</v>
       </c>
     </row>
     <row r="7">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.12014810824902</v>
+        <v>-22.08504104683238</v>
       </c>
       <c r="C7" t="n">
-        <v>5.516879109930079e-05</v>
+        <v>5.576501645702959e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.705015792288336</v>
+        <v>-6.712148643285669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006105210404022141</v>
+        <v>0.005963775260904546</v>
       </c>
     </row>
     <row r="9">
@@ -6147,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-492.2164808028811</v>
+        <v>-495.2801500021239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2751408057791194</v>
+        <v>0.2687484366838201</v>
       </c>
     </row>
     <row r="10">
@@ -6160,10 +6160,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.1403371097408</v>
+        <v>342.3033946570404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3106730991855465</v>
+        <v>0.2978891124060526</v>
       </c>
     </row>
     <row r="11">
@@ -6173,10 +6173,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8228.400577159746</v>
+        <v>8252.447456488797</v>
       </c>
       <c r="C11" t="n">
-        <v>9.531087013748681e-08</v>
+        <v>8.884362202196205e-08</v>
       </c>
     </row>
     <row r="12">
@@ -6186,10 +6186,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.92835343016156</v>
+        <v>20.66372245617413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005976483447771804</v>
+        <v>0.006913378351714979</v>
       </c>
     </row>
   </sheetData>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2156.984894514498</v>
+        <v>2152.257224670005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002776039077645525</v>
+        <v>0.002917131547471997</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.29473761631345</v>
+        <v>48.75570049139517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07150029029742064</v>
+        <v>0.06796025798773715</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.0896991930692</v>
+        <v>211.2478556613427</v>
       </c>
       <c r="C4" t="n">
-        <v>9.989741136342704e-29</v>
+        <v>1.019357656024596e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004009045131611932</v>
+        <v>-0.002630793863090081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7817319256515366</v>
+        <v>0.833788601350592</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.646870116702858e-05</v>
+        <v>-1.694720983959767e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3961589487531071</v>
+        <v>0.3883556860594743</v>
       </c>
     </row>
     <row r="7">
@@ -6300,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.05640159069</v>
+        <v>-22.08204756164197</v>
       </c>
       <c r="C7" t="n">
-        <v>9.549139626201995e-05</v>
+        <v>9.350637779680322e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6313,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.560743690509266</v>
+        <v>-7.575812009351992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002267921993483205</v>
+        <v>0.002214845132375149</v>
       </c>
     </row>
     <row r="9">
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-127.2071273760648</v>
+        <v>-115.2215073125188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7876006797965264</v>
+        <v>0.8062593825422438</v>
       </c>
     </row>
     <row r="10">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.57865605195911</v>
+        <v>78.15131374463863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.794129084469875</v>
+        <v>0.8168846793628387</v>
       </c>
     </row>
     <row r="11">
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7523.145629202239</v>
+        <v>7512.26173575585</v>
       </c>
       <c r="C11" t="n">
-        <v>6.64204175908648e-06</v>
+        <v>6.832985422765653e-06</v>
       </c>
     </row>
     <row r="12">
@@ -6365,10 +6365,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.43935112832632</v>
+        <v>30.53638141204414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001473219069228178</v>
+        <v>0.0001544530676367571</v>
       </c>
     </row>
   </sheetData>
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1889.595834879414</v>
+        <v>1899.632874560141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01112565986225391</v>
+        <v>0.01097636116645205</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.48938500958927</v>
+        <v>72.08406083424369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01036865279136104</v>
+        <v>0.009461552326428471</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.8718568626964</v>
+        <v>210.9131912665148</v>
       </c>
       <c r="C4" t="n">
-        <v>1.445444280018022e-28</v>
+        <v>1.409398248488447e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01094185486751511</v>
+        <v>-0.009404878959373388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4974971382169991</v>
+        <v>0.5059826824061245</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.186899591639416e-07</v>
+        <v>-3.887904505318048e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9786788633070319</v>
+        <v>0.988642291360718</v>
       </c>
     </row>
     <row r="7">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.65926922141488</v>
+        <v>-22.69746412726727</v>
       </c>
       <c r="C7" t="n">
-        <v>9.466194573722793e-05</v>
+        <v>9.210410314421365e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.833006433789492</v>
+        <v>-5.865813384450014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05033373257164821</v>
+        <v>0.04896001098056314</v>
       </c>
     </row>
     <row r="9">
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-450.2545394521608</v>
+        <v>-438.553055115407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3348882805918501</v>
+        <v>0.3427902268820288</v>
       </c>
     </row>
     <row r="10">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>414.61209396756</v>
+        <v>410.7633177325226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2242970405761529</v>
+        <v>0.2269838912102923</v>
       </c>
     </row>
     <row r="11">
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8054.147162772867</v>
+        <v>8055.347545971776</v>
       </c>
       <c r="C11" t="n">
-        <v>4.627140847029488e-07</v>
+        <v>4.618520031015494e-07</v>
       </c>
     </row>
     <row r="12">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.65531475347035</v>
+        <v>25.4401609414573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001871777013601125</v>
+        <v>0.002224588907884331</v>
       </c>
     </row>
   </sheetData>
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350.72393206168</v>
+        <v>1339.333361784991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05492107424934404</v>
+        <v>0.05860061236888126</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.02412819367497</v>
+        <v>19.50073090561526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5224180138267031</v>
+        <v>0.462351018271154</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.4169687826075</v>
+        <v>187.7468821793024</v>
       </c>
       <c r="C4" t="n">
-        <v>1.385062753735536e-22</v>
+        <v>1.470289311273311e-22</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02613192379992285</v>
+        <v>-0.0203854183841523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06432395921557343</v>
+        <v>0.100730287415854</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.20050256847519e-05</v>
+        <v>-1.286710824751272e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6090413371880496</v>
+        <v>0.5930994540884704</v>
       </c>
     </row>
     <row r="7">
@@ -6658,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.46031155916079</v>
+        <v>-13.72439863841016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02350751566022335</v>
+        <v>0.02124791826701047</v>
       </c>
     </row>
     <row r="8">
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.111962843267527</v>
+        <v>-0.2078917699215914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9664579753056542</v>
+        <v>0.9378857999765802</v>
       </c>
     </row>
     <row r="9">
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-522.9887955457675</v>
+        <v>-467.7054844461286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.290359985446243</v>
+        <v>0.342730214542984</v>
       </c>
     </row>
     <row r="10">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>597.0260941468149</v>
+        <v>575.447311497863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05661459492470523</v>
+        <v>0.06668525804660634</v>
       </c>
     </row>
     <row r="11">
@@ -6710,10 +6710,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7726.509067593308</v>
+        <v>7732.072686993615</v>
       </c>
       <c r="C11" t="n">
-        <v>1.197978093351609e-07</v>
+        <v>1.272940199312337e-07</v>
       </c>
     </row>
     <row r="12">
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.35500906787975</v>
+        <v>24.50457095599592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002087522586655934</v>
+        <v>0.002242155009617735</v>
       </c>
     </row>
   </sheetData>
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1513.701538985157</v>
+        <v>1530.347235424522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03393033696771482</v>
+        <v>0.03220988351339048</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.13636062963376</v>
+        <v>49.82273383665621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09278946349720374</v>
+        <v>0.08616483524619545</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0868033504586</v>
+        <v>209.0599854045355</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358197122274078e-27</v>
+        <v>1.240499174161853e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01936837110750702</v>
+        <v>-0.01780683387710632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1703531932355005</v>
+        <v>0.1522896693748151</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.401065043625988e-06</v>
+        <v>3.404015362025762e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9522250033411946</v>
+        <v>0.8863462882723547</v>
       </c>
     </row>
     <row r="7">
@@ -6837,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.12387421735825</v>
+        <v>-15.22230555469682</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009497936877304323</v>
+        <v>0.008990302833920287</v>
       </c>
     </row>
     <row r="8">
@@ -6850,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.853641245433224</v>
+        <v>-2.915965894301895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.295780722371102</v>
+        <v>0.2845387387630359</v>
       </c>
     </row>
     <row r="9">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-569.8110528324382</v>
+        <v>-568.8159838766016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2524268782304571</v>
+        <v>0.2503927383438411</v>
       </c>
     </row>
     <row r="10">
@@ -6876,10 +6876,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.6089854493787</v>
+        <v>121.0172137767647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7248508468787628</v>
+        <v>0.7117485010270495</v>
       </c>
     </row>
     <row r="11">
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7554.2653897626</v>
+        <v>7600.418845551289</v>
       </c>
       <c r="C11" t="n">
-        <v>5.003075921010541e-07</v>
+        <v>4.459448726963869e-07</v>
       </c>
     </row>
     <row r="12">
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.46531395770573</v>
+        <v>27.03165361619854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004166862588986071</v>
+        <v>0.0005610579815943609</v>
       </c>
     </row>
   </sheetData>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2410.017806561767</v>
+        <v>2407.506694116454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001586936782654073</v>
+        <v>0.001661161956832664</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.62455899224918</v>
+        <v>38.50349146439521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1865500121041828</v>
+        <v>0.1747880438092425</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.422774644956</v>
+        <v>210.5934293034569</v>
       </c>
       <c r="C4" t="n">
-        <v>2.791677150227641e-27</v>
+        <v>2.784491104906836e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009826072063665293</v>
+        <v>-0.00735732845207708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5211096080556148</v>
+        <v>0.5807407329216783</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.887131042359769e-06</v>
+        <v>-9.484498342959759e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6709095821812916</v>
+        <v>0.6533236674643581</v>
       </c>
     </row>
     <row r="7">
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.68734836363517</v>
+        <v>-23.77931530511025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000111183819607526</v>
+        <v>0.0001037211063015253</v>
       </c>
     </row>
     <row r="8">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.094688631775675</v>
+        <v>-5.114286054825257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05859962631475889</v>
+        <v>0.05769664987409658</v>
       </c>
     </row>
     <row r="9">
@@ -7042,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-397.6674560501546</v>
+        <v>-376.0116644010122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3994019676685256</v>
+        <v>0.4211907379569092</v>
       </c>
     </row>
     <row r="10">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.0354858752198</v>
+        <v>313.6149904981598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.35942828686648</v>
+        <v>0.3761244418741816</v>
       </c>
     </row>
     <row r="11">
@@ -7068,10 +7068,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6402.648218489627</v>
+        <v>6391.362512438394</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001287403198080752</v>
+        <v>0.0001330639981117009</v>
       </c>
     </row>
     <row r="12">
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.8074698573793</v>
+        <v>22.80834559824419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006660835542671563</v>
+        <v>0.007211350081324216</v>
       </c>
     </row>
   </sheetData>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2636.481845373062</v>
+        <v>2591.8782949533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006041962643911608</v>
+        <v>0.0007789270386180191</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.40527363629968</v>
+        <v>48.24245338722071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06312032488790832</v>
+        <v>0.05785938434319456</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.6192780836025</v>
+        <v>215.3878938367922</v>
       </c>
       <c r="C4" t="n">
-        <v>3.899190808732875e-28</v>
+        <v>3.267016789884073e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001758115066788885</v>
+        <v>0.001177658729082764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9056651671283232</v>
+        <v>0.9274421979797887</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.257111815386821e-05</v>
+        <v>-2.456885634410056e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2721123733864976</v>
+        <v>0.2376919653347624</v>
       </c>
     </row>
     <row r="7">
@@ -7195,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.64724859623689</v>
+        <v>-26.69644493863846</v>
       </c>
       <c r="C7" t="n">
-        <v>2.393668781597321e-06</v>
+        <v>2.267953754122857e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.969291919934577</v>
+        <v>-7.947926152393393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007433260060433887</v>
+        <v>0.007632731330098993</v>
       </c>
     </row>
     <row r="9">
@@ -7221,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-370.113962164829</v>
+        <v>-338.62499347223</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4112181708055921</v>
+        <v>0.4495470327416221</v>
       </c>
     </row>
     <row r="10">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.1904671331677</v>
+        <v>394.5034033140291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1895835189378622</v>
+        <v>0.2150148034584376</v>
       </c>
     </row>
     <row r="11">
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6962.064066495501</v>
+        <v>6980.793949178522</v>
       </c>
       <c r="C11" t="n">
-        <v>1.316236062624168e-05</v>
+        <v>1.240799347445682e-05</v>
       </c>
     </row>
     <row r="12">
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.51070398633311</v>
+        <v>25.01540954113585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001623534081712691</v>
+        <v>0.001398100835427413</v>
       </c>
     </row>
   </sheetData>
@@ -7309,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2191.151256591467</v>
+        <v>2186.342833356164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00255788556580324</v>
+        <v>0.002694155808182204</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.27227446805939</v>
+        <v>54.10513390526063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05076241307707432</v>
+        <v>0.04650533189875763</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.7498958515936</v>
+        <v>191.8756607190987</v>
       </c>
       <c r="C4" t="n">
-        <v>6.202818461576964e-23</v>
+        <v>6.21732793751091e-23</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007929510751023943</v>
+        <v>-0.005700930274867457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5918792074647408</v>
+        <v>0.6576187394572277</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.330520395192128e-05</v>
+        <v>-2.414839702861634e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2834220648579631</v>
+        <v>0.2719768796853398</v>
       </c>
     </row>
     <row r="7">
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.20832528640741</v>
+        <v>-24.24883148692455</v>
       </c>
       <c r="C7" t="n">
-        <v>3.402080017089515e-05</v>
+        <v>3.313524880816105e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.416905049780324</v>
+        <v>-7.454069596590447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003618820012375239</v>
+        <v>0.003436546686611699</v>
       </c>
     </row>
     <row r="9">
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-439.1733048299553</v>
+        <v>-420.7361615291411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3403463757915828</v>
+        <v>0.3578624376496903</v>
       </c>
     </row>
     <row r="10">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.6061214534943</v>
+        <v>345.923831603382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2970341609955041</v>
+        <v>0.316550391088255</v>
       </c>
     </row>
     <row r="11">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8569.922815805956</v>
+        <v>8568.554479161518</v>
       </c>
       <c r="C11" t="n">
-        <v>1.305405335375117e-07</v>
+        <v>1.327043382400194e-07</v>
       </c>
     </row>
     <row r="12">
@@ -7439,10 +7439,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.02706066794717</v>
+        <v>30.14697961144095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000260760170489337</v>
+        <v>0.0002666929903047723</v>
       </c>
     </row>
   </sheetData>
@@ -7488,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1765.147959415403</v>
+        <v>1763.434584568787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01666749064913045</v>
+        <v>0.01715958905400766</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.74093433045283</v>
+        <v>57.8888959788072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03898624414998039</v>
+        <v>0.03479856503822397</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9399464203908</v>
+        <v>207.017025427117</v>
       </c>
       <c r="C4" t="n">
-        <v>1.10534217310517e-27</v>
+        <v>1.315120445344065e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02128316302855268</v>
+        <v>-0.01757535919624677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.135692247029248</v>
+        <v>0.1602910656307709</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.345182332944948e-05</v>
+        <v>-1.345938026065281e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.496552340518108</v>
+        <v>0.5019783633693213</v>
       </c>
     </row>
     <row r="7">
@@ -7553,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.99364675345056</v>
+        <v>-19.09214866478249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007969039315042438</v>
+        <v>0.0007539399280762345</v>
       </c>
     </row>
     <row r="8">
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.616932923024841</v>
+        <v>-4.686624220303187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06979922439026792</v>
+        <v>0.06567481904738434</v>
       </c>
     </row>
     <row r="9">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-615.2177090585515</v>
+        <v>-588.3333988268605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2076459761508694</v>
+        <v>0.2257761835333763</v>
       </c>
     </row>
     <row r="10">
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.5875592819239</v>
+        <v>423.4843609281188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1678958196871452</v>
+        <v>0.179488786795523</v>
       </c>
     </row>
     <row r="11">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8800.810190251339</v>
+        <v>8824.430058574755</v>
       </c>
       <c r="C11" t="n">
-        <v>1.411873164786624e-07</v>
+        <v>1.365666087458344e-07</v>
       </c>
     </row>
     <row r="12">
@@ -7618,10 +7618,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.86501341214026</v>
+        <v>23.8505651681325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003637913380565004</v>
+        <v>0.003949296169424389</v>
       </c>
     </row>
   </sheetData>
@@ -7667,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2306.529098904352</v>
+        <v>2290.503661668039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003162976064461647</v>
+        <v>0.003500252799754114</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.37318219462254</v>
+        <v>63.86738546432595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04233009081944113</v>
+        <v>0.0367936376810674</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.831551506474</v>
+        <v>199.1291572106431</v>
       </c>
       <c r="C4" t="n">
-        <v>4.973644344086675e-24</v>
+        <v>4.948059901425664e-24</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01004894029550372</v>
+        <v>-0.007209879084652145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4979806279158638</v>
+        <v>0.5802493154894257</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.32426609303362e-05</v>
+        <v>-1.402927241709409e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5121482070246777</v>
+        <v>0.4933473916013156</v>
       </c>
     </row>
     <row r="7">
@@ -7732,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.1265598918898</v>
+        <v>-26.22413625933036</v>
       </c>
       <c r="C7" t="n">
-        <v>9.516617745655807e-06</v>
+        <v>8.791068142817755e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7745,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.064317830611564</v>
+        <v>-6.128098219448784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0219912868307933</v>
+        <v>0.02048728195123685</v>
       </c>
     </row>
     <row r="9">
@@ -7758,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-717.7492487477489</v>
+        <v>-691.3411425346512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.130400390411755</v>
+        <v>0.142961666652998</v>
       </c>
     </row>
     <row r="10">
@@ -7771,10 +7771,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.348684987816</v>
+        <v>371.1598933202022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2372088977228813</v>
+        <v>0.2549281694727136</v>
       </c>
     </row>
     <row r="11">
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7965.751290522509</v>
+        <v>7970.594352268843</v>
       </c>
       <c r="C11" t="n">
-        <v>6.100564489731091e-06</v>
+        <v>6.139993829759816e-06</v>
       </c>
     </row>
     <row r="12">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.48843245638204</v>
+        <v>25.7773535589265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003988084805897575</v>
+        <v>0.003880584422837735</v>
       </c>
     </row>
   </sheetData>
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1616.724715069047</v>
+        <v>1641.527731442356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02137881668200838</v>
+        <v>0.01949936251009129</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.28775603623239</v>
+        <v>67.81888984745848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01183620240658778</v>
+        <v>0.01075757616191083</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.441016558749</v>
+        <v>210.957376017261</v>
       </c>
       <c r="C4" t="n">
-        <v>4.228921426625133e-29</v>
+        <v>5.001206717291552e-29</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01827039123372738</v>
+        <v>-0.01823781880221072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2174043957160231</v>
+        <v>0.1667143544604202</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.320202220475051e-06</v>
+        <v>6.9569017773304e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8541064063651643</v>
+        <v>0.7701471557895534</v>
       </c>
     </row>
     <row r="7">
@@ -7911,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.83810648564265</v>
+        <v>-21.8306871049049</v>
       </c>
       <c r="C7" t="n">
-        <v>9.832459678927257e-05</v>
+        <v>9.644160031585522e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.869835291116415</v>
+        <v>-5.886658635199549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01673629726674365</v>
+        <v>0.01617034323129667</v>
       </c>
     </row>
     <row r="9">
@@ -7937,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-555.8255602507065</v>
+        <v>-560.0244202722029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216288768168105</v>
+        <v>0.2084062443499721</v>
       </c>
     </row>
     <row r="10">
@@ -7950,10 +7950,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.1949070334771</v>
+        <v>410.6655790071613</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2472166434574102</v>
+        <v>0.2268178390938247</v>
       </c>
     </row>
     <row r="11">
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8896.777777964289</v>
+        <v>8933.364846676184</v>
       </c>
       <c r="C11" t="n">
-        <v>1.920524981911915e-08</v>
+        <v>1.642491401483223e-08</v>
       </c>
     </row>
     <row r="12">
@@ -7976,10 +7976,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.59369029014914</v>
+        <v>29.01240932061424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000185923809450875</v>
+        <v>0.0002650823728032738</v>
       </c>
     </row>
   </sheetData>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2812.084113264088</v>
+        <v>2799.281241485975</v>
       </c>
       <c r="C2" t="n">
-        <v>3.880237961797625e-05</v>
+        <v>4.50623331291313e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.55146680312882</v>
+        <v>30.84828118656748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2484795331535117</v>
+        <v>0.2268774745498564</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.641080387757</v>
+        <v>226.7696826353314</v>
       </c>
       <c r="C4" t="n">
-        <v>6.572433536878796e-33</v>
+        <v>6.90089177257042e-33</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0131235304394088</v>
+        <v>-0.009913650242869245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3223757260715812</v>
+        <v>0.3918159661220245</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.760382678568526e-06</v>
+        <v>3.019811721852744e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8444063121076003</v>
+        <v>0.8765090363091954</v>
       </c>
     </row>
     <row r="7">
@@ -8090,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.96110408931654</v>
+        <v>-20.04615036477872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001935169909571966</v>
+        <v>0.0001831073104025703</v>
       </c>
     </row>
     <row r="8">
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.99847740068115</v>
+        <v>-8.021978340792014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007405966593815687</v>
+        <v>0.0007247263177058438</v>
       </c>
     </row>
     <row r="9">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-649.4521831259661</v>
+        <v>-619.8361247558679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1837972261275342</v>
+        <v>0.2021553820598049</v>
       </c>
     </row>
     <row r="10">
@@ -8129,10 +8129,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.24405074161484</v>
+        <v>-37.26406191454237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9415342517665941</v>
+        <v>0.9020569091312129</v>
       </c>
     </row>
     <row r="11">
@@ -8142,10 +8142,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6345.017950920103</v>
+        <v>6341.165326937913</v>
       </c>
       <c r="C11" t="n">
-        <v>2.027811809116358e-05</v>
+        <v>2.089898108329702e-05</v>
       </c>
     </row>
     <row r="12">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.0341640506917</v>
+        <v>20.19013551568142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007756261411880135</v>
+        <v>0.00784205653450111</v>
       </c>
     </row>
   </sheetData>
@@ -8204,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.139887978916</v>
+        <v>1484.036985079832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04336697462009475</v>
+        <v>0.04502313847330996</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.28799793266445</v>
+        <v>40.72318156420539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1580333328841518</v>
+        <v>0.1427983812267707</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.70071176429</v>
+        <v>189.1759433590853</v>
       </c>
       <c r="C4" t="n">
-        <v>7.3737109492979e-24</v>
+        <v>6.645407907711013e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01973701020874843</v>
+        <v>-0.01537793632502821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1630265638458927</v>
+        <v>0.2118969190382774</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.107637335441979e-05</v>
+        <v>-2.164770964017895e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2945487556981911</v>
+        <v>0.2890219650010826</v>
       </c>
     </row>
     <row r="7">
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.07960458796786</v>
+        <v>-17.21001249871447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004685936530627868</v>
+        <v>0.004433808530193229</v>
       </c>
     </row>
     <row r="8">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.449097209890667</v>
+        <v>-1.52185377264694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6046541869414497</v>
+        <v>0.5868900128124487</v>
       </c>
     </row>
     <row r="9">
@@ -8295,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.8362028412379</v>
+        <v>-168.960119201364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6648089235740802</v>
+        <v>0.7180204962323247</v>
       </c>
     </row>
     <row r="10">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>596.751810720993</v>
+        <v>575.8998103771964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08498576319292835</v>
+        <v>0.09661290177293094</v>
       </c>
     </row>
     <row r="11">
@@ -8321,10 +8321,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7306.257217477691</v>
+        <v>7311.717472519365</v>
       </c>
       <c r="C11" t="n">
-        <v>5.529015935842919e-06</v>
+        <v>5.644581236510129e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8334,10 +8334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.11477031618172</v>
+        <v>27.1856855574671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005203144813302179</v>
+        <v>0.0005514616220806378</v>
       </c>
     </row>
   </sheetData>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.371049323512</v>
+        <v>1331.48406666148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09574904443302955</v>
+        <v>0.09905949747324541</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.52445130460487</v>
+        <v>47.5249848644936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09511238869264989</v>
+        <v>0.08660480015142513</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.9505362367144</v>
+        <v>197.9896530364891</v>
       </c>
       <c r="C4" t="n">
-        <v>2.721331646967303e-24</v>
+        <v>2.852652050169979e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01129492832908635</v>
+        <v>-0.008839850262143067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4613648143071223</v>
+        <v>0.5109908208110223</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.635040854472912e-05</v>
+        <v>-2.698419124133163e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225659951508989</v>
+        <v>0.2201164065217815</v>
       </c>
     </row>
     <row r="7">
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.79878840180778</v>
+        <v>-15.91543594417023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01556114491485539</v>
+        <v>0.01475783693112325</v>
       </c>
     </row>
     <row r="8">
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9059638082438912</v>
+        <v>-0.9456522240535179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7568495687956543</v>
+        <v>0.746627812372179</v>
       </c>
     </row>
     <row r="9">
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-104.6914172853631</v>
+        <v>-81.53155170975333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8403948656671605</v>
+        <v>0.874548512605921</v>
       </c>
     </row>
     <row r="10">
@@ -8487,10 +8487,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.3464364081926</v>
+        <v>519.7977791183077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1086415916007447</v>
+        <v>0.1138104050808483</v>
       </c>
     </row>
     <row r="11">
@@ -8500,10 +8500,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7069.54444844546</v>
+        <v>7079.658784997093</v>
       </c>
       <c r="C11" t="n">
-        <v>7.759923943571945e-06</v>
+        <v>7.659512885849221e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.94932340553237</v>
+        <v>26.02019303992681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003948310296941204</v>
+        <v>0.004342190303869447</v>
       </c>
     </row>
   </sheetData>
@@ -8562,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.194354617641</v>
+        <v>2027.258692364145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01079706381733196</v>
+        <v>0.01195016317123158</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.82258908824375</v>
+        <v>37.35475605393363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1798119183247436</v>
+        <v>0.1726634223228342</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7895918797497</v>
+        <v>213.2823800977148</v>
       </c>
       <c r="C4" t="n">
-        <v>8.39848115506476e-26</v>
+        <v>7.416082735519343e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003357281618692969</v>
+        <v>-0.0007950203574308146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8360481569799133</v>
+        <v>0.9544789352032177</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.172036993512896e-05</v>
+        <v>-3.332521120191045e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1665317995746406</v>
+        <v>0.149785468038015</v>
       </c>
     </row>
     <row r="7">
@@ -8627,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.5099618653666</v>
+        <v>-21.56054063257636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003512898052293805</v>
+        <v>0.0003379865255039257</v>
       </c>
     </row>
     <row r="8">
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.25837721511871</v>
+        <v>-4.251889065897981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1999210217829903</v>
+        <v>0.2009674572142207</v>
       </c>
     </row>
     <row r="9">
@@ -8653,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-279.6444107762236</v>
+        <v>-255.7166220788195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5574065737622309</v>
+        <v>0.5889142561239233</v>
       </c>
     </row>
     <row r="10">
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.79602249962</v>
+        <v>350.980504351282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2827305389944649</v>
+        <v>0.3121850920233806</v>
       </c>
     </row>
     <row r="11">
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7161.498532643799</v>
+        <v>7144.436404646776</v>
       </c>
       <c r="C11" t="n">
-        <v>7.061235284339626e-06</v>
+        <v>7.431461866955278e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.3108721570975</v>
+        <v>24.61617605203963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002802895761373957</v>
+        <v>0.002702476279574296</v>
       </c>
     </row>
   </sheetData>
@@ -8741,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2101.663523628664</v>
+        <v>2114.141489708925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004322000469545249</v>
+        <v>0.004240994132934646</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.98616564575207</v>
+        <v>60.37290580536482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03779858192452339</v>
+        <v>0.03294528523727267</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.8321686559501</v>
+        <v>194.9384849357398</v>
       </c>
       <c r="C4" t="n">
-        <v>4.313302886143173e-23</v>
+        <v>4.569669949978176e-23</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02360904005813821</v>
+        <v>-0.02011140248701352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1102038089862598</v>
+        <v>0.1253224062353874</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.216955422562349e-06</v>
+        <v>4.990152387191148e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8575786443517421</v>
+        <v>0.8348695607863506</v>
       </c>
     </row>
     <row r="7">
@@ -8806,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.64367814274057</v>
+        <v>-26.85823494796035</v>
       </c>
       <c r="C7" t="n">
-        <v>1.489078616475389e-05</v>
+        <v>1.277089914209245e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8819,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.647637366837031</v>
+        <v>-4.74500694102273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0779054915809457</v>
+        <v>0.07180487575220799</v>
       </c>
     </row>
     <row r="9">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-804.9198218466672</v>
+        <v>-779.0033255107219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09354805836361046</v>
+        <v>0.1023057484114324</v>
       </c>
     </row>
     <row r="10">
@@ -8845,10 +8845,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>592.8278149032549</v>
+        <v>584.6388274351139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07411738911789569</v>
+        <v>0.07824685814309784</v>
       </c>
     </row>
     <row r="11">
@@ -8858,10 +8858,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8206.19498040048</v>
+        <v>8205.004345817844</v>
       </c>
       <c r="C11" t="n">
-        <v>2.521893358676593e-07</v>
+        <v>2.591586882869376e-07</v>
       </c>
     </row>
     <row r="12">
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.90429074629441</v>
+        <v>25.78041902824415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001202936546373498</v>
+        <v>0.001359789312250858</v>
       </c>
     </row>
   </sheetData>
@@ -8920,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1520.699952313589</v>
+        <v>1515.611939581905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04682133084754728</v>
+        <v>0.04875707157111793</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.86186528885932</v>
+        <v>47.25319827038327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07929182340518796</v>
+        <v>0.07003885103452087</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.609041758331</v>
+        <v>191.9020979214184</v>
       </c>
       <c r="C4" t="n">
-        <v>2.446682260887439e-26</v>
+        <v>2.587938277606616e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02076431584549958</v>
+        <v>-0.01647021358966389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1423658943291604</v>
+        <v>0.183175691872702</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.028934820801116e-05</v>
+        <v>-2.086084614145794e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3130831591091731</v>
+        <v>0.3071168637816454</v>
       </c>
     </row>
     <row r="7">
@@ -8985,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.993658135185</v>
+        <v>-18.03714347640996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003435822639121045</v>
+        <v>0.003400744730388587</v>
       </c>
     </row>
     <row r="8">
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7594130478202885</v>
+        <v>-0.8564543594057099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8154208505408342</v>
+        <v>0.7924979626547546</v>
       </c>
     </row>
     <row r="9">
@@ -9011,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.33547549029208</v>
+        <v>98.14718062636575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.886412666651466</v>
+        <v>0.832036124968681</v>
       </c>
     </row>
     <row r="10">
@@ -9024,10 +9024,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>873.1944150117371</v>
+        <v>853.2235900124639</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01026922996227103</v>
+        <v>0.01191574828006644</v>
       </c>
     </row>
     <row r="11">
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6693.35742990942</v>
+        <v>6704.787798236932</v>
       </c>
       <c r="C11" t="n">
-        <v>1.193589610005266e-05</v>
+        <v>1.184673944194691e-05</v>
       </c>
     </row>
     <row r="12">
@@ -9050,10 +9050,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.56213582054547</v>
+        <v>22.64826275251462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00416124915372619</v>
+        <v>0.004364438025710252</v>
       </c>
     </row>
   </sheetData>
@@ -9099,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2141.629266546179</v>
+        <v>2124.441577302639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004120724772361729</v>
+        <v>0.004514097910530634</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.70627079992371</v>
+        <v>68.20747463040814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03034205645691924</v>
+        <v>0.02621967680696609</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.9344626665018</v>
+        <v>220.3084307531416</v>
       </c>
       <c r="C4" t="n">
-        <v>1.529502639286596e-27</v>
+        <v>1.32090082051552e-27</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008605142582744196</v>
+        <v>-0.005746284180554895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.555112306460203</v>
+        <v>0.650860140490144</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.072471294202756e-06</v>
+        <v>-6.12056410912698e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8067251829240427</v>
+        <v>0.7704005270173362</v>
       </c>
     </row>
     <row r="7">
@@ -9164,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.05479863649738</v>
+        <v>-20.10308760086566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005580767097572831</v>
+        <v>0.0005438250335036495</v>
       </c>
     </row>
     <row r="8">
@@ -9177,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.643644463770467</v>
+        <v>-6.693411313481764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01024255947701557</v>
+        <v>0.00964342110215767</v>
       </c>
     </row>
     <row r="9">
@@ -9190,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-272.2751914953458</v>
+        <v>-245.2246495223985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5703992597008438</v>
+        <v>0.6066015365567061</v>
       </c>
     </row>
     <row r="10">
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248.7200075857091</v>
+        <v>227.390956674726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.469182434511746</v>
+        <v>0.5075339371516399</v>
       </c>
     </row>
     <row r="11">
@@ -9216,10 +9216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6997.359123007374</v>
+        <v>7005.712605442274</v>
       </c>
       <c r="C11" t="n">
-        <v>3.965917234761552e-05</v>
+        <v>3.935605636966288e-05</v>
       </c>
     </row>
     <row r="12">
@@ -9229,10 +9229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.56454183487061</v>
+        <v>24.81370276413137</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002958376049954686</v>
+        <v>0.002877488482168906</v>
       </c>
     </row>
   </sheetData>
@@ -9278,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2396.228792000601</v>
+        <v>2393.140273748435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006486697535763125</v>
+        <v>0.0006771827216525742</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.14829235402151</v>
+        <v>24.99587910396325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3234885348121669</v>
+        <v>0.3252017624891795</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.2074582400053</v>
+        <v>222.1931490800477</v>
       </c>
       <c r="C4" t="n">
-        <v>5.175506817115904e-30</v>
+        <v>5.122559723833604e-30</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004693600485248216</v>
+        <v>0.003974412099500921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7535884960613424</v>
+        <v>0.7563370058471711</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.345230936471792e-05</v>
+        <v>-2.354386684981471e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25688224134446</v>
+        <v>0.2599241641137121</v>
       </c>
     </row>
     <row r="7">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.3538516688135</v>
+        <v>-21.33459920244077</v>
       </c>
       <c r="C7" t="n">
-        <v>5.770828192478726e-05</v>
+        <v>5.765438514826427e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.318580041547758</v>
+        <v>-6.313476911825084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01031923671234274</v>
+        <v>0.01039060199757798</v>
       </c>
     </row>
     <row r="9">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-666.1938323934761</v>
+        <v>-669.4443473784016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1239521365997216</v>
+        <v>0.1200451100605018</v>
       </c>
     </row>
     <row r="10">
@@ -9382,10 +9382,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-198.5575733748041</v>
+        <v>-196.7581749129411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5315561369094084</v>
+        <v>0.5332100535673368</v>
       </c>
     </row>
     <row r="11">
@@ -9395,10 +9395,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7261.830313250763</v>
+        <v>7261.641085343262</v>
       </c>
       <c r="C11" t="n">
-        <v>4.270243030139143e-06</v>
+        <v>4.294725175475047e-06</v>
       </c>
     </row>
     <row r="12">
@@ -9408,10 +9408,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.32904546307809</v>
+        <v>25.4088107647174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001246601387549621</v>
+        <v>0.001324015467563141</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ03538252" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ03663282" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ03769301" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ03877815" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ03983330" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ04089846" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04197355" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04301864" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ04408374" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ04514886" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ04620399" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ04724910" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ04830420" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ04936791" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ05043299" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ05149809" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ05254337" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ05363611" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ05469640" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ05578154" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ05685670" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ05791528" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ05897039" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ06003551" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ06110060" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ06218327" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ06322839" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ06432349" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ06545862" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ06653899" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ06759421" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ06864941" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ06969960" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ07076491" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ07183276" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ07285789" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ07391302" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ07496982" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ07603495" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ07709006" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ07815519" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ07923355" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ08030868" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ08136383" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ08241895" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ08347408" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ08453925" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ08561445" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ08675474" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ08781988" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ16803226" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ16929936" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17065237" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17180605" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17314453" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ17465544" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ17662450" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ17794640" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17928970" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18063682" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ18213982" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ18346821" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ18483170" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ18630046" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ18783004" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ18930924" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ19063606" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ19214194" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ19329927" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ19463402" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ19597512" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ19729805" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ19861265" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19997495" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ20130050" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ20263392" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ20397804" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ20530080" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ20663406" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ20796859" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ20929614" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ21064766" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ21207222" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ21352050" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ21480847" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ21612305" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ21761226" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ21879511" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ22029943" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ22163891" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ22311236" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ22430386" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ22563639" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ22697024" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ22828913" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ22947099" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ23080018" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ23208687" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23353535" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23480159" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2170.176182420139</v>
+        <v>1630.03526483078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001618302838871311</v>
+        <v>0.01098239588894073</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.91414063608492</v>
+        <v>50.87843265639479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1910835740710154</v>
+        <v>0.08601257176493145</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.7795084156244</v>
+        <v>195.2712680993259</v>
       </c>
       <c r="C4" t="n">
-        <v>4.540147644037695e-30</v>
+        <v>2.456328526525786e-22</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004423529900073733</v>
+        <v>-0.01464633106253055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7098671120303152</v>
+        <v>0.2641415257695544</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.152797683909206e-05</v>
+        <v>-2.546075150165469e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5588565586837057</v>
+        <v>0.2227893449125305</v>
       </c>
     </row>
     <row r="7">
@@ -572,75 +572,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.36807930823091</v>
+        <v>-12.58499471645288</v>
       </c>
       <c r="C7" t="n">
-        <v>2.486421322511119e-05</v>
+        <v>0.0220872048797758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.869070527530356</v>
+        <v>526.775570201793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004749365161395641</v>
+        <v>0.1509902800454123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-288.0771461441964</v>
+        <v>6677.332124913897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5403401397215811</v>
+        <v>0.0001176427629152114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2861679910279</v>
+        <v>21.96864618845254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.594566345985691</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7349.176755182738</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.269382947193285e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.77377872594838</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001362602886993124</v>
+        <v>0.01690690718055897</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2078.024104842238</v>
+        <v>1168.687978960083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004393898990417589</v>
+        <v>0.07796139584085951</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.58246691399711</v>
+        <v>77.17169842245752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03593916649253516</v>
+        <v>0.008339729209487622</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.6458938474208</v>
+        <v>196.1419073871103</v>
       </c>
       <c r="C4" t="n">
-        <v>1.009099038160923e-27</v>
+        <v>1.039027783618206e-22</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007807850772322867</v>
+        <v>-0.00783458798208465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5341765405028105</v>
+        <v>0.5680084943369644</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.00588113137924e-05</v>
+        <v>-2.81601510395502e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3282165836818749</v>
+        <v>0.1853799593937912</v>
       </c>
     </row>
     <row r="7">
@@ -751,75 +725,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.3497949348608</v>
+        <v>-14.15491163815705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001377027871117439</v>
+        <v>0.008399398056793886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.378784208602475</v>
+        <v>385.5235852470473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003213119724342439</v>
+        <v>0.2720274074173712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-639.6297211907158</v>
+        <v>8074.002197910115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1885675199664207</v>
+        <v>5.77701419527428e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.0641749233644</v>
+        <v>27.29537424776395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4700226989577957</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8426.230239065084</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.157413251739574e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.3306891420221</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0003015679150095954</v>
+        <v>0.004153308793974927</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2044.295730473664</v>
+        <v>1365.863977128487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004595942077691096</v>
+        <v>0.01837134384145847</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.82558948775436</v>
+        <v>53.49654433554426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07076776142320021</v>
+        <v>0.04254945424665273</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.3871959753373</v>
+        <v>220.5806886793945</v>
       </c>
       <c r="C4" t="n">
-        <v>1.97102635976676e-21</v>
+        <v>1.868256416857233e-28</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01327535518185219</v>
+        <v>0.002914779278102669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2980909667334513</v>
+        <v>0.8179489890479564</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.822407500478765e-05</v>
+        <v>-2.343905926450225e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3927853058674716</v>
+        <v>0.2638087725952035</v>
       </c>
     </row>
     <row r="7">
@@ -930,75 +878,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.76414135032804</v>
+        <v>-10.15370949766773</v>
       </c>
       <c r="C7" t="n">
-        <v>7.825924279333568e-06</v>
+        <v>0.03526511624105533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.790588651208171</v>
+        <v>68.20132706084337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05694509989773969</v>
+        <v>0.8339724889305706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1012.649830508268</v>
+        <v>5964.477491534948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04434221879976016</v>
+        <v>0.0002962690592331395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7298879573958</v>
+        <v>24.21556727413579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1310676887383808</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9113.470800135743</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.004394399302466e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.22153767412348</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000756625192174193</v>
+        <v>0.002434651639204219</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2249.302074982003</v>
+        <v>1196.059791944073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00349868081290243</v>
+        <v>0.05889091482334433</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.10819319639391</v>
+        <v>59.59330553520037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.044749871479599</v>
+        <v>0.1102921624891531</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.1003889266694</v>
+        <v>206.6904553677827</v>
       </c>
       <c r="C4" t="n">
-        <v>3.911902411816285e-26</v>
+        <v>6.385162849783459e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01505729505371414</v>
+        <v>-0.01710333271460635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2728233919032783</v>
+        <v>0.2149211704248436</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.287126238557538e-07</v>
+        <v>7.668810626538098e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.971772840606052</v>
+        <v>0.7619230203284831</v>
       </c>
     </row>
     <row r="7">
@@ -1109,75 +1031,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.27312658839007</v>
+        <v>-19.77722623299874</v>
       </c>
       <c r="C7" t="n">
-        <v>3.086166764450198e-05</v>
+        <v>0.0007537317627535981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.106341738144817</v>
+        <v>542.174031923425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02435596457179242</v>
+        <v>0.1607882485104803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-410.4312615007993</v>
+        <v>7401.463602552147</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3898802159849728</v>
+        <v>3.083265680782031e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.29598241241</v>
+        <v>29.1473301984013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.145440588331494</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7894.213271746576</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.01894178795798e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.17492928803928</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001692137493882246</v>
+        <v>0.0009470468253179844</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2127.794883089387</v>
+        <v>875.3181749779051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002062273212588537</v>
+        <v>0.1450625378376334</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.07059065139137</v>
+        <v>80.09950435779086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2603170150433661</v>
+        <v>0.003031136447318121</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.497941991703</v>
+        <v>193.7190975703913</v>
       </c>
       <c r="C4" t="n">
-        <v>4.481436545639746e-32</v>
+        <v>1.518959258096261e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01511779684442188</v>
+        <v>-0.008346110857353654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1843920545454973</v>
+        <v>0.5011871802072357</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.632837633594651e-05</v>
+        <v>-2.869984421453627e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3615583334311404</v>
+        <v>0.1436517301014112</v>
       </c>
     </row>
     <row r="7">
@@ -1288,75 +1184,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.76041423180335</v>
+        <v>-11.70436054074183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001322454750752502</v>
+        <v>0.02319519231786129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.015688716073469</v>
+        <v>330.3484972528697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1147264313351097</v>
+        <v>0.3267037919538918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.02505841454922</v>
+        <v>8831.108890456057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9318366096056839</v>
+        <v>2.110126988025055e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.6152404110915</v>
+        <v>29.28681597638698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1535765139168311</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5570.674570185707</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.233274834163577e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.24204001146276</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001924017813230293</v>
+        <v>0.0006313873002814547</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1825.404813679603</v>
+        <v>1382.208956237478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01129042284631514</v>
+        <v>0.02794857392287999</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.90530671734678</v>
+        <v>68.73733991193663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01197194396023443</v>
+        <v>0.01477564761008852</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.2785397393055</v>
+        <v>204.215701656472</v>
       </c>
       <c r="C4" t="n">
-        <v>4.056837028825434e-30</v>
+        <v>1.379073293611813e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001981978828296579</v>
+        <v>-0.00292996870549693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8768026594302474</v>
+        <v>0.8236386448340876</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.461421450853683e-06</v>
+        <v>-2.33052810134518e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7154977659060855</v>
+        <v>0.2508725175340661</v>
       </c>
     </row>
     <row r="7">
@@ -1467,75 +1337,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.56222305014919</v>
+        <v>-18.9966306678014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001526084492875189</v>
+        <v>0.0006015965694664161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.402545493210937</v>
+        <v>525.9334791081494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008414901937346746</v>
+        <v>0.1344709007393759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-448.5179288711233</v>
+        <v>7331.997160564817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3135025450007743</v>
+        <v>1.426333939842112e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-100.6078996659987</v>
+        <v>25.66712865776335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7672460729639613</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8477.911419219199</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.634836480303384e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.4651028570016</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0008381638454543714</v>
+        <v>0.006345110157291527</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2182.918663512321</v>
+        <v>1134.257488066678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005585320492501182</v>
+        <v>0.0934116521584477</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.04587231790585</v>
+        <v>54.90455285805575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1303776942135109</v>
+        <v>0.05877579314597237</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.8865873076966</v>
+        <v>212.1008392684071</v>
       </c>
       <c r="C4" t="n">
-        <v>2.520623097352767e-25</v>
+        <v>7.112085818796627e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005644041527767464</v>
+        <v>-0.00547718524815273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6651077545162529</v>
+        <v>0.6803696924873648</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.16352167966533e-05</v>
+        <v>-1.620529638001386e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3142142658964603</v>
+        <v>0.9374255093723626</v>
       </c>
     </row>
     <row r="7">
@@ -1646,75 +1490,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.14691445374307</v>
+        <v>-13.09550936713773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000235126918668122</v>
+        <v>0.01846345051708403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.935408793979999</v>
+        <v>-6.704934604849086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03035295181307609</v>
+        <v>0.9851895962989827</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-453.0682879463193</v>
+        <v>7110.145387185801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3439314120477577</v>
+        <v>8.647569627564351e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>274.6305313292497</v>
+        <v>28.7907285029452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4245928022213752</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7689.994341339468</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.240658804458015e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.21734197449917</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003687253154980074</v>
+        <v>0.002207805738522035</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2496.918536619725</v>
+        <v>983.5040712856708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00166425960266274</v>
+        <v>0.13515091143297</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.35396529314887</v>
+        <v>88.66744931332624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07238852576872556</v>
+        <v>0.009028971272096221</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.8308788289263</v>
+        <v>197.7977158990897</v>
       </c>
       <c r="C4" t="n">
-        <v>4.357855269375121e-24</v>
+        <v>5.953730764146894e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007238603573132471</v>
+        <v>-0.01060266853548326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5790019852433537</v>
+        <v>0.4522938752548568</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.856111975154006e-05</v>
+        <v>-1.620419947568627e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1786170269341486</v>
+        <v>0.9490556307657454</v>
       </c>
     </row>
     <row r="7">
@@ -1825,75 +1643,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.26638595402747</v>
+        <v>-18.746137034694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001066688990514424</v>
+        <v>0.00108429005708639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.409472389670519</v>
+        <v>579.5642980571743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006052403169384746</v>
+        <v>0.109948370921998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-159.5743891192816</v>
+        <v>7835.661124455693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7508137650046802</v>
+        <v>1.940368025815851e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>255.6051118191931</v>
+        <v>30.03074259863742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4624319828197864</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7869.168764914632</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.323185963345312e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.76282986383678</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003891810377271334</v>
+        <v>0.001486796175061483</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.695064210129</v>
+        <v>1184.962389292248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0373538664683014</v>
+        <v>0.06300776235497076</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.94011087773756</v>
+        <v>53.56841470322121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1433497312026235</v>
+        <v>0.06409705792450533</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.3936773919569</v>
+        <v>207.7728772013605</v>
       </c>
       <c r="C4" t="n">
-        <v>9.981968826699182e-22</v>
+        <v>4.619673083128902e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01709554929718589</v>
+        <v>-0.001594508278301952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1882577602778247</v>
+        <v>0.9035202141188978</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.559157461383309e-05</v>
+        <v>-1.297859350554913e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2207717285427054</v>
+        <v>0.5392320007567892</v>
       </c>
     </row>
     <row r="7">
@@ -2004,75 +1796,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.46595663663446</v>
+        <v>-15.46330718737572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002611642118145868</v>
+        <v>0.005973489837590826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.892900502474655</v>
+        <v>200.2502351150253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4807296359512694</v>
+        <v>0.5818392958698193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-55.34976526806031</v>
+        <v>7732.272261408056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9022446581887582</v>
+        <v>8.640466575327988e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.8541060752507</v>
+        <v>27.42355139102792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03823345569336482</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8340.958871872657</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.264966792489981e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.43616199242249</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001883680101091413</v>
+        <v>0.00272564219151505</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1928.176268529798</v>
+        <v>1161.395173923312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006048834217659968</v>
+        <v>0.07387006206373173</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.45731283921953</v>
+        <v>82.92700962900784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05838262902156079</v>
+        <v>0.004719149239405704</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.8132278849213</v>
+        <v>214.6786290825548</v>
       </c>
       <c r="C4" t="n">
-        <v>4.900035094386861e-27</v>
+        <v>4.547793443905131e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01071341858151729</v>
+        <v>-0.001356391694161962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3844321926018619</v>
+        <v>0.9198824393842102</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.197614071680772e-05</v>
+        <v>-7.590258938119942e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5682384539044653</v>
+        <v>0.7130918354851064</v>
       </c>
     </row>
     <row r="7">
@@ -2183,75 +1949,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.47211179219688</v>
+        <v>-16.20898238684874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001458766986443473</v>
+        <v>0.002319853134150801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.472055186696842</v>
+        <v>459.2869787900433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08184418280719519</v>
+        <v>0.1945643252202899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-763.0394000748333</v>
+        <v>6869.353856795378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1029759434363901</v>
+        <v>0.000136173235519617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.0071689241491</v>
+        <v>25.33657948085519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2191923905841335</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8379.049968902516</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.542052937856902e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.07758652317377</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003230797881857901</v>
+        <v>0.007510972263573293</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2669.807950686391</v>
+        <v>1273.882109010137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002397395515231257</v>
+        <v>0.03850045437443265</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.55485669041364</v>
+        <v>70.8160152474747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06297110243941301</v>
+        <v>0.01536090822378498</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.9296173315926</v>
+        <v>206.8036806004145</v>
       </c>
       <c r="C4" t="n">
-        <v>1.723363398491808e-35</v>
+        <v>5.113498019497688e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007171907673711522</v>
+        <v>-0.003253446618190353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5503110642248502</v>
+        <v>0.7957774902934013</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.833198018366935e-07</v>
+        <v>-2.938995611779088e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9802336070882847</v>
+        <v>0.1598295853233187</v>
       </c>
     </row>
     <row r="7">
@@ -2362,75 +2102,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.04077442226919</v>
+        <v>-13.37218914366098</v>
       </c>
       <c r="C7" t="n">
-        <v>1.593137421088459e-05</v>
+        <v>0.009558939904723847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.082417500812568</v>
+        <v>15.09464759020693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00121221011870663</v>
+        <v>0.9636889467835068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-743.8076322917912</v>
+        <v>8130.611393154913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1072072449019154</v>
+        <v>2.556893043110052e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-98.20395069483948</v>
+        <v>24.82990970167164</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7581034207452249</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6550.031926316513</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.491486895135485e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.7634396451013</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0003234032845554927</v>
+        <v>0.002892158136930675</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2327.46318269974</v>
+        <v>1395.243281169322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001106425813772799</v>
+        <v>0.03421513760124869</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.83792416840383</v>
+        <v>66.85475294467039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02434673564792727</v>
+        <v>0.02466898747553286</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.3996218768918</v>
+        <v>206.57741646163</v>
       </c>
       <c r="C4" t="n">
-        <v>8.322788976208186e-29</v>
+        <v>1.524799276636719e-23</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009840155427865822</v>
+        <v>-0.002198020867768331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4187274980403904</v>
+        <v>0.8680122517913289</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.625718165499404e-06</v>
+        <v>-2.25372066335547e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6255031719723854</v>
+        <v>0.2874509204771892</v>
       </c>
     </row>
     <row r="7">
@@ -2541,75 +2255,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.98136676227935</v>
+        <v>-16.2707549649378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001749178549484494</v>
+        <v>0.002866805172795711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.332956843929374</v>
+        <v>298.0982625029509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003631596289265158</v>
+        <v>0.4077733309290156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-654.1764600286924</v>
+        <v>6823.441348646964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147620185191421</v>
+        <v>0.0001898108078150002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.1981338443052</v>
+        <v>26.38989770481321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5925641361659018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7166.608223155238</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.21089421694447e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.1602958399222</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000628941357343778</v>
+        <v>0.003509340935034707</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1953.464655101325</v>
+        <v>1388.572711707153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006488670449530239</v>
+        <v>0.01131118471414233</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.26061812025414</v>
+        <v>34.94853356535967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01790146930282208</v>
+        <v>0.1583202865997929</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.8941650846817</v>
+        <v>206.9563038585239</v>
       </c>
       <c r="C4" t="n">
-        <v>1.107500657630981e-27</v>
+        <v>6.074240461676092e-30</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005218917940331285</v>
+        <v>-0.01372104218165408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6884455410235093</v>
+        <v>0.2492569390024171</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.944744885285093e-07</v>
+        <v>-1.700506535143351e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9769760117143267</v>
+        <v>0.3617880694267539</v>
       </c>
     </row>
     <row r="7">
@@ -2720,75 +2408,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.07814625451001</v>
+        <v>-9.243423199235586</v>
       </c>
       <c r="C7" t="n">
-        <v>6.53410167324199e-05</v>
+        <v>0.06078739071456517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.906012100949248</v>
+        <v>146.5526773028382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05153326957212778</v>
+        <v>0.6653909086070555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-578.6485924007779</v>
+        <v>5971.423075845732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1970768258530708</v>
+        <v>9.013727992736014e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.6324328947301</v>
+        <v>28.68539527235567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338470797533868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6675.240193354127</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.002860982978349e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.61741656006879</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005150882148909702</v>
+        <v>0.0002373971600157456</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1149.620829163978</v>
+        <v>916.7261854780304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1278504320511074</v>
+        <v>0.1801788755431164</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.28335380573712</v>
+        <v>58.70303589631929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01631070371546774</v>
+        <v>0.04143669896330126</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.8710829810231</v>
+        <v>209.9406325087159</v>
       </c>
       <c r="C4" t="n">
-        <v>3.743754001216263e-25</v>
+        <v>7.50213488544504e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009786223788250732</v>
+        <v>-0.004220880923213485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.422067224942959</v>
+        <v>0.7423644207288382</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.131310216231468e-05</v>
+        <v>-1.670389437120491e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128345292692976</v>
+        <v>0.4210586139375728</v>
       </c>
     </row>
     <row r="7">
@@ -2899,75 +2561,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.39948578278279</v>
+        <v>-9.972385071584055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01532553676969867</v>
+        <v>0.06186217379804359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6682194886513635</v>
+        <v>81.05298457540061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8027817964470911</v>
+        <v>0.8209093556094738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-22.56029342408351</v>
+        <v>7598.299284732687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9599220026931747</v>
+        <v>8.092827574391507e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.5626854389238</v>
+        <v>29.78291839529742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1041441909265231</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7880.465107413501</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.683729208928202e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.23565668376905</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0007589702685307531</v>
+        <v>0.001564631710838387</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1658.20334037005</v>
+        <v>1472.374469457608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0208761817885709</v>
+        <v>0.01583110707291921</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.73844922333621</v>
+        <v>69.54834713202484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09751360264456942</v>
+        <v>0.02431589384341215</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.2794260691346</v>
+        <v>221.6577446291717</v>
       </c>
       <c r="C4" t="n">
-        <v>6.493158060094452e-27</v>
+        <v>1.011304631826649e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01281308872668423</v>
+        <v>0.001461345230688707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3052287145200414</v>
+        <v>0.9076244373661992</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.646714371932966e-07</v>
+        <v>-6.929924352705327e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.977723227923601</v>
+        <v>0.7251753927577329</v>
       </c>
     </row>
     <row r="7">
@@ -3078,75 +2714,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.47110815380724</v>
+        <v>-12.43035853554702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009056640161930701</v>
+        <v>0.01612997330779011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.642964404563543</v>
+        <v>-189.7401775632259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02593639605135583</v>
+        <v>0.5967781878308531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-578.1633085705907</v>
+        <v>5007.735020519204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2636388954138361</v>
+        <v>0.002675150075934342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.5449596743719</v>
+        <v>28.13159633988143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4762236275319209</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8453.014209584908</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.309461698335197e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.12484130341949</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000527045672267292</v>
+        <v>0.00148529865539429</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2396.174677510475</v>
+        <v>1438.56621302853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005650719270180575</v>
+        <v>0.02206584151909926</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.75652691028118</v>
+        <v>79.16002709428079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08750521891549923</v>
+        <v>0.008600472882041308</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2270223911143</v>
+        <v>198.5157189882426</v>
       </c>
       <c r="C4" t="n">
-        <v>1.182777320444171e-28</v>
+        <v>8.223195345059112e-23</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005464045720224034</v>
+        <v>-0.00539268465455333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6623347888186074</v>
+        <v>0.6833413054199444</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.334315596264242e-05</v>
+        <v>-2.18865026594572e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5027458356245749</v>
+        <v>0.28683518715596</v>
       </c>
     </row>
     <row r="7">
@@ -3257,75 +2867,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.89735470837107</v>
+        <v>-17.0336386186412</v>
       </c>
       <c r="C7" t="n">
-        <v>4.434486582664925e-05</v>
+        <v>0.001850267043939195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.004463677120008</v>
+        <v>396.4408322382053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01530004615638334</v>
+        <v>0.252181213183757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-720.9266184665132</v>
+        <v>6987.833863027201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1113955853612299</v>
+        <v>6.165014865096389e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-68.32197372328869</v>
+        <v>25.64781213501265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8429813612243412</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7395.063115947662</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.686087611881295e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.96081665538726</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000683750684865525</v>
+        <v>0.003045962463121347</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2590.817472121276</v>
+        <v>870.0602693355071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001239687031110657</v>
+        <v>0.1374298847329959</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.17593051438448</v>
+        <v>75.85784280450753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.141172323086937</v>
+        <v>0.007343440001495127</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.325567066149</v>
+        <v>212.4288749515504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.82571190910423e-24</v>
+        <v>4.621123801686867e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01779176538985507</v>
+        <v>-0.005228900156022252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1753627941881176</v>
+        <v>0.6820292538375913</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.945456041076671e-06</v>
+        <v>-1.045738229583081e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8745792508575483</v>
+        <v>0.6061215553621071</v>
       </c>
     </row>
     <row r="7">
@@ -3436,75 +3020,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.81943658544569</v>
+        <v>-17.66881583063189</v>
       </c>
       <c r="C7" t="n">
-        <v>1.377758063236565e-05</v>
+        <v>0.001198724413827099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.39889864558964</v>
+        <v>451.4351553397044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009289922710520511</v>
+        <v>0.187708911592752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-398.8468375420257</v>
+        <v>8598.499745194371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3910956387507881</v>
+        <v>1.676252689577905e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.765503521463</v>
+        <v>29.17836038440995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181232236261925</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8408.836646522959</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.797754403540256e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.12306742254957</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002825717828136815</v>
+        <v>0.000559052053990506</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2710.344970135629</v>
+        <v>1185.458068064358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002182798226511036</v>
+        <v>0.05497363770826964</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.1249817661284</v>
+        <v>47.54194256819211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08865258887339658</v>
+        <v>0.07609943663727706</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.660231829067</v>
+        <v>192.2683021018263</v>
       </c>
       <c r="C4" t="n">
-        <v>2.94031180716048e-30</v>
+        <v>1.01311225964155e-23</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001552208913127819</v>
+        <v>-0.01555746507743966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9049558444534913</v>
+        <v>0.2721411235678833</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.307625240079986e-05</v>
+        <v>-1.376229901542643e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2737486859906225</v>
+        <v>0.6078948128023436</v>
       </c>
     </row>
     <row r="7">
@@ -3615,75 +3173,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.76704276443748</v>
+        <v>-15.46018674000067</v>
       </c>
       <c r="C7" t="n">
-        <v>7.552672086324091e-06</v>
+        <v>0.00375223489884714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.633959126426699</v>
+        <v>590.872151301287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002612743071988959</v>
+        <v>0.09141283370541733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-424.5234089449112</v>
+        <v>8547.973661994545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3610586685462199</v>
+        <v>4.606192801868376e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4755554737678</v>
+        <v>25.30397344420722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1385710628560236</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5985.584175481396</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001138842863800894</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.99395929204108</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006203900550447244</v>
+        <v>0.004106501858842056</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.818851256317</v>
+        <v>1421.864081487914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005924834215914797</v>
+        <v>0.03240207186456574</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.55406713774843</v>
+        <v>72.08504650122522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2240687102773613</v>
+        <v>0.0196221886911967</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.8358027405561</v>
+        <v>193.8940321512073</v>
       </c>
       <c r="C4" t="n">
-        <v>1.737076554811148e-24</v>
+        <v>5.509517827158773e-21</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01187593745249924</v>
+        <v>0.001853955539606801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3629250176035275</v>
+        <v>0.8935796163427063</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.83971353349128e-05</v>
+        <v>-3.583336433559298e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4035557976141944</v>
+        <v>0.09364542076380926</v>
       </c>
     </row>
     <row r="7">
@@ -3794,75 +3326,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.40495169315191</v>
+        <v>-17.69854148850571</v>
       </c>
       <c r="C7" t="n">
-        <v>3.729849705838965e-05</v>
+        <v>0.001234043703638324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.095224158179331</v>
+        <v>351.3773645442998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2130783391316538</v>
+        <v>0.320061755428906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-808.0938719011865</v>
+        <v>7351.845710335883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09919644237651348</v>
+        <v>4.756163159335926e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>450.2616269589878</v>
+        <v>26.95148514783785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1875526986765686</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7748.550168680575</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.23956707903453e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.48983034641051</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00244026556059241</v>
+        <v>0.005368611713146164</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2294.871814274674</v>
+        <v>1000.036158099016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006866789260047073</v>
+        <v>0.1216114892906157</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.19784787683746</v>
+        <v>73.63543756939212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01617826196235884</v>
+        <v>0.0159057942486343</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.7938275238417</v>
+        <v>216.2791158350513</v>
       </c>
       <c r="C4" t="n">
-        <v>3.143535959594892e-32</v>
+        <v>1.773650391074348e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007490891836133565</v>
+        <v>-0.01248878719971062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.512705610435479</v>
+        <v>0.4092189649730957</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.193142590306199e-06</v>
+        <v>1.705977953286858e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8434681703744944</v>
+        <v>0.5700987229620602</v>
       </c>
     </row>
     <row r="7">
@@ -3973,75 +3479,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.45638621840427</v>
+        <v>-16.81205950712092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001293582187028606</v>
+        <v>0.004480150502355675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.840447442508601</v>
+        <v>423.7415705722365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1358143301673317</v>
+        <v>0.272820598434783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-718.7778668591936</v>
+        <v>7912.562977674432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08133733550218269</v>
+        <v>8.112011146811962e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-43.72889554068433</v>
+        <v>25.49342594572457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.888377421737615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5057.920720025967</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002946755750370561</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.64249956739899</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0008510343912010571</v>
+        <v>0.005067740629759871</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.510869104789</v>
+        <v>1556.633852538256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06704812944446725</v>
+        <v>0.01377400683232091</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.84239748170852</v>
+        <v>68.56982107258611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04296249538361573</v>
+        <v>0.02302535028020745</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.173504945183</v>
+        <v>222.8504277929649</v>
       </c>
       <c r="C4" t="n">
-        <v>3.645115025770943e-26</v>
+        <v>3.834094619215796e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01063059449150374</v>
+        <v>-0.007661192003039947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41183935504422</v>
+        <v>0.5492844282792262</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.655145859385949e-05</v>
+        <v>5.368189761131633e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4192586332790418</v>
+        <v>0.7835559181573596</v>
       </c>
     </row>
     <row r="7">
@@ -4152,75 +3632,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.40558485899525</v>
+        <v>-15.88939877119667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003393124418753738</v>
+        <v>0.002496320380227909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.359923917332704</v>
+        <v>309.2229487796726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01228822698975812</v>
+        <v>0.3587759117531322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-73.53619835403697</v>
+        <v>5656.925981416554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8724778244023556</v>
+        <v>0.0009525207490784706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>505.7633329267655</v>
+        <v>21.72586224386669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1131437264233694</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10414.93989258357</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.319255833315621e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>30.81274943956124</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001604565661657674</v>
+        <v>0.009627648132953737</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2447.369989225352</v>
+        <v>828.2586194645985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001737055039032479</v>
+        <v>0.160196658407087</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.01452299054566</v>
+        <v>65.81235911452059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1323015488002173</v>
+        <v>0.01163527188209369</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.0401438136472</v>
+        <v>206.9543760110546</v>
       </c>
       <c r="C4" t="n">
-        <v>6.657591472069244e-26</v>
+        <v>1.407282777288386e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01092672601442024</v>
+        <v>-0.007376683576429786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4127776324283008</v>
+        <v>0.5407788771560749</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.580963133415817e-06</v>
+        <v>-2.254729978098453e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9436089761973852</v>
+        <v>0.2507360479960157</v>
       </c>
     </row>
     <row r="7">
@@ -4331,75 +3785,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.6440293524171</v>
+        <v>-10.34082588776252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002507565581741337</v>
+        <v>0.03755105287602209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.331033622985359</v>
+        <v>109.9251090091713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01549759949990571</v>
+        <v>0.7438514123617572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-732.8087214677362</v>
+        <v>8517.526225683345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182809807470448</v>
+        <v>3.106900802980872e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>283.2983185283369</v>
+        <v>30.29149387612209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4137661330795306</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6811.313370776402</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.573880123458897e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.20869605969088</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006360848760554558</v>
+        <v>0.0003882234540559555</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2435.202201676998</v>
+        <v>565.6816710735525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001650574223710071</v>
+        <v>0.3509071308165406</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.83715512738817</v>
+        <v>101.1349326313833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1865544856426217</v>
+        <v>0.001010620692538622</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.5194702767341</v>
+        <v>209.8000450212207</v>
       </c>
       <c r="C4" t="n">
-        <v>1.372716361959256e-22</v>
+        <v>2.673358411013486e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01459969053019467</v>
+        <v>-0.01202994791441017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2473720335210311</v>
+        <v>0.3585730198727379</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.699080352599252e-05</v>
+        <v>5.895137117386466e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4026315831380824</v>
+        <v>0.7966977891803141</v>
       </c>
     </row>
     <row r="7">
@@ -4510,75 +3938,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.33682116263126</v>
+        <v>-14.74183991041378</v>
       </c>
       <c r="C7" t="n">
-        <v>1.939949208877335e-05</v>
+        <v>0.004752909845233447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.57494278304646</v>
+        <v>449.4109173915294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03430260062240117</v>
+        <v>0.2205164833464624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-557.0416412872826</v>
+        <v>8731.23795089277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2247992399669223</v>
+        <v>1.923718740536447e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.8227088674257</v>
+        <v>30.94479973927405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2958544240308995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8100.655029579537</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.003506442672537e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.01034730686825</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003607357687732833</v>
+        <v>0.0005312313022482366</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2239.849923606322</v>
+        <v>1183.241073512808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001840269949161628</v>
+        <v>0.04177760995687296</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.65203231633362</v>
+        <v>50.39703466291222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03981035296001739</v>
+        <v>0.06407304964862059</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.6042429650463</v>
+        <v>194.2669504334386</v>
       </c>
       <c r="C4" t="n">
-        <v>3.978076436019524e-27</v>
+        <v>3.779265801872176e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008929384429385245</v>
+        <v>-0.004197040875144499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4767507119427375</v>
+        <v>0.728565113250669</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.650826820521396e-05</v>
+        <v>-2.17770876618546e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1913749629412203</v>
+        <v>0.2490501624894491</v>
       </c>
     </row>
     <row r="7">
@@ -4689,75 +4091,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.1063605021355</v>
+        <v>-14.09123998111407</v>
       </c>
       <c r="C7" t="n">
-        <v>1.471531448119162e-05</v>
+        <v>0.007932057894248392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.015282998257147</v>
+        <v>209.9844046070659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005246528760242668</v>
+        <v>0.5374518868118703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18.35767221352216</v>
+        <v>6740.89022735801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9674888895512901</v>
+        <v>4.552634056465588e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.8402620973991</v>
+        <v>33.281008483665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1721484348042399</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7973.577416546073</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.12475445502792e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.30999988176366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004705040576879696</v>
+        <v>9.096180381141741e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.152713343328</v>
+        <v>1001.469021254721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001684595173700764</v>
+        <v>0.1194648235796751</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.80311367230063</v>
+        <v>57.73863304528606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03075920330247613</v>
+        <v>0.04762452433164936</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.8056748438586</v>
+        <v>207.9018817112005</v>
       </c>
       <c r="C4" t="n">
-        <v>1.745944909975853e-27</v>
+        <v>5.000602027393095e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00503738571662158</v>
+        <v>-0.002446160729665421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6964549245514586</v>
+        <v>0.8600550588147933</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.893260941568363e-05</v>
+        <v>-1.762987837640209e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3569100907343367</v>
+        <v>0.4263900652683089</v>
       </c>
     </row>
     <row r="7">
@@ -4868,75 +4244,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.27497439464289</v>
+        <v>-13.54700035692517</v>
       </c>
       <c r="C7" t="n">
-        <v>6.412079432233358e-05</v>
+        <v>0.01410582890467503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.828400024169529</v>
+        <v>150.7750236483227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007957701079240867</v>
+        <v>0.6646115474955214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-181.9018172623604</v>
+        <v>7731.189805059885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6920185771773548</v>
+        <v>7.950382338993721e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.2194304947366</v>
+        <v>30.609784333784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2106731647451759</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7329.654841462957</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.872261240866028e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.80642843902169</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004574300325150629</v>
+        <v>0.0009355284108404281</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2470.576668487904</v>
+        <v>1081.533074500049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003412328247968706</v>
+        <v>0.08051395829755835</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.84337610989267</v>
+        <v>61.66305628971531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4349807818734051</v>
+        <v>0.02186582697789344</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.8258397534915</v>
+        <v>201.6355850234683</v>
       </c>
       <c r="C4" t="n">
-        <v>7.762223417082588e-27</v>
+        <v>3.349662911319436e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01370881823076765</v>
+        <v>-0.01268109497699296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2554071817412927</v>
+        <v>0.3158516078319665</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.755469610089982e-05</v>
+        <v>-1.625726100533108e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368961941670132</v>
+        <v>0.4723607267011193</v>
       </c>
     </row>
     <row r="7">
@@ -5047,75 +4397,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.10357521559315</v>
+        <v>-12.19643329288116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001787812551123757</v>
+        <v>0.01722067929824208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.529145799287832</v>
+        <v>434.0851567323532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005390656183443363</v>
+        <v>0.2207278574048183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-281.3025228659276</v>
+        <v>7459.661882890302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5250616568541873</v>
+        <v>4.867837802912503e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.9634943739693</v>
+        <v>28.82713543308188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4751438524840512</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7917.342470019434</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.642167995340021e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.61847201061018</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004265436845633748</v>
+        <v>0.0009786814006137699</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2166.050226717222</v>
+        <v>1528.794145636781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007454413439655347</v>
+        <v>0.0115958522607733</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.51654758639157</v>
+        <v>64.63616023335214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09499923136613339</v>
+        <v>0.02718589262173272</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.7638530557992</v>
+        <v>218.8987243125129</v>
       </c>
       <c r="C4" t="n">
-        <v>1.741779726665129e-26</v>
+        <v>6.977137426707363e-30</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02142246365072936</v>
+        <v>0.0002222850747158195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1430831112694696</v>
+        <v>0.9849711863106843</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.626691704656409e-05</v>
+        <v>-6.307177601409103e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5613080413821702</v>
+        <v>0.7394081589321553</v>
       </c>
     </row>
     <row r="7">
@@ -5226,75 +4550,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.15154027866859</v>
+        <v>-14.41237762510518</v>
       </c>
       <c r="C7" t="n">
-        <v>2.998181963354693e-05</v>
+        <v>0.00487755409221768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.102867983922547</v>
+        <v>-11.94576420828275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01856186330747908</v>
+        <v>0.9719459296651969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-882.4534495117723</v>
+        <v>5669.369258090537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1088912123657191</v>
+        <v>0.0008691286432167287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.9240670764261</v>
+        <v>24.52461918836264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1146330042258895</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8048.117839773729</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.388725903812603e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.28459467624997</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006622918858135297</v>
+        <v>0.003204491923213586</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.2035939615525</v>
+        <v>1618.500183729211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1981581121068355</v>
+        <v>0.01087361474139418</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.83732023416616</v>
+        <v>46.16210177094652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009814680259729999</v>
+        <v>0.1186863893052416</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.4409284535254</v>
+        <v>200.5102019840938</v>
       </c>
       <c r="C4" t="n">
-        <v>2.442807618892581e-24</v>
+        <v>1.541830534715212e-21</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008800262344683424</v>
+        <v>-0.002624813498453678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4887151811955243</v>
+        <v>0.8536644299456447</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.132927421881204e-05</v>
+        <v>-2.268127410751774e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144016310362212</v>
+        <v>0.3048436039076248</v>
       </c>
     </row>
     <row r="7">
@@ -5405,75 +4703,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.42687680583179</v>
+        <v>-18.81974803564571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02233950442890474</v>
+        <v>0.001187756474087976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.259492365252548</v>
+        <v>480.4465319342293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9389517428799072</v>
+        <v>0.1858441122657293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.20208157688592</v>
+        <v>6340.125407947046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.971161203297728</v>
+        <v>0.0004083039796772666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>492.5126486108484</v>
+        <v>25.86711753492859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1354909987451232</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7075.921833877999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.340675271554713e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.89018481599252</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000282882812606249</v>
+        <v>0.00467427831125877</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2123.65448567028</v>
+        <v>728.4653165939853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002586646946945753</v>
+        <v>0.2343792769465277</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.81637969106603</v>
+        <v>106.497165690397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05074236440639256</v>
+        <v>0.0004864580372774392</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.363395681022</v>
+        <v>200.7712949341282</v>
       </c>
       <c r="C4" t="n">
-        <v>4.290200081423091e-30</v>
+        <v>6.483375071936258e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004764174026957377</v>
+        <v>-0.01034460544191206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6847401811550368</v>
+        <v>0.4154785514486261</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.822444592191812e-06</v>
+        <v>-1.575169379330601e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8805522535907053</v>
+        <v>0.4474168417481913</v>
       </c>
     </row>
     <row r="7">
@@ -5584,75 +4856,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.81494193024731</v>
+        <v>-14.62398367724728</v>
       </c>
       <c r="C7" t="n">
-        <v>2.316370210743751e-05</v>
+        <v>0.006330778010957082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.127863576363792</v>
+        <v>364.7077776819826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09619673590339078</v>
+        <v>0.290278441913896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-983.8926974013093</v>
+        <v>9498.82002923455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02886108850079215</v>
+        <v>1.24094120731141e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-51.00377885095349</v>
+        <v>28.02811894776778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8727912930144841</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7872.931647297729</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.344930471127941e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.32915804841156</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002152620381795805</v>
+        <v>0.001360820424291385</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2054.435745238503</v>
+        <v>1022.651087178061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009636156889007465</v>
+        <v>0.08566911705671579</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.81938452259055</v>
+        <v>60.43013553537865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03344552603882171</v>
+        <v>0.03034595758251031</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.9123027513108</v>
+        <v>214.5787653651693</v>
       </c>
       <c r="C4" t="n">
-        <v>1.708993011931774e-23</v>
+        <v>1.192377867766095e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00761429199296821</v>
+        <v>-0.005158561501455293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5681661213514505</v>
+        <v>0.6886684606454629</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.284804983859043e-05</v>
+        <v>-2.022942978990098e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2987679558453022</v>
+        <v>0.342099174014839</v>
       </c>
     </row>
     <row r="7">
@@ -5763,75 +5009,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.18564320586545</v>
+        <v>-11.53078104659763</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69416663898909e-05</v>
+        <v>0.02732166819400278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.619908167111149</v>
+        <v>81.10057769210675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03538907983048059</v>
+        <v>0.8180787898413702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-501.6446194472658</v>
+        <v>7763.31134177734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292831748938196</v>
+        <v>3.404785265899122e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.8363774519983</v>
+        <v>28.78407566461298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2579184696183255</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7949.511343789982</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.49086828816553e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.28975226481228</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004559580510440437</v>
+        <v>0.001006644632823855</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2537.550039487696</v>
+        <v>1529.221609430929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001160273461322391</v>
+        <v>0.0146833802437894</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.06188150037407</v>
+        <v>45.77363179639479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02590110490651614</v>
+        <v>0.09216507112764886</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.7134768026613</v>
+        <v>197.1340430837724</v>
       </c>
       <c r="C4" t="n">
-        <v>9.004965719446029e-28</v>
+        <v>6.751684504319523e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008417151056239117</v>
+        <v>-0.002320175501771726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5314698007182775</v>
+        <v>0.8492695728418206</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.274014699076724e-05</v>
+        <v>-1.88438711522859e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5776074699327574</v>
+        <v>0.3314373758966935</v>
       </c>
     </row>
     <row r="7">
@@ -5942,75 +5162,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.2762702264527</v>
+        <v>-13.52465803532185</v>
       </c>
       <c r="C7" t="n">
-        <v>4.799307961356862e-05</v>
+        <v>0.009068948618789379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.293339923714811</v>
+        <v>48.19660836106712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05339355205789539</v>
+        <v>0.8897915090191598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-577.4732272996525</v>
+        <v>5722.283751631245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2078675640722863</v>
+        <v>0.0009786463822402326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.5503311549985</v>
+        <v>29.80068659596241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3706989834729602</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6701.626170662454</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.250815930172704e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.20591459714359</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.005636241223047239</v>
+        <v>0.0004529292610331288</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2178.985729382327</v>
+        <v>1332.345401843748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002015418233061689</v>
+        <v>0.04157898477858447</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.49900333033856</v>
+        <v>84.77449216932534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04026006421790591</v>
+        <v>0.004289529601883551</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.725809006462</v>
+        <v>204.5918822679194</v>
       </c>
       <c r="C4" t="n">
-        <v>7.669556327739265e-31</v>
+        <v>3.525601807667864e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007956605074056794</v>
+        <v>-0.01074435633568771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5118674483765767</v>
+        <v>0.4599957652921163</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.145529709114119e-05</v>
+        <v>-1.082429382651031e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5501036337272143</v>
+        <v>0.9670825794399661</v>
       </c>
     </row>
     <row r="7">
@@ -6121,75 +5315,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.08504104683238</v>
+        <v>-21.97394820257855</v>
       </c>
       <c r="C7" t="n">
-        <v>5.576501645702959e-05</v>
+        <v>6.109768955345076e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.712148643285669</v>
+        <v>641.5024945736077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005963775260904546</v>
+        <v>0.07158707823409413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-495.2801500021239</v>
+        <v>6748.441957725261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2687484366838201</v>
+        <v>0.000138570040717522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.3033946570404</v>
+        <v>28.23230549439467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2978891124060526</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8252.447456488797</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.884362202196205e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.66372245617413</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006913378351714979</v>
+        <v>0.002156337034617683</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2152.257224670005</v>
+        <v>953.2656129685606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002917131547471997</v>
+        <v>0.09687123883042546</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.75570049139517</v>
+        <v>62.2985889420599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06796025798773715</v>
+        <v>0.04964177637913898</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.2478556613427</v>
+        <v>205.4625184033789</v>
       </c>
       <c r="C4" t="n">
-        <v>1.019357656024596e-28</v>
+        <v>2.525485253031734e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002630793863090081</v>
+        <v>-0.009036414006514438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.833788601350592</v>
+        <v>0.4776325671876823</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.694720983959767e-05</v>
+        <v>-1.456476264344799e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3883556860594743</v>
+        <v>0.4518186366076266</v>
       </c>
     </row>
     <row r="7">
@@ -6300,75 +5468,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.08204756164197</v>
+        <v>-12.34907926952052</v>
       </c>
       <c r="C7" t="n">
-        <v>9.350637779680322e-05</v>
+        <v>0.0187690776320585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.575812009351992</v>
+        <v>193.5723467632843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002214845132375149</v>
+        <v>0.5689392964369953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-115.2215073125188</v>
+        <v>9163.153276319237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8062593825422438</v>
+        <v>3.590449325169197e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.15131374463863</v>
+        <v>24.77838404403126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8168846793628387</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7512.26173575585</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.832985422765653e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>30.53638141204414</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001544530676367571</v>
+        <v>0.00235366607067946</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.632874560141</v>
+        <v>1283.522105092336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01097636116645205</v>
+        <v>0.04068242633152628</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.08406083424369</v>
+        <v>43.20518077907326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009461552326428471</v>
+        <v>0.1352059522170578</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9131912665148</v>
+        <v>220.085532315194</v>
       </c>
       <c r="C4" t="n">
-        <v>1.409398248488447e-28</v>
+        <v>9.380244359198958e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009404878959373388</v>
+        <v>-0.002942052584534331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5059826824061245</v>
+        <v>0.8145738151474401</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.887904505318048e-07</v>
+        <v>-8.106271934500627e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.988642291360718</v>
+        <v>0.6943356457265895</v>
       </c>
     </row>
     <row r="7">
@@ -6479,75 +5621,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.69746412726727</v>
+        <v>-16.72009381115815</v>
       </c>
       <c r="C7" t="n">
-        <v>9.210410314421365e-05</v>
+        <v>0.003233874066639696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.865813384450014</v>
+        <v>122.3612929237592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04896001098056314</v>
+        <v>0.7114735312979666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-438.553055115407</v>
+        <v>6796.944664497597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3427902268820288</v>
+        <v>7.459903682985253e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.7633177325226</v>
+        <v>28.58365562187588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2269838912102923</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8055.347545971776</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.618520031015494e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.4401609414573</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002224588907884331</v>
+        <v>0.001132491554853811</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1339.333361784991</v>
+        <v>1161.632545601166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05860061236888126</v>
+        <v>0.08676783758954099</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.50073090561526</v>
+        <v>64.52937992209544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.462351018271154</v>
+        <v>0.02767197011098941</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.7468821793024</v>
+        <v>209.6174249141012</v>
       </c>
       <c r="C4" t="n">
-        <v>1.470289311273311e-22</v>
+        <v>7.903181549651804e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0203854183841523</v>
+        <v>-0.006356691571023691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100730287415854</v>
+        <v>0.6327477459635269</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.286710824751272e-05</v>
+        <v>-1.301226648671399e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5930994540884704</v>
+        <v>0.5354747274913634</v>
       </c>
     </row>
     <row r="7">
@@ -6658,75 +5774,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.72439863841016</v>
+        <v>-13.84931369315717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02124791826701047</v>
+        <v>0.01452456307539664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2078917699215914</v>
+        <v>486.9231157331672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9378857999765802</v>
+        <v>0.1748413787632286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-467.7054844461286</v>
+        <v>7236.858111276217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.342730214542984</v>
+        <v>5.426630144820759e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>575.447311497863</v>
+        <v>25.53601095859197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06668525804660634</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7732.072686993615</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.272940199312337e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.50457095599592</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002242155009617735</v>
+        <v>0.008328565177089343</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.347235424522</v>
+        <v>1170.680948384978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03220988351339048</v>
+        <v>0.05809055139746445</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.82273383665621</v>
+        <v>65.61620411074864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08616483524619545</v>
+        <v>0.01751606082364084</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0599854045355</v>
+        <v>207.4205698809192</v>
       </c>
       <c r="C4" t="n">
-        <v>1.240499174161853e-27</v>
+        <v>3.758522514082698e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01780683387710632</v>
+        <v>-0.002106875691397933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1522896693748151</v>
+        <v>0.8750358717313891</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.404015362025762e-06</v>
+        <v>-9.13035549730974e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8863462882723547</v>
+        <v>0.7039612742394967</v>
       </c>
     </row>
     <row r="7">
@@ -6837,75 +5927,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.22230555469682</v>
+        <v>-15.62975952993151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008990302833920287</v>
+        <v>0.003463700021214924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.915965894301895</v>
+        <v>197.4987187811714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2845387387630359</v>
+        <v>0.5785253286151183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-568.8159838766016</v>
+        <v>7341.683690205204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2503927383438411</v>
+        <v>3.039994358105722e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.0172137767647</v>
+        <v>27.76066810198299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7117485010270495</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7600.418845551289</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.459448726963869e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.03165361619854</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005610579815943609</v>
+        <v>0.001616580417748171</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2407.506694116454</v>
+        <v>1355.820318737558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001661161956832664</v>
+        <v>0.03355609279677607</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.50349146439521</v>
+        <v>48.41400149044406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1747880438092425</v>
+        <v>0.1174818239595963</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.5934293034569</v>
+        <v>182.102977737823</v>
       </c>
       <c r="C4" t="n">
-        <v>2.784491104906836e-27</v>
+        <v>1.213000365965756e-20</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00735732845207708</v>
+        <v>-0.01313175618869168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5807407329216783</v>
+        <v>0.3005144020708864</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.484498342959759e-06</v>
+        <v>-3.561445953492181e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6533236674643581</v>
+        <v>0.073222045208583</v>
       </c>
     </row>
     <row r="7">
@@ -7016,75 +6080,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.77931530511025</v>
+        <v>-13.48652744985004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001037211063015253</v>
+        <v>0.01203915097512615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.114286054825257</v>
+        <v>608.7440827331823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05769664987409658</v>
+        <v>0.09037022944372113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-376.0116644010122</v>
+        <v>7362.191091422457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4211907379569092</v>
+        <v>2.143070063841112e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.6149904981598</v>
+        <v>28.97205530022767</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3761244418741816</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6391.362512438394</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001330639981117009</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.80834559824419</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.007211350081324216</v>
+        <v>0.001084019254181263</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2591.8782949533</v>
+        <v>1165.379523133226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007789270386180191</v>
+        <v>0.04450917199486033</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.24245338722071</v>
+        <v>72.41617357891647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05785938434319456</v>
+        <v>0.01458412815538309</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.3878938367922</v>
+        <v>222.6658536677602</v>
       </c>
       <c r="C4" t="n">
-        <v>3.267016789884073e-28</v>
+        <v>1.034329644835963e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001177658729082764</v>
+        <v>0.006321230049466112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9274421979797887</v>
+        <v>0.6196629988474415</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.456885634410056e-05</v>
+        <v>-1.155563639231723e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2376919653347624</v>
+        <v>0.5734968896025439</v>
       </c>
     </row>
     <row r="7">
@@ -7195,75 +6233,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.69644493863846</v>
+        <v>-14.35438376943056</v>
       </c>
       <c r="C7" t="n">
-        <v>2.267953754122857e-06</v>
+        <v>0.004134439836586851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.947926152393393</v>
+        <v>-85.00888102669416</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007632731330098993</v>
+        <v>0.7958984756377462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-338.62499347223</v>
+        <v>6917.011388807408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4495470327416221</v>
+        <v>1.91408394408404e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.5034033140291</v>
+        <v>26.57242199668531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2150148034584376</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6980.793949178522</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.240799347445682e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.01540954113585</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001398100835427413</v>
+        <v>0.001156116225408127</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2186.342833356164</v>
+        <v>925.3637678724656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002694155808182204</v>
+        <v>0.1392031369842749</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.10513390526063</v>
+        <v>64.19813724538017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04650533189875763</v>
+        <v>0.02416396973905215</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.8756607190987</v>
+        <v>216.8272624768101</v>
       </c>
       <c r="C4" t="n">
-        <v>6.21732793751091e-23</v>
+        <v>7.355293040090556e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005700930274867457</v>
+        <v>-0.01228150250469433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6576187394572277</v>
+        <v>0.3388155759653907</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.414839702861634e-05</v>
+        <v>-1.360544960921305e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2719768796853398</v>
+        <v>0.5105548618467028</v>
       </c>
     </row>
     <row r="7">
@@ -7374,75 +6386,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.24883148692455</v>
+        <v>-12.13076486513123</v>
       </c>
       <c r="C7" t="n">
-        <v>3.313524880816105e-05</v>
+        <v>0.02289663961969185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.454069596590447</v>
+        <v>444.4775429589844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003436546686611699</v>
+        <v>0.2035619581947926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-420.7361615291411</v>
+        <v>8147.569614216049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3578624376496903</v>
+        <v>3.733821709319751e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.923831603382</v>
+        <v>26.27497916197331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.316550391088255</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8568.554479161518</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.327043382400194e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>30.14697961144095</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002666929903047723</v>
+        <v>0.002227126001184634</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.434584568787</v>
+        <v>1436.277217854064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01715958905400766</v>
+        <v>0.02852139723910671</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.8888959788072</v>
+        <v>68.99363851527833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03479856503822397</v>
+        <v>0.01527766934677536</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.017025427117</v>
+        <v>201.0668976817121</v>
       </c>
       <c r="C4" t="n">
-        <v>1.315120445344065e-27</v>
+        <v>5.915413514940761e-25</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01757535919624677</v>
+        <v>-0.009303050555684006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1602910656307709</v>
+        <v>0.4889727653843625</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.345938026065281e-05</v>
+        <v>-2.211770051638052e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5019783633693213</v>
+        <v>0.9175032572608564</v>
       </c>
     </row>
     <row r="7">
@@ -7553,75 +6539,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.09214866478249</v>
+        <v>-17.62007306473046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007539399280762345</v>
+        <v>0.002351625378666058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.686624220303187</v>
+        <v>286.9983078643263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06567481904738434</v>
+        <v>0.4229269361802521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-588.3333988268605</v>
+        <v>6548.531099736784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2257761835333763</v>
+        <v>0.0001898642290200173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.4843609281188</v>
+        <v>27.51921417495639</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179488786795523</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8824.430058574755</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.365666087458344e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.8505651681325</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003949296169424389</v>
+        <v>0.004624505192690867</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2290.503661668039</v>
+        <v>1065.574026547983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003500252799754114</v>
+        <v>0.08457710211895782</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.86738546432595</v>
+        <v>74.6140101862517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0367936376810674</v>
+        <v>0.005454459769167956</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1291572106431</v>
+        <v>209.6144084780061</v>
       </c>
       <c r="C4" t="n">
-        <v>4.948059901425664e-24</v>
+        <v>1.268238244679623e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007209879084652145</v>
+        <v>-0.007250151813821857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5802493154894257</v>
+        <v>0.571137853877274</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.402927241709409e-05</v>
+        <v>-7.196920663568511e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4933473916013156</v>
+        <v>0.7330848528211145</v>
       </c>
     </row>
     <row r="7">
@@ -7732,75 +6692,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.22413625933036</v>
+        <v>-14.41232481781869</v>
       </c>
       <c r="C7" t="n">
-        <v>8.791068142817755e-06</v>
+        <v>0.005281700773934493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.128098219448784</v>
+        <v>110.3072689584665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02048728195123685</v>
+        <v>0.7414211013539105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-691.3411425346512</v>
+        <v>8656.867391555534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142961666652998</v>
+        <v>1.048676084465614e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.1598933202022</v>
+        <v>25.46010009514329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2549281694727136</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7970.594352268843</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.139993829759816e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.7773535589265</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003880584422837735</v>
+        <v>0.004187263395707672</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1641.527731442356</v>
+        <v>1729.136455260832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01949936251009129</v>
+        <v>0.008313999043579118</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.81888984745848</v>
+        <v>65.86835800604554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01075757616191083</v>
+        <v>0.01900342351980057</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.957376017261</v>
+        <v>204.8387880590222</v>
       </c>
       <c r="C4" t="n">
-        <v>5.001206717291552e-29</v>
+        <v>1.986493864666721e-24</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01823781880221072</v>
+        <v>-0.00249478089910549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1667143544604202</v>
+        <v>0.8493566694909639</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.9569017773304e-06</v>
+        <v>-1.650935527662473e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7701471557895534</v>
+        <v>0.4328812892951919</v>
       </c>
     </row>
     <row r="7">
@@ -7911,75 +6845,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.8306871049049</v>
+        <v>-17.44966566976279</v>
       </c>
       <c r="C7" t="n">
-        <v>9.644160031585522e-05</v>
+        <v>0.00126768689718164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.886658635199549</v>
+        <v>375.1561742074955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01617034323129667</v>
+        <v>0.301572410404348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-560.0244202722029</v>
+        <v>5923.097159628375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2084062443499721</v>
+        <v>0.000926729539663869</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.6655790071613</v>
+        <v>21.63655593098562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2268178390938247</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8933.364846676184</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.642491401483223e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.01240932061424</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002650823728032738</v>
+        <v>0.01619155226004115</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2799.281241485975</v>
+        <v>1039.797689961811</v>
       </c>
       <c r="C2" t="n">
-        <v>4.50623331291313e-05</v>
+        <v>0.09751568035689454</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.84828118656748</v>
+        <v>54.84725419388199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2268774745498564</v>
+        <v>0.05557926729911117</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.7696826353314</v>
+        <v>206.3534690990171</v>
       </c>
       <c r="C4" t="n">
-        <v>6.90089177257042e-33</v>
+        <v>4.869702619760241e-25</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009913650242869245</v>
+        <v>-0.00717505618770329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3918159661220245</v>
+        <v>0.5836025479972826</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.019811721852744e-06</v>
+        <v>-5.549562332816973e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8765090363091954</v>
+        <v>0.8110131728472006</v>
       </c>
     </row>
     <row r="7">
@@ -8090,75 +6998,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.04615036477872</v>
+        <v>-14.78369826502678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001831073104025703</v>
+        <v>0.005005074084274345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.021978340792014</v>
+        <v>265.6138246299713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007247263177058438</v>
+        <v>0.4680099584986158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-619.8361247558679</v>
+        <v>7401.351630293364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2021553820598049</v>
+        <v>1.374065135820994e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.26406191454237</v>
+        <v>31.50273499919179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9020569091312129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6341.165326937913</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.089898108329702e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.19013551568142</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00784205653450111</v>
+        <v>0.0003136970691915073</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.036985079832</v>
+        <v>1226.432915559333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04502313847330996</v>
+        <v>0.04291585752733613</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.72318156420539</v>
+        <v>55.46424704006573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1427983812267707</v>
+        <v>0.08491285926350615</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.1759433590853</v>
+        <v>198.3957162068591</v>
       </c>
       <c r="C4" t="n">
-        <v>6.645407907711013e-24</v>
+        <v>1.253607670665498e-23</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01537793632502821</v>
+        <v>-0.00910902694566159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2118969190382774</v>
+        <v>0.4832762870546231</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.164770964017895e-05</v>
+        <v>-2.363647464022665e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2890219650010826</v>
+        <v>0.2569486512271354</v>
       </c>
     </row>
     <row r="7">
@@ -8269,75 +7151,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.21001249871447</v>
+        <v>-15.05509660997097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004433808530193229</v>
+        <v>0.008790731017894101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.52185377264694</v>
+        <v>463.1663922359241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5868900128124487</v>
+        <v>0.1877262030960632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-168.960119201364</v>
+        <v>7431.605507313711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7180204962323247</v>
+        <v>8.97755658259495e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>575.8998103771964</v>
+        <v>28.21052350476317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09661290177293094</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7311.717472519365</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.644581236510129e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.1856855574671</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005514616220806378</v>
+        <v>0.001254473308336655</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.48406666148</v>
+        <v>1237.96476062956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09905949747324541</v>
+        <v>0.03256696555245224</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.5249848644936</v>
+        <v>63.79611586282533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08660480015142513</v>
+        <v>0.01521150663986652</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.9896530364891</v>
+        <v>203.0276299407137</v>
       </c>
       <c r="C4" t="n">
-        <v>2.852652050169979e-24</v>
+        <v>2.384165069461359e-27</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008839850262143067</v>
+        <v>-0.003079508821288098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5109908208110223</v>
+        <v>0.8162638656914708</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.698419124133163e-05</v>
+        <v>-1.234165410449479e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2201164065217815</v>
+        <v>0.5495701997177256</v>
       </c>
     </row>
     <row r="7">
@@ -8448,75 +7304,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.91543594417023</v>
+        <v>-13.84861008547692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01475783693112325</v>
+        <v>0.005735319488331459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9456522240535179</v>
+        <v>116.5222549942882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.746627812372179</v>
+        <v>0.7219743737781967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-81.53155170975333</v>
+        <v>7261.022736949805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.874548512605921</v>
+        <v>1.227684223683595e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.7977791183077</v>
+        <v>26.85595694862693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1138104050808483</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7079.658784997093</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.659512885849221e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.02019303992681</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004342190303869447</v>
+        <v>0.0009856659085962529</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2027.258692364145</v>
+        <v>1023.442548954315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01195016317123158</v>
+        <v>0.0987882774928322</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.35475605393363</v>
+        <v>68.36019475426875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1726634223228342</v>
+        <v>0.02300020183797821</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2823800977148</v>
+        <v>214.8139708104418</v>
       </c>
       <c r="C4" t="n">
-        <v>7.416082735519343e-26</v>
+        <v>1.170733746975713e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0007950203574308146</v>
+        <v>-0.005901987650511531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9544789352032177</v>
+        <v>0.6617780637351067</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.332521120191045e-05</v>
+        <v>-1.600231776033065e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149785468038015</v>
+        <v>0.4313395577435988</v>
       </c>
     </row>
     <row r="7">
@@ -8627,75 +7457,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.56054063257636</v>
+        <v>-12.11823733716303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003379865255039257</v>
+        <v>0.02200988878314693</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.251889065897981</v>
+        <v>171.8317395513527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2009674572142207</v>
+        <v>0.6130380209645755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-255.7166220788195</v>
+        <v>7247.67544257034</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5889142561239233</v>
+        <v>2.605574610153898e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.980504351282</v>
+        <v>28.59222578211866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3121850920233806</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7144.436404646776</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.431461866955278e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.61617605203963</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002702476279574296</v>
+        <v>0.001314411509814724</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2114.141489708925</v>
+        <v>1380.654542179761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004240994132934646</v>
+        <v>0.03084504058091617</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.37290580536482</v>
+        <v>73.81605729333484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03294528523727267</v>
+        <v>0.01254599428451267</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.9384849357398</v>
+        <v>200.9625413860008</v>
       </c>
       <c r="C4" t="n">
-        <v>4.569669949978176e-23</v>
+        <v>1.250385294298153e-25</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02011140248701352</v>
+        <v>0.002521674251191949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1253224062353874</v>
+        <v>0.8479389041889527</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.990152387191148e-06</v>
+        <v>-2.600860560296194e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8348695607863506</v>
+        <v>0.2019727504479401</v>
       </c>
     </row>
     <row r="7">
@@ -8806,75 +7610,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.85823494796035</v>
+        <v>-16.28302425329489</v>
       </c>
       <c r="C7" t="n">
-        <v>1.277089914209245e-05</v>
+        <v>0.002953449698696865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.74500694102273</v>
+        <v>263.340498035162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07180487575220799</v>
+        <v>0.4580545075184579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-779.0033255107219</v>
+        <v>6406.569083965251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1023057484114324</v>
+        <v>0.0002765594226565497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.6388274351139</v>
+        <v>27.94159636406884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07824685814309784</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8205.004345817844</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.591586882869376e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.78041902824415</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001359789312250858</v>
+        <v>0.001738172357649283</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.611939581905</v>
+        <v>1276.746362660156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04875707157111793</v>
+        <v>0.03743346416710001</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.25319827038327</v>
+        <v>53.5854482327114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07003885103452087</v>
+        <v>0.09540266689383317</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.9020979214184</v>
+        <v>194.4833220923199</v>
       </c>
       <c r="C4" t="n">
-        <v>2.587938277606616e-26</v>
+        <v>2.979049722088841e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01647021358966389</v>
+        <v>-0.01483429056211609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183175691872702</v>
+        <v>0.2606910602271468</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.086084614145794e-05</v>
+        <v>-1.270420495237864e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3071168637816454</v>
+        <v>0.5214424909113637</v>
       </c>
     </row>
     <row r="7">
@@ -8985,75 +7763,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.03714347640996</v>
+        <v>-10.63689211870024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003400744730388587</v>
+        <v>0.0370570250499643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8564543594057099</v>
+        <v>364.4491309295872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7924979626547546</v>
+        <v>0.2852854707451459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.14718062636575</v>
+        <v>7468.168895256465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.832036124968681</v>
+        <v>1.281319879733486e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>853.2235900124639</v>
+        <v>25.34848077139905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01191574828006644</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6704.787798236932</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.184673944194691e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.64826275251462</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004364438025710252</v>
+        <v>0.003408924765761752</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.441577302639</v>
+        <v>1138.473393571187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004514097910530634</v>
+        <v>0.05910194145755056</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.20747463040814</v>
+        <v>61.62473173678978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02621967680696609</v>
+        <v>0.02724095818392924</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.3084307531416</v>
+        <v>221.4096848020835</v>
       </c>
       <c r="C4" t="n">
-        <v>1.32090082051552e-27</v>
+        <v>3.477431075557686e-28</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005746284180554895</v>
+        <v>-0.001775659830495012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.650860140490144</v>
+        <v>0.8895322403599099</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.12056410912698e-06</v>
+        <v>-2.207596954489097e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7704005270173362</v>
+        <v>0.2794192435263627</v>
       </c>
     </row>
     <row r="7">
@@ -9164,75 +7916,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.10308760086566</v>
+        <v>-10.67788201126191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005438250335036495</v>
+        <v>0.04845647361635831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.693411313481764</v>
+        <v>71.74898964540102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00964342110215767</v>
+        <v>0.8375295429392875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-245.2246495223985</v>
+        <v>7300.605881888974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6066015365567061</v>
+        <v>1.669463146930005e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.390956674726</v>
+        <v>24.47193061190774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5075339371516399</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7005.712605442274</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.935605636966288e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.81370276413137</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002877488482168906</v>
+        <v>0.004144316042977185</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2393.140273748435</v>
+        <v>1102.56825938761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006771827216525742</v>
+        <v>0.05826280320879598</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.99587910396325</v>
+        <v>49.25041252172416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3252017624891795</v>
+        <v>0.0623893716986855</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.1931490800477</v>
+        <v>223.2822330276692</v>
       </c>
       <c r="C4" t="n">
-        <v>5.122559723833604e-30</v>
+        <v>5.363916617548508e-28</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003974412099500921</v>
+        <v>-0.01690708947237783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7563370058471711</v>
+        <v>0.1742326529300441</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.354386684981471e-05</v>
+        <v>3.625452347044407e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2599241641137121</v>
+        <v>0.143733695615083</v>
       </c>
     </row>
     <row r="7">
@@ -9343,75 +8069,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.33459920244077</v>
+        <v>-23.2742211477999</v>
       </c>
       <c r="C7" t="n">
-        <v>5.765438514826427e-05</v>
+        <v>2.313917617462258e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.313476911825084</v>
+        <v>463.6337157055102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01039060199757798</v>
+        <v>0.1888229587038591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-669.4443473784016</v>
+        <v>7165.681696337059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1200451100605018</v>
+        <v>1.019427578216019e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-196.7581749129411</v>
+        <v>30.40003364422459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5332100535673368</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7261.641085343262</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.294725175475047e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.4088107647174</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001324015467563141</v>
+        <v>0.0002636280497516605</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16803226" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ16929936" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17065237" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17180605" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17314453" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ17465544" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ17662450" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ17794640" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ17928970" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ18063682" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ18213982" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ18346821" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ18483170" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ18630046" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ18783004" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ18930924" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ19063606" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ19214194" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ19329927" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ19463402" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ19597512" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ19729805" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ19861265" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19997495" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ20130050" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ20263392" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ20397804" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ20530080" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ20663406" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ20796859" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ20929614" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ21064766" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ21207222" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ21352050" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ21480847" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ21612305" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ21761226" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ21879511" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ22029943" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ22163891" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ22311236" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ22430386" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ22563639" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ22697024" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ22828913" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ22947099" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ23080018" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ23208687" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ23353535" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ23480159" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ49401962" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49520588" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ49622465" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49725367" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49822326" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49923252" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50022188" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50123029" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50225579" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50389253" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ50500292" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ50610560" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ50718558" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ50827392" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ50930329" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ51022285" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ51132405" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ51222819" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ51323062" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ51423363" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51522815" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51623435" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ51722850" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ51822947" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ51928940" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ52022608" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ52122925" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ52227908" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ52326247" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ52422732" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ52521433" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ52624906" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ52721405" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52822337" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ52924446" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ53033892" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53131561" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ53228943" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ53340787" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ53440607" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53547872" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ53639103" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ53744713" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ53853899" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ53957683" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54055873" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54164321" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54257928" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54360641" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ54464956" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49401962" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49520588" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ49622465" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49725367" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49822326" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49923252" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50022188" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50123029" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50225579" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ50389253" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ50500292" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ50610560" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ50718558" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ50827392" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50930329" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ51022285" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ51132405" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ51222819" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ51323062" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51423363" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51522815" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51623435" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ51722850" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ51822947" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ51928940" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52022608" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ52122925" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ52227908" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ52326247" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ52422732" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ52521433" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ52624906" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ52721405" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ52822337" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ52924446" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53033892" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53131561" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ53228943" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ53340787" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ53440607" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ53547872" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ53639103" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ53744713" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ53853899" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ53957683" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ54055873" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ54164321" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ54257928" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ54360641" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ54464956" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ17420204" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17583482" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17690995" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17795961" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17910477" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18021826" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ18122840" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ18222847" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18323861" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18427588" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ18537380" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ18656237" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ18758834" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ18883313" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ18986825" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ19087334" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ19188843" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ19293353" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ19405379" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ19527224" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ19635735" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ19739292" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ19843134" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19957296" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ20092474" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ20200289" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ20306799" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ20432534" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ20537458" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ20641089" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ20746727" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ20848315" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ20957189" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ21075516" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ21180435" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ21296759" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ21453314" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ21560746" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ21675702" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ21791576" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ21895314" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21994823" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ22104752" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ22227221" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ22336731" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ22439948" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ22540068" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ22640260" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ22747071" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ22867607" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1630.03526483078</v>
+        <v>1845.390712784837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01098239588894073</v>
+        <v>0.03279802773874333</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.87843265639479</v>
+        <v>46.29371445162212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08601257176493145</v>
+        <v>0.1347520112638676</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.2712680993259</v>
+        <v>200.2882284608109</v>
       </c>
       <c r="C4" t="n">
-        <v>2.456328526525786e-22</v>
+        <v>3.134708254849071e-23</v>
       </c>
     </row>
     <row r="5">
@@ -546,75 +546,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01464633106253055</v>
+        <v>-0.02264959475414539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2641415257695544</v>
+        <v>0.06970496556168908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.546075150165469e-05</v>
+        <v>-14.37026226723573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2227893449125305</v>
+        <v>0.02998429218840842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.58499471645288</v>
+        <v>-0.4929636732082265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0220872048797758</v>
+        <v>0.8725029628782777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.775570201793</v>
+        <v>-377.2636578281927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1509902800454123</v>
+        <v>0.4558844624828524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6677.332124913897</v>
+        <v>527.2764979324411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001176427629152114</v>
+        <v>0.1568083852810361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6444.832961919512</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001891613742540698</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.96864618845254</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01690690718055897</v>
+      <c r="B11" t="n">
+        <v>20.3752088564766</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02620410017653633</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1168.687978960083</v>
+        <v>2187.307314002357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07796139584085951</v>
+        <v>0.0102290525141186</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.17169842245752</v>
+        <v>66.7241685374448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008339729209487622</v>
+        <v>0.02624200627757213</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.1419073871103</v>
+        <v>201.8630423967929</v>
       </c>
       <c r="C4" t="n">
-        <v>1.039027783618206e-22</v>
+        <v>3.476916771291899e-24</v>
       </c>
     </row>
     <row r="5">
@@ -699,75 +712,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00783458798208465</v>
+        <v>-0.01822571130959732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5680084943369644</v>
+        <v>0.1645051226503991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.81601510395502e-05</v>
+        <v>-20.75758863871327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1853799593937912</v>
+        <v>0.0007070557574129065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.15491163815705</v>
+        <v>-5.299023269758578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008399398056793886</v>
+        <v>0.1067785842153662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>385.5235852470473</v>
+        <v>-616.2491341178356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2720274074173712</v>
+        <v>0.2077208351938537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8074.002197910115</v>
+        <v>355.1524677054174</v>
       </c>
       <c r="C9" t="n">
-        <v>5.77701419527428e-06</v>
+        <v>0.3221376101331931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8216.220402419916</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.793829138792318e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.29537424776395</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004153308793974927</v>
+      <c r="B11" t="n">
+        <v>26.03833192910242</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005555037581304448</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1365.863977128487</v>
+        <v>2511.716057222622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01837134384145847</v>
+        <v>0.0004882783392661024</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.49654433554426</v>
+        <v>37.08474628025361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04254945424665273</v>
+        <v>0.1666446614808245</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.5806886793945</v>
+        <v>223.1651513104488</v>
       </c>
       <c r="C4" t="n">
-        <v>1.868256416857233e-28</v>
+        <v>2.504099444418129e-29</v>
       </c>
     </row>
     <row r="5">
@@ -852,75 +878,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002914779278102669</v>
+        <v>-0.007748817117154923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8179489890479564</v>
+        <v>0.4887647259991069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.343905926450225e-05</v>
+        <v>-17.52766429095835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2638087725952035</v>
+        <v>0.001371572927169701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.15370949766773</v>
+        <v>-5.53842640448265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03526511624105533</v>
+        <v>0.02526682126819496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.20132706084337</v>
+        <v>-1011.565753333868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8339724889305706</v>
+        <v>0.04067871205271698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5964.477491534948</v>
+        <v>-10.54366433349696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002962690592331395</v>
+        <v>0.9738902325112068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6252.028945731456</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001162226022224432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.21556727413579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002434651639204219</v>
+      <c r="B11" t="n">
+        <v>24.16285298437084</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001843395858535234</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.059791944073</v>
+        <v>2404.70676334145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05889091482334433</v>
+        <v>0.002329483488024305</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.59330553520037</v>
+        <v>45.15397481153698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1102921624891531</v>
+        <v>0.2228923421537604</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.6904553677827</v>
+        <v>202.9311937423437</v>
       </c>
       <c r="C4" t="n">
-        <v>6.385162849783459e-23</v>
+        <v>1.203543247113349e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1005,75 +1044,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01710333271460635</v>
+        <v>-0.01655155682145076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2149211704248436</v>
+        <v>0.1856986742967349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.668810626538098e-06</v>
+        <v>-26.65653748224807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7619230203284831</v>
+        <v>3.720994833714318e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.77722623299874</v>
+        <v>-6.268735721876088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007537317627535981</v>
+        <v>0.0248890907267355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.174031923425</v>
+        <v>-634.7894376006207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1607882485104803</v>
+        <v>0.1602998013395908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7401.463602552147</v>
+        <v>365.8152236234866</v>
       </c>
       <c r="C9" t="n">
-        <v>3.083265680782031e-05</v>
+        <v>0.3413904144920062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7729.928899992987</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.927591995133622e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.1473301984013</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0009470468253179844</v>
+      <c r="B11" t="n">
+        <v>31.42582783951983</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.000304381147542071</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>875.3181749779051</v>
+        <v>863.1809142465236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1450625378376334</v>
+        <v>0.3002379394423464</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.09950435779086</v>
+        <v>77.50398613442994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003031136447318121</v>
+        <v>0.005383924053145095</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.7190975703913</v>
+        <v>197.4820011235015</v>
       </c>
       <c r="C4" t="n">
-        <v>1.518959258096261e-25</v>
+        <v>2.91817365034413e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1158,75 +1210,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008346110857353654</v>
+        <v>-0.01707067534662602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5011871802072357</v>
+        <v>0.1456871748847395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.869984421453627e-05</v>
+        <v>-12.36057639694723</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1436517301014112</v>
+        <v>0.05355672853343069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.70436054074183</v>
+        <v>0.8896352332523065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02319519231786129</v>
+        <v>0.7720424152163293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.3484972528697</v>
+        <v>-339.8029080041308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3267037919538918</v>
+        <v>0.4546650476215601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8831.108890456057</v>
+        <v>335.4764927478607</v>
       </c>
       <c r="C9" t="n">
-        <v>2.110126988025055e-07</v>
+        <v>0.3283456972853792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8476.064438426107</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.732310138970475e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.28681597638698</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0006313873002814547</v>
+      <c r="B11" t="n">
+        <v>28.00846553665861</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001071069019994858</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.208956237478</v>
+        <v>2146.946291378707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02794857392287999</v>
+        <v>0.006971104045827304</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.73733991193663</v>
+        <v>63.10479273913541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01477564761008852</v>
+        <v>0.02842717661172115</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.215701656472</v>
+        <v>214.4027316888109</v>
       </c>
       <c r="C4" t="n">
-        <v>1.379073293611813e-25</v>
+        <v>2.79580796385684e-27</v>
       </c>
     </row>
     <row r="5">
@@ -1311,75 +1376,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00292996870549693</v>
+        <v>-0.009621984235679795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8236386448340876</v>
+        <v>0.4354918135898664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.33052810134518e-05</v>
+        <v>-24.44758647792286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2508725175340661</v>
+        <v>9.261630364035278e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.9966306678014</v>
+        <v>-4.521389626362055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006015965694664161</v>
+        <v>0.1004971321114119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>525.9334791081494</v>
+        <v>-241.391597539226</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1344709007393759</v>
+        <v>0.598553610415787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7331.997160564817</v>
+        <v>530.6811785288779</v>
       </c>
       <c r="C9" t="n">
-        <v>1.426333939842112e-05</v>
+        <v>0.1411781361396131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7233.48209169489</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.57721896695455e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.66712865776335</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006345110157291527</v>
+      <c r="B11" t="n">
+        <v>24.57541225297816</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008069758974547148</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.257488066678</v>
+        <v>2445.701974545161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0934116521584477</v>
+        <v>0.00490764886605236</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.90455285805575</v>
+        <v>42.66947771742215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05877579314597237</v>
+        <v>0.1444179393573841</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.1008392684071</v>
+        <v>211.2736425023749</v>
       </c>
       <c r="C4" t="n">
-        <v>7.112085818796627e-26</v>
+        <v>3.838986977226094e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1464,75 +1542,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00547718524815273</v>
+        <v>-0.01093255732516779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6803696924873648</v>
+        <v>0.3701038117301176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.620529638001386e-06</v>
+        <v>-19.64947832197991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9374255093723626</v>
+        <v>0.001353423588328876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.09550936713773</v>
+        <v>-7.283777122227416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01846345051708403</v>
+        <v>0.02417800064442269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.704934604849086</v>
+        <v>-448.6172374105363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9851895962989827</v>
+        <v>0.3366820387853235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7110.145387185801</v>
+        <v>-85.0538803158106</v>
       </c>
       <c r="C9" t="n">
-        <v>8.647569627564351e-05</v>
+        <v>0.8165205388385631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7513.242256483674</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.365915941105169e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.7907285029452</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002207805738522035</v>
+      <c r="B11" t="n">
+        <v>28.82942991107564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001811195940651759</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.5040712856708</v>
+        <v>1959.595732871679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13515091143297</v>
+        <v>0.01584558663046973</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.66744931332624</v>
+        <v>82.54261683028039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009028971272096221</v>
+        <v>0.01491956019493324</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.7977158990897</v>
+        <v>200.7812286281894</v>
       </c>
       <c r="C4" t="n">
-        <v>5.953730764146894e-21</v>
+        <v>9.250764539299765e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1617,75 +1708,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01060266853548326</v>
+        <v>-0.01205737029282785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4522938752548568</v>
+        <v>0.3458074083814889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.620419947568627e-06</v>
+        <v>-24.8773056095038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9490556307657454</v>
+        <v>0.0001033257267533707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.746137034694</v>
+        <v>-5.699316870204984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00108429005708639</v>
+        <v>0.03434995674944391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579.5642980571743</v>
+        <v>-260.7720513321638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109948370921998</v>
+        <v>0.5647939387852863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7835.661124455693</v>
+        <v>549.425862575903</v>
       </c>
       <c r="C9" t="n">
-        <v>1.940368025815851e-05</v>
+        <v>0.1300076834727384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8036.493601986645</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.167190021500675e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.03074259863742</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001486796175061483</v>
+      <c r="B11" t="n">
+        <v>30.43239537086155</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0009502613198028575</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.962389292248</v>
+        <v>2079.230696609905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06300776235497076</v>
+        <v>0.01138686418145985</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.56841470322121</v>
+        <v>41.03165262734208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06409705792450533</v>
+        <v>0.1656138684110966</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.7728772013605</v>
+        <v>206.9405498997846</v>
       </c>
       <c r="C4" t="n">
-        <v>4.619673083128902e-25</v>
+        <v>2.211994766602414e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1770,75 +1874,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001594508278301952</v>
+        <v>-0.007715327806945942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9035202141188978</v>
+        <v>0.5273426247922087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.297859350554913e-05</v>
+        <v>-20.45498124804792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5392320007567892</v>
+        <v>0.001201387070647579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.46330718737572</v>
+        <v>-3.854026405338013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005973489837590826</v>
+        <v>0.181544395239787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.2502351150253</v>
+        <v>-777.2497696296696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5818392958698193</v>
+        <v>0.1239825264240527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7732.272261408056</v>
+        <v>104.8637899172782</v>
       </c>
       <c r="C9" t="n">
-        <v>8.640466575327988e-06</v>
+        <v>0.7745429113959748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7853.268204728304</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.742867939272901e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.42355139102792</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00272564219151505</v>
+      <c r="B11" t="n">
+        <v>26.80409713200917</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002864256221067523</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1161.395173923312</v>
+        <v>2173.989658006989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07387006206373173</v>
+        <v>0.007808357106196275</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.92700962900784</v>
+        <v>67.77454443224443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004719149239405704</v>
+        <v>0.02440165152156367</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.6786290825548</v>
+        <v>217.9161991134956</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547793443905131e-26</v>
+        <v>1.056397959882787e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1923,75 +2040,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001356391694161962</v>
+        <v>-0.004799065588325921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9198824393842102</v>
+        <v>0.6955411011887511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.590258938119942e-06</v>
+        <v>-22.49714647596056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7130918354851064</v>
+        <v>0.0002218647966261454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.20898238684874</v>
+        <v>-5.329192310468478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002319853134150801</v>
+        <v>0.05369614477396098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>459.2869787900433</v>
+        <v>-446.9403063870432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1945643252202899</v>
+        <v>0.347838849338903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6869.353856795378</v>
+        <v>371.4258010416622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000136173235519617</v>
+        <v>0.3018737306015173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6987.456308161442</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.648129993631357e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.33657948085519</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.007510972263573293</v>
+      <c r="B11" t="n">
+        <v>25.67506913842778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005680935736318247</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2037,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.882109010137</v>
+        <v>2157.298310294204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03850045437443265</v>
+        <v>0.007476929711646499</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.8160152474747</v>
+        <v>64.73870442643249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01536090822378498</v>
+        <v>0.0272302510861973</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.8036806004145</v>
+        <v>209.6137779112461</v>
       </c>
       <c r="C4" t="n">
-        <v>5.113498019497688e-26</v>
+        <v>1.372856028993188e-25</v>
       </c>
     </row>
     <row r="5">
@@ -2076,75 +2206,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003253446618190353</v>
+        <v>-0.01381475757898747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7957774902934013</v>
+        <v>0.2379115801201353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.938995611779088e-05</v>
+        <v>-19.46710981626721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1598295853233187</v>
+        <v>0.0009090405439893185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.37218914366098</v>
+        <v>-4.547545553783873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009558939904723847</v>
+        <v>0.1581032826900778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.09464759020693</v>
+        <v>-666.0190453676378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9636889467835068</v>
+        <v>0.1692403760359768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8130.611393154913</v>
+        <v>-4.695316414958597</v>
       </c>
       <c r="C9" t="n">
-        <v>2.556893043110052e-06</v>
+        <v>0.9888704790839884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8073.936930932635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.43406256673987e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.82990970167164</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002892158136930675</v>
+      <c r="B11" t="n">
+        <v>24.8495424895447</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002783208572380175</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.243281169322</v>
+        <v>2588.133014390924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03421513760124869</v>
+        <v>0.003125114212097943</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.85475294467039</v>
+        <v>55.86959024002664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02466898747553286</v>
+        <v>0.06434182501028934</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.57741646163</v>
+        <v>211.9405627467353</v>
       </c>
       <c r="C4" t="n">
-        <v>1.524799276636719e-23</v>
+        <v>2.39265247902089e-24</v>
       </c>
     </row>
     <row r="5">
@@ -2229,75 +2372,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002198020867768331</v>
+        <v>-0.01212030365905311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8680122517913289</v>
+        <v>0.3227413916752029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.25372066335547e-05</v>
+        <v>-24.0227159073533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2874509204771892</v>
+        <v>0.0001616244680490766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.2707549649378</v>
+        <v>-6.432041436256331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002866805172795711</v>
+        <v>0.05777656951583948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>298.0982625029509</v>
+        <v>-497.2299922679481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4077733309290156</v>
+        <v>0.292798863357439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6823.441348646964</v>
+        <v>320.0150539751863</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001898108078150002</v>
+        <v>0.378158673706427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6865.586904966658</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001293123032176953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.38989770481321</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003509340935034707</v>
+      <c r="B11" t="n">
+        <v>25.60737663385306</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004220548564485793</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1388.572711707153</v>
+        <v>1965.876526887359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01131118471414233</v>
+        <v>0.00795054703761609</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.94853356535967</v>
+        <v>27.04402809878059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1583202865997929</v>
+        <v>0.289946200156154</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9563038585239</v>
+        <v>211.5198448753091</v>
       </c>
       <c r="C4" t="n">
-        <v>6.074240461676092e-30</v>
+        <v>6.39067777276666e-31</v>
       </c>
     </row>
     <row r="5">
@@ -2382,75 +2538,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01372104218165408</v>
+        <v>-0.01859871122127691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2492569390024171</v>
+        <v>0.09192450516713041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.700506535143351e-05</v>
+        <v>-13.71921431601569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3617880694267539</v>
+        <v>0.02195553571536745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.243423199235586</v>
+        <v>-2.844817402407728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06078739071456517</v>
+        <v>0.302723770348244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.5526773028382</v>
+        <v>-380.4364976944103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6653909086070555</v>
+        <v>0.3549707015807128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5971.423075845732</v>
+        <v>92.98093563491648</v>
       </c>
       <c r="C9" t="n">
-        <v>9.013727992736014e-05</v>
+        <v>0.7890316015455721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5856.299638058436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.80409526939105e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.68539527235567</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0002373971600157456</v>
+      <c r="B11" t="n">
+        <v>28.93922856156923</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002143172507933544</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.7261854780304</v>
+        <v>2283.73599104814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1801788755431164</v>
+        <v>0.005704230178036044</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.70303589631929</v>
+        <v>38.21796829102807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04143669896330126</v>
+        <v>0.1863992240648253</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.9406325087159</v>
+        <v>213.579586792715</v>
       </c>
       <c r="C4" t="n">
-        <v>7.50213488544504e-27</v>
+        <v>8.021604937714285e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2535,75 +2704,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004220880923213485</v>
+        <v>-0.01119501719890847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7423644207288382</v>
+        <v>0.3264631254280808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.670389437120491e-05</v>
+        <v>-18.61516207712815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4210586139375728</v>
+        <v>0.001820729435595311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.972385071584055</v>
+        <v>-6.558829352528894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06186217379804359</v>
+        <v>0.01353431439275117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.05298457540061</v>
+        <v>-733.840077406101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8209093556094738</v>
+        <v>0.09745376758077146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7598.299284732687</v>
+        <v>-12.62359478156623</v>
       </c>
       <c r="C9" t="n">
-        <v>8.092827574391507e-05</v>
+        <v>0.9715283666103959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7547.602869609292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.160223612546764e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.78291839529742</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001564631710838387</v>
+      <c r="B11" t="n">
+        <v>29.5198725126473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001151386625215254</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1472.374469457608</v>
+        <v>2844.859297275127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01583110707291921</v>
+        <v>0.0002428236540452651</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.54834713202484</v>
+        <v>54.35295713607451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02431589384341215</v>
+        <v>0.07688100924662282</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6577446291717</v>
+        <v>223.8576455353012</v>
       </c>
       <c r="C4" t="n">
-        <v>1.011304631826649e-27</v>
+        <v>1.467490337389642e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2688,75 +2870,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001461345230688707</v>
+        <v>-0.003028296940377942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9076244373661992</v>
+        <v>0.7950259760673331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.929924352705327e-06</v>
+        <v>-20.68638179238497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7251753927577329</v>
+        <v>0.0003940991385707861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.43035853554702</v>
+        <v>-7.147791035146398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01612997330779011</v>
+        <v>0.007621967785415363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-189.7401775632259</v>
+        <v>-762.1323177835618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5967781878308531</v>
+        <v>0.1185560022398505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5007.735020519204</v>
+        <v>-285.6665584815546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002675150075934342</v>
+        <v>0.4213507729987022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5350.262518353156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0009349362768887363</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.13159633988143</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00148529865539429</v>
+      <c r="B11" t="n">
+        <v>28.17057973255548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0009987564648687244</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1438.56621302853</v>
+        <v>2364.721423850281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02206584151909926</v>
+        <v>0.005131070351980932</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.16002709428079</v>
+        <v>74.34061295024287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008600472882041308</v>
+        <v>0.01610494436340161</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.5157189882426</v>
+        <v>202.9321286042605</v>
       </c>
       <c r="C4" t="n">
-        <v>8.223195345059112e-23</v>
+        <v>1.656188388273866e-23</v>
       </c>
     </row>
     <row r="5">
@@ -2841,75 +3036,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00539268465455333</v>
+        <v>-0.01421950811567257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6833413054199444</v>
+        <v>0.2612712589317533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.18865026594572e-05</v>
+        <v>-22.81554775568009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.28683518715596</v>
+        <v>0.000319499891832503</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.0336386186412</v>
+        <v>-4.966228615138846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001850267043939195</v>
+        <v>0.1325692668167178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4408322382053</v>
+        <v>-433.6809801485849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.252181213183757</v>
+        <v>0.3632537449492839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6987.833863027201</v>
+        <v>379.0485514235741</v>
       </c>
       <c r="C9" t="n">
-        <v>6.165014865096389e-05</v>
+        <v>0.280074228100506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6977.556704386379</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.003692823211812e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.64781213501265</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003045962463121347</v>
+      <c r="B11" t="n">
+        <v>24.80399527444279</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00388794547176149</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>870.0602693355071</v>
+        <v>1671.076394217741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1374298847329959</v>
+        <v>0.02353686230053678</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.85784280450753</v>
+        <v>66.88973767972172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007343440001495127</v>
+        <v>0.01900741032855102</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.4288749515504</v>
+        <v>212.7282510667592</v>
       </c>
       <c r="C4" t="n">
-        <v>4.621123801686867e-27</v>
+        <v>5.157761849368938e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2994,75 +3202,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005228900156022252</v>
+        <v>-0.009586638455969201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6820292538375913</v>
+        <v>0.4193728639788398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.045738229583081e-05</v>
+        <v>-22.87351458148033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6061215553621071</v>
+        <v>0.0001736555555663743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.66881583063189</v>
+        <v>-4.06730834541511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001198724413827099</v>
+        <v>0.1270205336667166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451.4351553397044</v>
+        <v>-530.1272502135997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187708911592752</v>
+        <v>0.2397471385522219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8598.499745194371</v>
+        <v>380.9578052780141</v>
       </c>
       <c r="C9" t="n">
-        <v>1.676252689577905e-07</v>
+        <v>0.2720438967061073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8657.007246945228</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.658864634473056e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.17836038440995</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.000559052053990506</v>
+      <c r="B11" t="n">
+        <v>30.09934258733938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003371349493541131</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1185.458068064358</v>
+        <v>1067.228856014914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05497363770826964</v>
+        <v>0.1863208567606721</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.54194256819211</v>
+        <v>50.63508926534751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07609943663727706</v>
+        <v>0.06599708461010456</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.2683021018263</v>
+        <v>196.0071443309917</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01311225964155e-23</v>
+        <v>1.681723651515884e-24</v>
       </c>
     </row>
     <row r="5">
@@ -3147,75 +3368,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01555746507743966</v>
+        <v>-0.01957173030286215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2721411235678833</v>
+        <v>0.1007452000766457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.376229901542643e-05</v>
+        <v>-15.39834491955377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6078948128023436</v>
+        <v>0.01339570093283058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.46018674000067</v>
+        <v>0.3340567796854081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00375223489884714</v>
+        <v>0.9091958770656416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590.872151301287</v>
+        <v>43.97714519237218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09141283370541733</v>
+        <v>0.9222119112256653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8547.973661994545</v>
+        <v>634.824134968535</v>
       </c>
       <c r="C9" t="n">
-        <v>4.606192801868376e-07</v>
+        <v>0.07871992553593124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8550.448427849951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.24909174965154e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.30397344420722</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004106501858842056</v>
+      <c r="B11" t="n">
+        <v>24.72522838761569</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00495681746641864</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.864081487914</v>
+        <v>2559.147868355578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03240207186456574</v>
+        <v>0.002561371857052302</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.08504650122522</v>
+        <v>60.57837675760408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0196221886911967</v>
+        <v>0.05601673418595457</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.8940321512073</v>
+        <v>202.5334748048547</v>
       </c>
       <c r="C4" t="n">
-        <v>5.509517827158773e-21</v>
+        <v>1.871005383940839e-22</v>
       </c>
     </row>
     <row r="5">
@@ -3300,75 +3534,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001853955539606801</v>
+        <v>-0.01143606847266754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8935796163427063</v>
+        <v>0.3685912773513073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.583336433559298e-05</v>
+        <v>-25.01256056707789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09364542076380926</v>
+        <v>7.592333337253272e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.69854148850571</v>
+        <v>-5.391147652210972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001234043703638324</v>
+        <v>0.05342826902420919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.3773645442998</v>
+        <v>-659.8072023532269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.320061755428906</v>
+        <v>0.1622017377569928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7351.845710335883</v>
+        <v>312.2100173733763</v>
       </c>
       <c r="C9" t="n">
-        <v>4.756163159335926e-05</v>
+        <v>0.3816061032701734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7230.400233840879</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.446298171408675e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.95148514783785</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005368611713146164</v>
+      <c r="B11" t="n">
+        <v>24.41055749295587</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.009943104237022665</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.036158099016</v>
+        <v>2221.126135126855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1216114892906157</v>
+        <v>0.007479314231404671</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.63543756939212</v>
+        <v>54.68385608461998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0159057942486343</v>
+        <v>0.07628907879574075</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.2791158350513</v>
+        <v>209.3140041669573</v>
       </c>
       <c r="C4" t="n">
-        <v>1.773650391074348e-25</v>
+        <v>3.466096869590876e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3453,75 +3700,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01248878719971062</v>
+        <v>-0.01285313835723668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4092189649730957</v>
+        <v>0.3079467738752809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.705977953286858e-05</v>
+        <v>-22.24547764863615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5700987229620602</v>
+        <v>0.0005129324112235864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.81205950712092</v>
+        <v>-6.511287850077858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004480150502355675</v>
+        <v>0.05028562817612122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>423.7415705722365</v>
+        <v>-789.2955350890145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272820598434783</v>
+        <v>0.1447070423008903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7912.562977674432</v>
+        <v>317.10956969763</v>
       </c>
       <c r="C9" t="n">
-        <v>8.112011146811962e-06</v>
+        <v>0.4031449459787466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8663.505543005875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.928747570128618e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.49342594572457</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005067740629759871</v>
+      <c r="B11" t="n">
+        <v>26.8970210859341</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002705795916262939</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1556.633852538256</v>
+        <v>2663.824638384594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01377400683232091</v>
+        <v>0.0008381804095906678</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.56982107258611</v>
+        <v>62.05696515708276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02302535028020745</v>
+        <v>0.0386477264961889</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8504277929649</v>
+        <v>228.8682927302947</v>
       </c>
       <c r="C4" t="n">
-        <v>3.834094619215796e-28</v>
+        <v>1.208135879280596e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3606,75 +3866,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007661192003039947</v>
+        <v>-0.005869678851333743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5492844282792262</v>
+        <v>0.6280313791665877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.368189761131633e-06</v>
+        <v>-22.71474448080642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7835559181573596</v>
+        <v>0.0001297123865367806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.88939877119667</v>
+        <v>-6.788398668876212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002496320380227909</v>
+        <v>0.0106791761610783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309.2229487796726</v>
+        <v>-58.99876381073216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3587759117531322</v>
+        <v>0.8934392297086642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5656.925981416554</v>
+        <v>283.741431902416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009525207490784706</v>
+        <v>0.4042208706894341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5808.169557781264</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0004676505575326286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.72586224386669</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009627648132953737</v>
+      <c r="B11" t="n">
+        <v>22.02749637155269</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.007152385425861783</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>828.2586194645985</v>
+        <v>1919.887237607426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160196658407087</v>
+        <v>0.007911608814929106</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.81235911452059</v>
+        <v>49.9433026248518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01163527188209369</v>
+        <v>0.05694505834684013</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9543760110546</v>
+        <v>209.6100581441251</v>
       </c>
       <c r="C4" t="n">
-        <v>1.407282777288386e-27</v>
+        <v>4.657570250252251e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3759,75 +4032,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007376683576429786</v>
+        <v>-0.01503644230398042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5407788771560749</v>
+        <v>0.1697597607802019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.254729978098453e-05</v>
+        <v>-17.4555220223073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2507360479960157</v>
+        <v>0.001704046074694135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.34082588776252</v>
+        <v>-5.517824689489224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03755105287602209</v>
+        <v>0.02843916285290968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.9251090091713</v>
+        <v>-784.9940849060908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7438514123617572</v>
+        <v>0.07244965123818238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8517.526225683345</v>
+        <v>-39.20914020226473</v>
       </c>
       <c r="C9" t="n">
-        <v>3.106900802980872e-07</v>
+        <v>0.9088074647263256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8556.485098467789</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.405684561116545e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.29149387612209</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0003882234540559555</v>
+      <c r="B11" t="n">
+        <v>31.52052169648146</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001722000922777129</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.6816710735525</v>
+        <v>1860.440029946903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3509071308165406</v>
+        <v>0.01580678256305906</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.1349326313833</v>
+        <v>87.56614350369186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001010620692538622</v>
+        <v>0.004241821452703316</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.8000450212207</v>
+        <v>206.3687544968712</v>
       </c>
       <c r="C4" t="n">
-        <v>2.673358411013486e-27</v>
+        <v>6.408539951654079e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3912,75 +4198,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01202994791441017</v>
+        <v>-0.011547631853861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3585730198727379</v>
+        <v>0.3289958657686606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.895137117386466e-06</v>
+        <v>-21.80566814867701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7966977891803141</v>
+        <v>0.0001902849849075795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.74183991041378</v>
+        <v>-6.492756261054936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004752909845233447</v>
+        <v>0.01364764464464152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>449.4109173915294</v>
+        <v>-595.8282879083918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2205164833464624</v>
+        <v>0.1902831004555226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8731.23795089277</v>
+        <v>232.4725142580028</v>
       </c>
       <c r="C9" t="n">
-        <v>1.923718740536447e-07</v>
+        <v>0.5301996666030887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8848.400155891431</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.55213896459521e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.94479973927405</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0005312313022482366</v>
+      <c r="B11" t="n">
+        <v>32.76923127892451</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001720637267750363</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1183.241073512808</v>
+        <v>986.8812471999686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04177760995687296</v>
+        <v>0.2121853032188181</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.39703466291222</v>
+        <v>48.91967716695649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06407304964862059</v>
+        <v>0.0789358238888995</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.2669504334386</v>
+        <v>193.8152767371508</v>
       </c>
       <c r="C4" t="n">
-        <v>3.779265801872176e-26</v>
+        <v>4.249113998606629e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4065,75 +4364,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004197040875144499</v>
+        <v>-0.0118065418251791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.728565113250669</v>
+        <v>0.2991006684445811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.17770876618546e-05</v>
+        <v>-13.12937992765614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2490501624894491</v>
+        <v>0.04104790331612344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.09123998111407</v>
+        <v>2.029560965299801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007932057894248392</v>
+        <v>0.5018050326027887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.9844046070659</v>
+        <v>-335.7363270286122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5374518868118703</v>
+        <v>0.4426545262882188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6740.89022735801</v>
+        <v>211.20716937059</v>
       </c>
       <c r="C9" t="n">
-        <v>4.552634056465588e-05</v>
+        <v>0.5427544572510579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6456.373593358347</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.839399222284897e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>33.281008483665</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.096180381141741e-05</v>
+      <c r="B11" t="n">
+        <v>32.4014669062786</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001321329368493835</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4179,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.469021254721</v>
+        <v>1934.508415949332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1194648235796751</v>
+        <v>0.02264206944826363</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.73863304528606</v>
+        <v>48.83212433119617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04762452433164936</v>
+        <v>0.09832864741347302</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.9018817112005</v>
+        <v>210.9220291815344</v>
       </c>
       <c r="C4" t="n">
-        <v>5.000602027393095e-25</v>
+        <v>1.107836724214762e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4218,75 +4530,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002446160729665421</v>
+        <v>-0.01166788845681489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8600550588147933</v>
+        <v>0.3510263230252407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.762987837640209e-05</v>
+        <v>-19.06432998475319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4263900652683089</v>
+        <v>0.002535759390227749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.54700035692517</v>
+        <v>-5.311603020099028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01410582890467503</v>
+        <v>0.1371487418823029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.7750236483227</v>
+        <v>-426.9955234193442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6646115474955214</v>
+        <v>0.3542407421460634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7731.189805059885</v>
+        <v>170.5431467251302</v>
       </c>
       <c r="C9" t="n">
-        <v>7.950382338993721e-06</v>
+        <v>0.6327630920832759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8016.509499912668</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.81596321652793e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.609784333784</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0009355284108404281</v>
+      <c r="B11" t="n">
+        <v>29.89796118273029</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001069459476196685</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.533074500049</v>
+        <v>1466.6887742217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08051395829755835</v>
+        <v>0.0689855416616732</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.66305628971531</v>
+        <v>54.11689282407082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02186582697789344</v>
+        <v>0.04980684142713858</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.6355850234683</v>
+        <v>200.4362847877421</v>
       </c>
       <c r="C4" t="n">
-        <v>3.349662911319436e-26</v>
+        <v>9.947443106324586e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4371,75 +4696,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01268109497699296</v>
+        <v>-0.01877422318045267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3158516078319665</v>
+        <v>0.1077486856686206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.625726100533108e-05</v>
+        <v>-15.2449765861014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4723607267011193</v>
+        <v>0.01290995873542183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.19643329288116</v>
+        <v>-1.276485389274583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01722067929824208</v>
+        <v>0.6622982233521725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434.0851567323532</v>
+        <v>-626.8198235471482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2207278574048183</v>
+        <v>0.1540742371201097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7459.661882890302</v>
+        <v>347.6774518219922</v>
       </c>
       <c r="C9" t="n">
-        <v>4.867837802912503e-06</v>
+        <v>0.3358316441629128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7595.034981482647</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.354298109007495e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.82713543308188</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0009786814006137699</v>
+      <c r="B11" t="n">
+        <v>29.16185942065821</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0008277062276868873</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.794145636781</v>
+        <v>2696.003818303991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0115958522607733</v>
+        <v>0.0004256649327678609</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.63616023335214</v>
+        <v>64.33067569109267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02718589262173272</v>
+        <v>0.02662209228914653</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.8987243125129</v>
+        <v>227.1289109972072</v>
       </c>
       <c r="C4" t="n">
-        <v>6.977137426707363e-30</v>
+        <v>9.307241659632079e-32</v>
       </c>
     </row>
     <row r="5">
@@ -4524,75 +4862,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002222850747158195</v>
+        <v>-0.001190386789084535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9849711863106843</v>
+        <v>0.912392344896904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.307177601409103e-06</v>
+        <v>-21.87489547285301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7394081589321553</v>
+        <v>0.0001409921475484414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.41237762510518</v>
+        <v>-6.716195369220669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00487755409221768</v>
+        <v>0.008504916571220803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.94576420828275</v>
+        <v>-189.6423377411863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9719459296651969</v>
+        <v>0.6655129575259071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5669.369258090537</v>
+        <v>-40.7275977976804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008691286432167287</v>
+        <v>0.9055886744960346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5519.244601302395</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0007424582561655005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.52461918836264</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003204491923213586</v>
+      <c r="B11" t="n">
+        <v>23.94187121969571</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002898131091479606</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4638,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.500183729211</v>
+        <v>2694.729722183034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01087361474139418</v>
+        <v>0.0008552736705015571</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.16210177094652</v>
+        <v>33.44628177623946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1186863893052416</v>
+        <v>0.2690125911428478</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.5102019840938</v>
+        <v>206.9198366704414</v>
       </c>
       <c r="C4" t="n">
-        <v>1.541830534715212e-21</v>
+        <v>7.362712545393772e-23</v>
       </c>
     </row>
     <row r="5">
@@ -4677,75 +5028,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002624813498453678</v>
+        <v>-0.008869329142706578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8536644299456447</v>
+        <v>0.4840798529619087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.268127410751774e-05</v>
+        <v>-26.68415440720712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3048436039076248</v>
+        <v>8.058057517549117e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.81974803564571</v>
+        <v>-5.804693683663084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001187756474087976</v>
+        <v>0.03709492452843452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>480.4465319342293</v>
+        <v>-512.7317613588525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1858441122657293</v>
+        <v>0.3025088912385052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6340.125407947046</v>
+        <v>431.8571653858871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004083039796772666</v>
+        <v>0.2358192590833937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6291.759290130146</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000366978519065234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.86711753492859</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00467427831125877</v>
+      <c r="B11" t="n">
+        <v>26.24543941839616</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003630202004906258</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4791,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.4653165939853</v>
+        <v>1692.572745033483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2343792769465277</v>
+        <v>0.03048832274590832</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.497165690397</v>
+        <v>90.21228387625665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004864580372774392</v>
+        <v>0.003781489872857579</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7712949341282</v>
+        <v>199.1257279212701</v>
       </c>
       <c r="C4" t="n">
-        <v>6.483375071936258e-25</v>
+        <v>5.639019306737991e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4830,75 +5194,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01034460544191206</v>
+        <v>-0.01866781961967805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4154785514486261</v>
+        <v>0.1266437012411476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.575169379330601e-05</v>
+        <v>-19.93750717141637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4474168417481913</v>
+        <v>0.0007183564501745439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.62398367724728</v>
+        <v>-4.078805567167063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006330778010957082</v>
+        <v>0.1293130549811452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.7077776819826</v>
+        <v>-790.9433864589525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.290278441913896</v>
+        <v>0.1046549539198942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9498.82002923455</v>
+        <v>262.4973374425431</v>
       </c>
       <c r="C9" t="n">
-        <v>1.24094120731141e-07</v>
+        <v>0.4485979514461232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9527.477515609213</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.182947111942236e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.02811894776778</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001360820424291385</v>
+      <c r="B11" t="n">
+        <v>27.80412779615168</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00128936964304969</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.651087178061</v>
+        <v>1799.392730350366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08566911705671579</v>
+        <v>0.01672597534515502</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.43013553537865</v>
+        <v>50.31703978587947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03034595758251031</v>
+        <v>0.0756522509373157</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.5787653651693</v>
+        <v>216.0763610342626</v>
       </c>
       <c r="C4" t="n">
-        <v>1.192377867766095e-26</v>
+        <v>2.395990874510164e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4983,75 +5360,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005158561501455293</v>
+        <v>-0.01333597673646007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6886684606454629</v>
+        <v>0.271138063085773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.022942978990098e-05</v>
+        <v>-16.54359913299277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342099174014839</v>
+        <v>0.004720277346010039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.53078104659763</v>
+        <v>-3.735619171003292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02732166819400278</v>
+        <v>0.1658087434008499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.10057769210675</v>
+        <v>-644.6379769462756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8180787898413702</v>
+        <v>0.1828481894819773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7763.31134177734</v>
+        <v>-1.256229281946389</v>
       </c>
       <c r="C9" t="n">
-        <v>3.404785265899122e-06</v>
+        <v>0.9971864754892023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7825.73652723232</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.420904836346971e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.78407566461298</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001006644632823855</v>
+      <c r="B11" t="n">
+        <v>29.07433919211064</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0008069447013961735</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.221609430929</v>
+        <v>2333.405378677445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0146833802437894</v>
+        <v>0.006040859405493715</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.77363179639479</v>
+        <v>35.84483226168229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09216507112764886</v>
+        <v>0.1979565236685714</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.1340430837724</v>
+        <v>201.2670228070717</v>
       </c>
       <c r="C4" t="n">
-        <v>6.751684504319523e-24</v>
+        <v>2.527163973043349e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5136,75 +5526,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002320175501771726</v>
+        <v>-0.007253011529891631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8492695728418206</v>
+        <v>0.528493235895964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.88438711522859e-05</v>
+        <v>-19.10444588327785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3314373758966935</v>
+        <v>0.002706496072637543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.52465803532185</v>
+        <v>-3.600466975361154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009068948618789379</v>
+        <v>0.2443747820117484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.19660836106712</v>
+        <v>-583.7927224959167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8897915090191598</v>
+        <v>0.1928965738210248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5722.283751631245</v>
+        <v>-66.12841126080804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009786463822402326</v>
+        <v>0.853183464112139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5631.215861339266</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0009896831789616622</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.80068659596241</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004529292610331288</v>
+      <c r="B11" t="n">
+        <v>29.35539501291548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0004885077984975221</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5250,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1332.345401843748</v>
+        <v>2043.383248617111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04157898477858447</v>
+        <v>0.01379640876376708</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.77449216932534</v>
+        <v>76.38656303059267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004289529601883551</v>
+        <v>0.01153856587995512</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.5918822679194</v>
+        <v>204.7930116184318</v>
       </c>
       <c r="C4" t="n">
-        <v>3.525601807667864e-25</v>
+        <v>1.008236218145374e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5289,75 +5692,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01074435633568771</v>
+        <v>-0.01229688175906017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4599957652921163</v>
+        <v>0.3299305276354836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.082429382651031e-06</v>
+        <v>-26.16956149555625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9670825794399661</v>
+        <v>2.678426593155343e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.97394820257855</v>
+        <v>-3.703021166849203</v>
       </c>
       <c r="C7" t="n">
-        <v>6.109768955345076e-05</v>
+        <v>0.1800345837036501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>641.5024945736077</v>
+        <v>-294.5176814599388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07158707823409413</v>
+        <v>0.528945976871305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6748.441957725261</v>
+        <v>597.2991450982671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000138570040717522</v>
+        <v>0.09483864369412963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6834.933075944613</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001010260791665175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.23230549439467</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002156337034617683</v>
+      <c r="B11" t="n">
+        <v>28.446127198662</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001920582641637569</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.2656129685606</v>
+        <v>1988.211648993362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09687123883042546</v>
+        <v>0.005397211013339873</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.2985889420599</v>
+        <v>58.96305120457052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04964177637913898</v>
+        <v>0.06172592500563757</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.4625184033789</v>
+        <v>215.540089939492</v>
       </c>
       <c r="C4" t="n">
-        <v>2.525485253031734e-26</v>
+        <v>1.002485444128766e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5442,75 +5858,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009036414006514438</v>
+        <v>-0.01225208251593697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4776325671876823</v>
+        <v>0.2947458194416711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.456476264344799e-05</v>
+        <v>-19.18960362280222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4518186366076266</v>
+        <v>0.0009918651944365942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.34907926952052</v>
+        <v>-6.30037161119786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0187690776320585</v>
+        <v>0.01211218182401198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.5723467632843</v>
+        <v>-245.7596106879332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5689392964369953</v>
+        <v>0.5570490662922458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9163.153276319237</v>
+        <v>136.8467647346922</v>
       </c>
       <c r="C9" t="n">
-        <v>3.590449325169197e-08</v>
+        <v>0.6886149837411479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9116.163883004585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.785989923236237e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.77838404403126</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00235366607067946</v>
+      <c r="B11" t="n">
+        <v>24.89413490780181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001842755602572612</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.522105092336</v>
+        <v>2083.402773341705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04068242633152628</v>
+        <v>0.007743882885487969</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.20518077907326</v>
+        <v>34.71879233839627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1352059522170578</v>
+        <v>0.2365583476953622</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.085532315194</v>
+        <v>221.5654297885953</v>
       </c>
       <c r="C4" t="n">
-        <v>9.380244359198958e-28</v>
+        <v>4.841892390440722e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5595,75 +6024,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002942052584534331</v>
+        <v>-0.006628214520425658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8145738151474401</v>
+        <v>0.5718891494668827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.106271934500627e-06</v>
+        <v>-21.68680634917497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6943356457265895</v>
+        <v>0.0005530416489199222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.72009381115815</v>
+        <v>-4.109305639736473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003233874066639696</v>
+        <v>0.1313199372964809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.3612929237592</v>
+        <v>-467.9410650929876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7114735312979666</v>
+        <v>0.3094729972530932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6796.944664497597</v>
+        <v>65.49138006786131</v>
       </c>
       <c r="C9" t="n">
-        <v>7.459903682985253e-05</v>
+        <v>0.8449927090850046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6918.305113538786</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.354509661924295e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.58365562187588</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001132491554853811</v>
+      <c r="B11" t="n">
+        <v>28.67669774872658</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0009087943789304404</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1161.632545601166</v>
+        <v>2378.721297197003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08676783758954099</v>
+        <v>0.006269989384759421</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.52937992209544</v>
+        <v>50.21217662471165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02767197011098941</v>
+        <v>0.09238707765361054</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6174249141012</v>
+        <v>210.4678074260845</v>
       </c>
       <c r="C4" t="n">
-        <v>7.903181549651804e-26</v>
+        <v>2.12067787863212e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5748,75 +6190,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006356691571023691</v>
+        <v>-0.01520942288934297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6327477459635269</v>
+        <v>0.2127609075272863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.301226648671399e-05</v>
+        <v>-20.76438649781542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5354747274913634</v>
+        <v>0.001146438426526057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.84931369315717</v>
+        <v>-6.024762017175888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01452456307539664</v>
+        <v>0.0676327121050166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>486.9231157331672</v>
+        <v>-722.6578477386036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1748413787632286</v>
+        <v>0.1466145658005504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7236.858111276217</v>
+        <v>472.1522280039862</v>
       </c>
       <c r="C9" t="n">
-        <v>5.426630144820759e-05</v>
+        <v>0.1954585228227428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7571.847364491939</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.764705287070326e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.53601095859197</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008328565177089343</v>
+      <c r="B11" t="n">
+        <v>24.05184321009497</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01017263791890576</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1170.680948384978</v>
+        <v>2369.576307573211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05809055139746445</v>
+        <v>0.001843252768314551</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.61620411074864</v>
+        <v>46.5589399344413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01751606082364084</v>
+        <v>0.09068151113059449</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.4205698809192</v>
+        <v>200.7078576627442</v>
       </c>
       <c r="C4" t="n">
-        <v>3.758522514082698e-25</v>
+        <v>1.070971609728733e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5901,75 +6356,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002106875691397933</v>
+        <v>-0.008650051341783885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8750358717313891</v>
+        <v>0.4500880386195071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.13035549730974e-06</v>
+        <v>-22.70235371364262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7039612742394967</v>
+        <v>0.0001120483621358763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.62975952993151</v>
+        <v>-5.444827568176917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003463700021214924</v>
+        <v>0.04051474835818548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.4987187811714</v>
+        <v>-1134.059060452623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5785253286151183</v>
+        <v>0.01647718421146185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7341.683690205204</v>
+        <v>-5.395223523613595</v>
       </c>
       <c r="C9" t="n">
-        <v>3.039994358105722e-05</v>
+        <v>0.9877032983937567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7955.526905535562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.655366180452418e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.76066810198299</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001616580417748171</v>
+      <c r="B11" t="n">
+        <v>29.26680321913624</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.000582009786679061</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.820318737558</v>
+        <v>1427.858620321664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03355609279677607</v>
+        <v>0.1075971657123346</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.41400149044406</v>
+        <v>47.82714928370655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1174818239595963</v>
+        <v>0.134122013356304</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.102977737823</v>
+        <v>189.9843418976441</v>
       </c>
       <c r="C4" t="n">
-        <v>1.213000365965756e-20</v>
+        <v>4.683702774087025e-21</v>
       </c>
     </row>
     <row r="5">
@@ -6054,75 +6522,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01313175618869168</v>
+        <v>-0.02272195256255388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3005144020708864</v>
+        <v>0.06437107887331177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.561445953492181e-05</v>
+        <v>-14.84680455059585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.073222045208583</v>
+        <v>0.02521149478743904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.48652744985004</v>
+        <v>0.3496092498992107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01203915097512615</v>
+        <v>0.9127884981269252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.7440827331823</v>
+        <v>-303.5437473571515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09037022944372113</v>
+        <v>0.5106009026411921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7362.191091422457</v>
+        <v>597.9085661960692</v>
       </c>
       <c r="C9" t="n">
-        <v>2.143070063841112e-05</v>
+        <v>0.107621355251604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6897.432448947256</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.378313305002386e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.97205530022767</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001084019254181263</v>
+      <c r="B11" t="n">
+        <v>26.87813524394724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0024606708722927</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1165.379523133226</v>
+        <v>2337.264783636915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04450917199486033</v>
+        <v>0.001573390260620377</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.41617357891647</v>
+        <v>61.25929679955053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01458412815538309</v>
+        <v>0.03897181553700077</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.6658536677602</v>
+        <v>222.2335077822544</v>
       </c>
       <c r="C4" t="n">
-        <v>1.034329644835963e-28</v>
+        <v>1.025732268780448e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6207,75 +6688,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006321230049466112</v>
+        <v>-0.0006140245157809504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6196629988474415</v>
+        <v>0.9584059537415721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.155563639231723e-05</v>
+        <v>-21.1424982104143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5734968896025439</v>
+        <v>0.0001580126423173622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.35438376943056</v>
+        <v>-5.70638552812671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004134439836586851</v>
+        <v>0.02607760193100863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-85.00888102669416</v>
+        <v>-756.8824366140257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7958984756377462</v>
+        <v>0.09666873036934624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6917.011388807408</v>
+        <v>-214.9964739855952</v>
       </c>
       <c r="C9" t="n">
-        <v>1.91408394408404e-05</v>
+        <v>0.5138269317916628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6975.386554053904</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.484299535142486e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.57242199668531</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001156116225408127</v>
+      <c r="B11" t="n">
+        <v>27.40700130212337</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0006362248414591191</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>925.3637678724656</v>
+        <v>1888.169943555687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1392031369842749</v>
+        <v>0.01692504349187409</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.19813724538017</v>
+        <v>52.2207452988775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02416396973905215</v>
+        <v>0.07023816693662113</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.8272624768101</v>
+        <v>227.4315375375343</v>
       </c>
       <c r="C4" t="n">
-        <v>7.355293040090556e-28</v>
+        <v>1.444516131820769e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6360,75 +6854,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01228150250469433</v>
+        <v>-0.01690945787586537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3388155759653907</v>
+        <v>0.1563838791586977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.360544960921305e-05</v>
+        <v>-18.85657486305363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5105548618467028</v>
+        <v>0.001898964704782206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.13076486513123</v>
+        <v>-7.01527106043498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02289663961969185</v>
+        <v>0.03128059945417151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>444.4775429589844</v>
+        <v>-94.05726564329757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2035619581947926</v>
+        <v>0.8357178140879958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8147.569614216049</v>
+        <v>511.8286165022766</v>
       </c>
       <c r="C9" t="n">
-        <v>3.733821709319751e-06</v>
+        <v>0.1459331762567446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8601.305528707569</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.150958315893427e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.27497916197331</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002227126001184634</v>
+      <c r="B11" t="n">
+        <v>26.81011808920188</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001637947849773361</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1436.277217854064</v>
+        <v>2304.581905339629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02852139723910671</v>
+        <v>0.004559699194046598</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.99363851527833</v>
+        <v>63.08878104354876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01527766934677536</v>
+        <v>0.02971355202390289</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.0668976817121</v>
+        <v>204.8491432418562</v>
       </c>
       <c r="C4" t="n">
-        <v>5.915413514940761e-25</v>
+        <v>4.654437749873966e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6513,75 +7020,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009303050555684006</v>
+        <v>-0.01060470544253271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4889727653843625</v>
+        <v>0.3823946211415946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.211770051638052e-06</v>
+        <v>-23.61447379214069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9175032572608564</v>
+        <v>0.0003024470230302564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.62007306473046</v>
+        <v>-5.132365693174727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002351625378666058</v>
+        <v>0.05885401520478848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.9983078643263</v>
+        <v>-164.4865871021957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4229269361802521</v>
+        <v>0.7272806510851368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6548.531099736784</v>
+        <v>295.2380097368632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001898642290200173</v>
+        <v>0.4180370496499012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6671.610124419002</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001139071851138803</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.51921417495639</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004624505192690867</v>
+      <c r="B11" t="n">
+        <v>27.81332055006216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003472856885582588</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1065.574026547983</v>
+        <v>2144.376128031301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08457710211895782</v>
+        <v>0.004664606101695669</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.6140101862517</v>
+        <v>61.09056027140898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005454459769167956</v>
+        <v>0.02145851884331035</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6144084780061</v>
+        <v>203.8565821179577</v>
       </c>
       <c r="C4" t="n">
-        <v>1.268238244679623e-27</v>
+        <v>6.307944465111973e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6666,75 +7186,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007250151813821857</v>
+        <v>-0.01214779415174493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.571137853877274</v>
+        <v>0.2767413084278088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.196920663568511e-06</v>
+        <v>-21.18009018485478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7330848528211145</v>
+        <v>0.0002417180335730536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.41232481781869</v>
+        <v>-4.700136187915227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005281700773934493</v>
+        <v>0.06876334025554771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3072689584665</v>
+        <v>-970.3905064179571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7414211013539105</v>
+        <v>0.04279873553753253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8656.867391555534</v>
+        <v>-21.38594912770259</v>
       </c>
       <c r="C9" t="n">
-        <v>1.048676084465614e-06</v>
+        <v>0.9485885663900064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8931.455858231609</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.63342605567681e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.46010009514329</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004187263395707672</v>
+      <c r="B11" t="n">
+        <v>26.5324845482766</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002026910488859231</v>
       </c>
     </row>
   </sheetData>
@@ -6748,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6780,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1729.136455260832</v>
+        <v>2530.918774844367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008313999043579118</v>
+        <v>0.002293477760186049</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.86835800604554</v>
+        <v>57.12374074304635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01900342351980057</v>
+        <v>0.04924010817099483</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.8387880590222</v>
+        <v>211.1471160043681</v>
       </c>
       <c r="C4" t="n">
-        <v>1.986493864666721e-24</v>
+        <v>1.513798929881691e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6819,75 +7352,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00249478089910549</v>
+        <v>-0.008606764291935437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8493566694909639</v>
+        <v>0.4799955258912686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.650935527662473e-05</v>
+        <v>-22.84804226343007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4328812892951919</v>
+        <v>0.0001962858475597516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.44966566976279</v>
+        <v>-4.528174652711222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00126768689718164</v>
+        <v>0.09731968046292835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.1561742074955</v>
+        <v>-310.8774789130798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.301572410404348</v>
+        <v>0.5015482351283795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5923.097159628375</v>
+        <v>358.6963634152407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000926729539663869</v>
+        <v>0.3330033360152137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6072.671013368406</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0006663703501245097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.63655593098562</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01619155226004115</v>
+      <c r="B11" t="n">
+        <v>20.90819609176657</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01834150748575494</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.797689961811</v>
+        <v>2039.841051352815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09751568035689454</v>
+        <v>0.007775225667326907</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.84725419388199</v>
+        <v>46.20569047150953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05557926729911117</v>
+        <v>0.1080733478035407</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.3534690990171</v>
+        <v>211.7647904719785</v>
       </c>
       <c r="C4" t="n">
-        <v>4.869702619760241e-25</v>
+        <v>6.484733923680401e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6972,75 +7518,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00717505618770329</v>
+        <v>-0.009025061478163208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5836025479972826</v>
+        <v>0.4505459970441583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.549562332816973e-06</v>
+        <v>-21.08279607983228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8110131728472006</v>
+        <v>0.0002904053098394354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.78369826502678</v>
+        <v>-6.056427169731814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005005074084274345</v>
+        <v>0.02000550809759197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.6138246299713</v>
+        <v>-284.7861738964353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4680099584986158</v>
+        <v>0.5289821814080202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7401.351630293364</v>
+        <v>194.0635231421448</v>
       </c>
       <c r="C9" t="n">
-        <v>1.374065135820994e-05</v>
+        <v>0.5959165768089157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7599.141119154656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.754351576781041e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>31.50273499919179</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0003136970691915073</v>
+      <c r="B11" t="n">
+        <v>32.31792758433335</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001705546471609154</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7086,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1226.432915559333</v>
+        <v>977.0684333959084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04291585752733613</v>
+        <v>0.2533044306406424</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.46424704006573</v>
+        <v>56.49774303205622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08491285926350615</v>
+        <v>0.08652719875411612</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.3957162068591</v>
+        <v>202.2519283642041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.253607670665498e-23</v>
+        <v>1.153158712188511e-23</v>
       </c>
     </row>
     <row r="5">
@@ -7125,75 +7684,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00910902694566159</v>
+        <v>-0.01630927634289431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4832762870546231</v>
+        <v>0.1722258922492329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.363647464022665e-05</v>
+        <v>-13.67396060285251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2569486512271354</v>
+        <v>0.05841776663584485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.05509660997097</v>
+        <v>1.601321183680859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008790731017894101</v>
+        <v>0.6257661498231275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.1663922359241</v>
+        <v>-96.90028074262409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1877262030960632</v>
+        <v>0.8296814828018709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7431.605507313711</v>
+        <v>474.6190097015105</v>
       </c>
       <c r="C9" t="n">
-        <v>8.97755658259495e-06</v>
+        <v>0.1903819680071567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7121.401740103969</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.803004553900721e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.21052350476317</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001254473308336655</v>
+      <c r="B11" t="n">
+        <v>27.40443325339346</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001790742998066193</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7239,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1237.96476062956</v>
+        <v>2187.787313482552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03256696555245224</v>
+        <v>0.002192948960843877</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.79611586282533</v>
+        <v>53.20682621520508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01521150663986652</v>
+        <v>0.04297327275184885</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0276299407137</v>
+        <v>206.6430302164416</v>
       </c>
       <c r="C4" t="n">
-        <v>2.384165069461359e-27</v>
+        <v>9.49490357797805e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7278,75 +7850,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003079508821288098</v>
+        <v>-0.007665645070365212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8162638656914708</v>
+        <v>0.50708725506924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.234165410449479e-05</v>
+        <v>-19.87179272580645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5495701997177256</v>
+        <v>0.000405630730171038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.84861008547692</v>
+        <v>-5.297481050787161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005735319488331459</v>
+        <v>0.03644872636143934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116.5222549942882</v>
+        <v>-456.7906146891132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7219743737781967</v>
+        <v>0.2864647549368971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7261.022736949805</v>
+        <v>52.99974733389297</v>
       </c>
       <c r="C9" t="n">
-        <v>1.227684223683595e-05</v>
+        <v>0.8730117206896959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7305.34324676568</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.05752130182745e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.85595694862693</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0009856659085962529</v>
+      <c r="B11" t="n">
+        <v>27.6649549241437</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005842982525404877</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7392,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1023.442548954315</v>
+        <v>2558.821166166797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0987882774928322</v>
+        <v>0.001450794825967958</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.36019475426875</v>
+        <v>51.62140036550048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02300020183797821</v>
+        <v>0.08484865983374693</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.8139708104418</v>
+        <v>217.3979675844768</v>
       </c>
       <c r="C4" t="n">
-        <v>1.170733746975713e-26</v>
+        <v>2.75802552296178e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7431,75 +8016,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005901987650511531</v>
+        <v>-0.01477172371454799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6617780637351067</v>
+        <v>0.2391771270081589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.600231776033065e-05</v>
+        <v>-20.64125279902224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4313395577435988</v>
+        <v>0.0004546698259589934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.11823733716303</v>
+        <v>-8.149949831331883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02200988878314693</v>
+        <v>0.009840858493133669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.8317395513527</v>
+        <v>-958.7367046831248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6130380209645755</v>
+        <v>0.04513209758935936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7247.67544257034</v>
+        <v>110.2284933437795</v>
       </c>
       <c r="C9" t="n">
-        <v>2.605574610153898e-05</v>
+        <v>0.742791822846919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7594.207634828686</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.597966384566821e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.59222578211866</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001314411509814724</v>
+      <c r="B11" t="n">
+        <v>28.37388775027476</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0009796685422018619</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7545,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380.654542179761</v>
+        <v>2470.606278961306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03084504058091617</v>
+        <v>0.002626795706501613</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.81605729333484</v>
+        <v>59.97745856401485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01254599428451267</v>
+        <v>0.04569497718325365</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.9625413860008</v>
+        <v>205.460004166323</v>
       </c>
       <c r="C4" t="n">
-        <v>1.250385294298153e-25</v>
+        <v>7.293285821383874e-26</v>
       </c>
     </row>
     <row r="5">
@@ -7584,75 +8182,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002521674251191949</v>
+        <v>-0.008121536804245814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8479389041889527</v>
+        <v>0.4988325759809857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.600860560296194e-05</v>
+        <v>-23.51712141452366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2019727504479401</v>
+        <v>0.0001698508056817341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.28302425329489</v>
+        <v>-5.252228336524203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002953449698696865</v>
+        <v>0.05838539701363675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.340498035162</v>
+        <v>-639.1962004570337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4580545075184579</v>
+        <v>0.1524726280028191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6406.569083965251</v>
+        <v>227.3994856914178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002765594226565497</v>
+        <v>0.5237827260908552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6240.490025942968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0003223670353201446</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.94159636406884</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001738172357649283</v>
+      <c r="B11" t="n">
+        <v>27.54192049082921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001823723499720826</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.746362660156</v>
+        <v>1322.722392179005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03743346416710001</v>
+        <v>0.1056827901664201</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.5854482327114</v>
+        <v>50.38220694400583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09540266689383317</v>
+        <v>0.1233976139338894</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.4833220923199</v>
+        <v>194.0952894228554</v>
       </c>
       <c r="C4" t="n">
-        <v>2.979049722088841e-24</v>
+        <v>4.114963830492689e-24</v>
       </c>
     </row>
     <row r="5">
@@ -7737,75 +8348,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01483429056211609</v>
+        <v>-0.01929835312093367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2606910602271468</v>
+        <v>0.1221255194415908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.270420495237864e-05</v>
+        <v>-11.12353666543124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5214424909113637</v>
+        <v>0.07502654473212877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.63689211870024</v>
+        <v>0.3154065587999675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0370570250499643</v>
+        <v>0.9180485005618805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.4491309295872</v>
+        <v>-367.2509307661353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2852854707451459</v>
+        <v>0.4666294536083937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7468.168895256465</v>
+        <v>336.5422881323775</v>
       </c>
       <c r="C9" t="n">
-        <v>1.281319879733486e-05</v>
+        <v>0.3332982487437888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7474.127164001615</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.289539061769425e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.34848077139905</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003408924765761752</v>
+      <c r="B11" t="n">
+        <v>25.03751655008593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003655172773603123</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.473393571187</v>
+        <v>2020.19443697515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05910194145755056</v>
+        <v>0.007484522439412276</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.62473173678978</v>
+        <v>49.47212774005729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02724095818392924</v>
+        <v>0.08097305734240855</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.4096848020835</v>
+        <v>223.594894021592</v>
       </c>
       <c r="C4" t="n">
-        <v>3.477431075557686e-28</v>
+        <v>3.500730009701123e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7890,75 +8514,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001775659830495012</v>
+        <v>-0.009987970791401443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8895322403599099</v>
+        <v>0.3956621983924151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.207596954489097e-05</v>
+        <v>-16.13942174420504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2794192435263627</v>
+        <v>0.007649055686881643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.67788201126191</v>
+        <v>-4.1933822112992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04845647361635831</v>
+        <v>0.1172860280017919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.74898964540102</v>
+        <v>-664.9541917548017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8375295429392875</v>
+        <v>0.1311665573948614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7300.605881888974</v>
+        <v>-41.61823598332444</v>
       </c>
       <c r="C9" t="n">
-        <v>1.669463146930005e-05</v>
+        <v>0.9063853303865578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7299.869897526418</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.24281350815469e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.47193061190774</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004144316042977185</v>
+      <c r="B11" t="n">
+        <v>24.52742948021888</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003598897660737683</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8004,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1102.56825938761</v>
+        <v>2389.72212700362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05826280320879598</v>
+        <v>0.001169927185553027</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.25041252172416</v>
+        <v>35.81612298468488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623893716986855</v>
+        <v>0.1754068808492236</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.2822330276692</v>
+        <v>221.9283233972806</v>
       </c>
       <c r="C4" t="n">
-        <v>5.363916617548508e-28</v>
+        <v>3.765097298991488e-29</v>
       </c>
     </row>
     <row r="5">
@@ -8043,75 +8680,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01690708947237783</v>
+        <v>-0.006420487042723598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1742326529300441</v>
+        <v>0.541800140029399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.625452347044407e-05</v>
+        <v>-29.56341788530696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143733695615083</v>
+        <v>7.218932820724435e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.2742211477999</v>
+        <v>-7.736383997953769</v>
       </c>
       <c r="C7" t="n">
-        <v>2.313917617462258e-05</v>
+        <v>0.002083136802699711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.6337157055102</v>
+        <v>-3.648750324618049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1888229587038591</v>
+        <v>0.9934277901698463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7165.681696337059</v>
+        <v>353.0098669403228</v>
       </c>
       <c r="C9" t="n">
-        <v>1.019427578216019e-05</v>
+        <v>0.3146111695803808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7486.950339397068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.171961726780853e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>30.40003364422459</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0002636280497516605</v>
+      <c r="B11" t="n">
+        <v>32.3566234923009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.20519150921188e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Berlin.xlsx
+++ b/outputs/ML_Results/dist_LR/Berlin.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ17420204" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17583482" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17690995" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17795961" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17910477" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18021826" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ18122840" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18222847" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ18323861" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ18427588" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ18537380" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ18656237" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ18758834" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ18883313" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ18986825" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ19087334" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ19188843" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ19293353" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ19405379" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ19527224" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ19635735" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ19739292" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ19843134" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19957296" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ20092474" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ20200289" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ20306799" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ20432534" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ20537458" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ20641089" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ20746727" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ20848315" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ20957189" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ21075516" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ21180435" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ21296759" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ21453314" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ21560746" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ21675702" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ21791576" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ21895314" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ21994823" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ22104752" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ22227221" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ22336731" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ22439948" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ22540068" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ22640260" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ22747071" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ22867607" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ08539868" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ08652470" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08749980" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08848490" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08947002" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ09045511" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09147021" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09246531" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09345149" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09443876" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ09546384" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ09644410" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ09739967" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ09838717" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ09938052" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ10051278" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ10163728" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ10274619" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ10374642" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ10473156" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ10570660" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ10667180" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ10764693" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ10863473" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ10962105" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ11061619" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ11159009" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ11255738" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ11353252" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ11456123" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ11553633" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ11651148" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ11751634" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ11850126" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ11947640" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ12046843" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ12145355" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ12243866" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ12341434" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ12437437" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ12533950" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ12633020" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ12734305" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ12830262" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ12927777" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ13026294" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ13126321" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ13224528" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ13321035" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ13418151" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.390712784837</v>
+        <v>1845.390712784865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03279802773874333</v>
+        <v>0.03279802773873931</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.29371445162212</v>
+        <v>46.29371445161965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1347520112638676</v>
+        <v>0.1347520112638672</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.2882284608109</v>
+        <v>200.2882284608197</v>
       </c>
       <c r="C4" t="n">
-        <v>3.134708254849071e-23</v>
+        <v>3.134708254835594e-23</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02264959475414539</v>
+        <v>-2.26495947540986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06970496556168908</v>
+        <v>0.06970496556225948</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.37026226723573</v>
+        <v>-14.3702622672356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02998429218840842</v>
+        <v>0.02998429218840973</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4929636732082265</v>
+        <v>-0.4929636732081342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8725029628782777</v>
+        <v>0.8725029628783014</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-377.2636578281927</v>
+        <v>-3.772636578281929</v>
       </c>
       <c r="C8" t="n">
         <v>0.4558844624828524</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.2764979324411</v>
+        <v>5.27276497932435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1568083852810361</v>
+        <v>0.156808385281041</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6444.832961919512</v>
+        <v>64.44832961919498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001891613742540698</v>
+        <v>0.000189161374254074</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.3752088564766</v>
+        <v>20.37520885647658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02620410017653633</v>
+        <v>0.02620410017653653</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2187.307314002357</v>
+        <v>2187.307314002463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0102290525141186</v>
+        <v>0.01022905251411399</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.7241685374448</v>
+        <v>66.72416853743275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02624200627757213</v>
+        <v>0.02624200627757019</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8630423967929</v>
+        <v>201.8630423967971</v>
       </c>
       <c r="C4" t="n">
-        <v>3.476916771291899e-24</v>
+        <v>3.476916771282873e-24</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01822571130959732</v>
+        <v>-1.82257113095335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1645051226503991</v>
+        <v>0.1645051226518646</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.75758863871327</v>
+        <v>-20.75758863871331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007070557574129065</v>
+        <v>0.0007070557574128852</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.299023269758578</v>
+        <v>-5.299023269758703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1067785842153662</v>
+        <v>0.1067785842153582</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-616.2491341178356</v>
+        <v>-6.162491341178447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2077208351938537</v>
+        <v>0.2077208351938452</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.1524677054174</v>
+        <v>3.551524677054136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3221376101331931</v>
+        <v>0.3221376101331977</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8216.220402419916</v>
+        <v>82.1622040241992</v>
       </c>
       <c r="C10" t="n">
         <v>3.793829138792318e-06</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.03833192910242</v>
+        <v>26.03833192910227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005555037581304448</v>
+        <v>0.005555037581304738</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2511.716057222622</v>
+        <v>2511.716057222689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004882783392661024</v>
+        <v>0.0004882783392658342</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.08474628025361</v>
+        <v>37.08474628025812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1666446614808245</v>
+        <v>0.1666446614808241</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.1651513104488</v>
+        <v>223.1651513104495</v>
       </c>
       <c r="C4" t="n">
-        <v>2.504099444418129e-29</v>
+        <v>2.504099444414928e-29</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007748817117154923</v>
+        <v>-0.7748817117107922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4887647259991069</v>
+        <v>0.4887647260017394</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.52766429095835</v>
+        <v>-17.52766429095841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001371572927169701</v>
+        <v>0.001371572927169636</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.53842640448265</v>
+        <v>-5.538426404482644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02526682126819496</v>
+        <v>0.02526682126819488</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1011.565753333868</v>
+        <v>-10.11565753333873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04067871205271698</v>
+        <v>0.04067871205271622</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10.54366433349696</v>
+        <v>-0.1054366433350076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9738902325112068</v>
+        <v>0.9738902325111974</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6252.028945731456</v>
+        <v>62.52028945731452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001162226022224432</v>
+        <v>0.0001162226022224428</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.16285298437084</v>
+        <v>24.16285298437091</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001843395858535234</v>
+        <v>0.001843395858535172</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2404.70676334145</v>
+        <v>2404.706763341657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002329483488024305</v>
+        <v>0.002329483488021104</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.15397481153698</v>
+        <v>45.15397481151521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2228923421537604</v>
+        <v>0.2228923421537145</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.9311937423437</v>
+        <v>202.9311937423418</v>
       </c>
       <c r="C4" t="n">
-        <v>1.203543247113349e-23</v>
+        <v>1.203543247113711e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01655155682145076</v>
+        <v>-1.655155682141459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1856986742967349</v>
+        <v>0.1856986742976349</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.65653748224807</v>
+        <v>-26.65653748224832</v>
       </c>
       <c r="C6" t="n">
-        <v>3.720994833714318e-05</v>
+        <v>3.720994833713552e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.268735721876088</v>
+        <v>-6.268735721876112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0248890907267355</v>
+        <v>0.02488909072673516</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-634.7894376006207</v>
+        <v>-6.347894376006119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1602998013395908</v>
+        <v>0.1602998013395961</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>365.8152236234866</v>
+        <v>3.658152236234832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3413904144920062</v>
+        <v>0.3413904144920105</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7729.928899992987</v>
+        <v>77.29928899992976</v>
       </c>
       <c r="C10" t="n">
-        <v>8.927591995133622e-06</v>
+        <v>8.927591995134055e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.42582783951983</v>
+        <v>31.42582783951985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000304381147542071</v>
+        <v>0.0003043811475420749</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1809142465236</v>
+        <v>863.1809142464135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3002379394423464</v>
+        <v>0.3002379394424152</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.50398613442994</v>
+        <v>77.50398613445893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005383924053145095</v>
+        <v>0.005383924053144776</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.4820011235015</v>
+        <v>197.4820011234973</v>
       </c>
       <c r="C4" t="n">
-        <v>2.91817365034413e-25</v>
+        <v>2.918173650352327e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01707067534662602</v>
+        <v>-1.707067534657754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1456871748847395</v>
+        <v>0.1456871748858709</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.36057639694723</v>
+        <v>-12.36057639694719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05355672853343069</v>
+        <v>0.05355672853343123</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8896352332523065</v>
+        <v>0.8896352332523101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7720424152163293</v>
+        <v>0.7720424152163279</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-339.8029080041308</v>
+        <v>-3.398029080041363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4546650476215601</v>
+        <v>0.454665047621552</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.4764927478607</v>
+        <v>3.354764927478604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3283456972853792</v>
+        <v>0.3283456972853788</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8476.064438426107</v>
+        <v>84.76064438426096</v>
       </c>
       <c r="C10" t="n">
-        <v>4.732310138970475e-07</v>
+        <v>4.732310138970772e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1291,7 +1291,7 @@
         <v>28.00846553665861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001071069019994858</v>
+        <v>0.00107106901999488</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2146.946291378707</v>
+        <v>2146.946291378441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006971104045827304</v>
+        <v>0.006971104045836091</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.10479273913541</v>
+        <v>63.1047927391167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02842717661172115</v>
+        <v>0.028427176611721</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.4027316888109</v>
+        <v>214.4027316888323</v>
       </c>
       <c r="C4" t="n">
-        <v>2.79580796385684e-27</v>
+        <v>2.795807963812883e-27</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009621984235679795</v>
+        <v>-0.9621984235619006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4354918135898664</v>
+        <v>0.4354918135927662</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.44758647792286</v>
+        <v>-24.44758647792284</v>
       </c>
       <c r="C6" t="n">
-        <v>9.261630364035278e-05</v>
+        <v>9.261630364035251e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.521389626362055</v>
+        <v>-4.521389626362019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1004971321114119</v>
+        <v>0.1004971321114141</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-241.391597539226</v>
+        <v>-2.413915975392301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.598553610415787</v>
+        <v>0.5985536104157814</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>530.6811785288779</v>
+        <v>5.306811785288812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1411781361396131</v>
+        <v>0.1411781361396108</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7233.48209169489</v>
+        <v>72.33482091694873</v>
       </c>
       <c r="C10" t="n">
-        <v>1.57721896695455e-05</v>
+        <v>1.577218966954567e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.57541225297816</v>
+        <v>24.57541225297793</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008069758974547148</v>
+        <v>0.008069758974547658</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2445.701974545161</v>
+        <v>2445.701974545142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00490764886605236</v>
+        <v>0.004907648866052878</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.66947771742215</v>
+        <v>42.66947771741764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444179393573841</v>
+        <v>0.1444179393573844</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.2736425023749</v>
+        <v>211.2736425023752</v>
       </c>
       <c r="C4" t="n">
-        <v>3.838986977226094e-26</v>
+        <v>3.838986977224257e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01093255732516779</v>
+        <v>-1.093255732511599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3701038117301176</v>
+        <v>0.3701038117324078</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.64947832197991</v>
+        <v>-19.64947832197984</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001353423588328876</v>
+        <v>0.001353423588328932</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.283777122227416</v>
+        <v>-7.283777122227344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02417800064442269</v>
+        <v>0.02417800064442404</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-448.6172374105363</v>
+        <v>-4.486172374105465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3366820387853235</v>
+        <v>0.3366820387853139</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-85.0538803158106</v>
+        <v>-0.8505388031582335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8165205388385631</v>
+        <v>0.816520538838536</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7513.242256483674</v>
+        <v>75.13242256483667</v>
       </c>
       <c r="C10" t="n">
-        <v>2.365915941105169e-05</v>
+        <v>2.3659159411052e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.82942991107564</v>
+        <v>28.82942991107561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001811195940651759</v>
+        <v>0.001811195940651749</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.595732871679</v>
+        <v>1959.595732871561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01584558663046973</v>
+        <v>0.01584558663047746</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.54261683028039</v>
+        <v>82.54261683028017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01491956019493324</v>
+        <v>0.01491956019492946</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7812286281894</v>
+        <v>200.7812286282019</v>
       </c>
       <c r="C4" t="n">
-        <v>9.250764539299765e-23</v>
+        <v>9.250764539252969e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01205737029282785</v>
+        <v>-1.205737029277572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3458074083814889</v>
+        <v>0.345807408383658</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.8773056095038</v>
+        <v>-24.87730560950388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001033257267533707</v>
+        <v>0.0001033257267533638</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.699316870204984</v>
+        <v>-5.699316870205092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03434995674944391</v>
+        <v>0.03434995674944082</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-260.7720513321638</v>
+        <v>-2.607720513321581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5647939387852863</v>
+        <v>0.5647939387852947</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.425862575903</v>
+        <v>5.494258625759137</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1300076834727384</v>
+        <v>0.1300076834727305</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8036.493601986645</v>
+        <v>80.36493601986621</v>
       </c>
       <c r="C10" t="n">
-        <v>9.167190021500675e-06</v>
+        <v>9.1671900215012e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.43239537086155</v>
+        <v>30.43239537086174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009502613198028575</v>
+        <v>0.0009502613198027901</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.230696609905</v>
+        <v>2079.230696610028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01138686418145985</v>
+        <v>0.01138686418145282</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.03165262734208</v>
+        <v>41.03165262734055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1656138684110966</v>
+        <v>0.1656138684110892</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9405498997846</v>
+        <v>206.9405498997791</v>
       </c>
       <c r="C4" t="n">
-        <v>2.211994766602414e-25</v>
+        <v>2.211994766612833e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007715327806945942</v>
+        <v>-0.7715327806900758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5273426247922087</v>
+        <v>0.5273426247945807</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.45498124804792</v>
+        <v>-20.45498124804785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001201387070647579</v>
+        <v>0.001201387070647632</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.854026405338013</v>
+        <v>-3.854026405337919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181544395239787</v>
+        <v>0.1815443952397976</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-777.2497696296696</v>
+        <v>-7.772497696296888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1239825264240527</v>
+        <v>0.1239825264240415</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.8637899172782</v>
+        <v>1.048637899172815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7745429113959748</v>
+        <v>0.7745429113959675</v>
       </c>
     </row>
     <row r="10">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7853.268204728304</v>
+        <v>78.53268204728303</v>
       </c>
       <c r="C10" t="n">
         <v>4.742867939272901e-06</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.80409713200917</v>
+        <v>26.80409713200908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002864256221067523</v>
+        <v>0.002864256221067592</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2173.989658006989</v>
+        <v>2173.989658006844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007808357106196275</v>
+        <v>0.00780835710620183</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.77454443224443</v>
+        <v>67.77454443221643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02440165152156367</v>
+        <v>0.02440165152156386</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9161991134956</v>
+        <v>217.9161991135146</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056397959882787e-26</v>
+        <v>1.056397959868514e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004799065588325921</v>
+        <v>-0.4799065588253226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6955411011887511</v>
+        <v>0.6955411011931396</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.49714647596056</v>
+        <v>-22.49714647596059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002218647966261454</v>
+        <v>0.0002218647966261377</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.329192310468478</v>
+        <v>-5.329192310468503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05369614477396098</v>
+        <v>0.05369614477395986</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-446.9403063870432</v>
+        <v>-4.469403063870487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347838849338903</v>
+        <v>0.3478388493388983</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>371.4258010416622</v>
+        <v>3.714258010416543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3018737306015173</v>
+        <v>0.3018737306015278</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6987.456308161442</v>
+        <v>69.8745630816144</v>
       </c>
       <c r="C10" t="n">
-        <v>7.648129993631357e-05</v>
+        <v>7.64812999363138e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.67506913842778</v>
+        <v>25.67506913842788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005680935736318247</v>
+        <v>0.005680935736317984</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2157.298310294204</v>
+        <v>2157.298310294286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007476929711646499</v>
+        <v>0.007476929711643555</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.73870442643249</v>
+        <v>64.73870442644017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0272302510861973</v>
+        <v>0.02723025108619597</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6137779112461</v>
+        <v>209.6137779112422</v>
       </c>
       <c r="C4" t="n">
-        <v>1.372856028993188e-25</v>
+        <v>1.372856028997633e-25</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01381475757898747</v>
+        <v>-1.381475757895647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2379115801201353</v>
+        <v>0.2379115801211596</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.46710981626721</v>
+        <v>-19.46710981626701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009090405439893185</v>
+        <v>0.0009090405439894127</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.547545553783873</v>
+        <v>-4.547545553783671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1581032826900778</v>
+        <v>0.1581032826900942</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-666.0190453676378</v>
+        <v>-6.660190453676831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1692403760359768</v>
+        <v>0.1692403760359501</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.695316414958597</v>
+        <v>-0.04695316414985484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9888704790839884</v>
+        <v>0.9888704790839247</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8073.936930932635</v>
+        <v>80.73936930932624</v>
       </c>
       <c r="C10" t="n">
-        <v>2.43406256673987e-06</v>
+        <v>2.434062566739954e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.8495424895447</v>
+        <v>24.84954248954477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002783208572380175</v>
+        <v>0.002783208572380053</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2588.133014390924</v>
+        <v>2588.133014390816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003125114212097943</v>
+        <v>0.003125114212099535</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.86959024002664</v>
+        <v>55.86959024002437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06434182501028934</v>
+        <v>0.06434182501029111</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.9405627467353</v>
+        <v>211.9405627467335</v>
       </c>
       <c r="C4" t="n">
-        <v>2.39265247902089e-24</v>
+        <v>2.392652479023388e-24</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01212030365905311</v>
+        <v>-1.212030365901812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3227413916752029</v>
+        <v>0.322741391676534</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.0227159073533</v>
+        <v>-24.02271590735335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001616244680490766</v>
+        <v>0.000161624468049069</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.432041436256331</v>
+        <v>-6.432041436256387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05777656951583948</v>
+        <v>0.05777656951583718</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-497.2299922679481</v>
+        <v>-4.972299922679669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.292798863357439</v>
+        <v>0.29279886335742</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>320.0150539751863</v>
+        <v>3.200150539751917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.378158673706427</v>
+        <v>0.3781586737064188</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6865.586904966658</v>
+        <v>68.65586904966705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001293123032176953</v>
+        <v>0.0001293123032176864</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.60737663385306</v>
+        <v>25.6073766338532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004220548564485793</v>
+        <v>0.004220548564485627</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1965.876526887359</v>
+        <v>1965.876526887417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00795054703761609</v>
+        <v>0.007950547037613402</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.04402809878059</v>
+        <v>27.04402809878361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289946200156154</v>
+        <v>0.2899462001561639</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.5198448753091</v>
+        <v>211.5198448753061</v>
       </c>
       <c r="C4" t="n">
-        <v>6.39067777276666e-31</v>
+        <v>6.390677772792658e-31</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01859871122127691</v>
+        <v>-1.859871122123031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09192450516713041</v>
+        <v>0.09192450516793357</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.71921431601569</v>
+        <v>-13.71921431601566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02195553571536745</v>
+        <v>0.02195553571536771</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.844817402407728</v>
+        <v>-2.844817402407731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.302723770348244</v>
+        <v>0.3027237703482431</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-380.4364976944103</v>
+        <v>-3.804364976944109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3549707015807128</v>
+        <v>0.3549707015807125</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.98093563491648</v>
+        <v>0.9298093563491197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7890316015455721</v>
+        <v>0.7890316015455825</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5856.299638058436</v>
+        <v>58.56299638058454</v>
       </c>
       <c r="C10" t="n">
-        <v>9.80409526939105e-05</v>
+        <v>9.804095269390721e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.93922856156923</v>
+        <v>28.93922856156919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002143172507933544</v>
+        <v>0.0002143172507933623</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.73599104814</v>
+        <v>2283.735991048206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005704230178036044</v>
+        <v>0.005704230178033944</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.21796829102807</v>
+        <v>38.21796829103438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1863992240648253</v>
+        <v>0.1863992240648177</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.579586792715</v>
+        <v>213.5795867927163</v>
       </c>
       <c r="C4" t="n">
-        <v>8.021604937714285e-28</v>
+        <v>8.021604937708327e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01119501719890847</v>
+        <v>-1.119501719883956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3264631254280808</v>
+        <v>0.326463125431008</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.61516207712815</v>
+        <v>-18.61516207712809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001820729435595311</v>
+        <v>0.001820729435595385</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.558829352528894</v>
+        <v>-6.558829352528848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01353431439275117</v>
+        <v>0.01353431439275177</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-733.840077406101</v>
+        <v>-7.338400774060887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09745376758077146</v>
+        <v>0.09745376758077764</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12.62359478156623</v>
+        <v>-0.126235947815692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9715283666103959</v>
+        <v>0.9715283666103892</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7547.602869609292</v>
+        <v>75.47602869609307</v>
       </c>
       <c r="C10" t="n">
-        <v>4.160223612546764e-05</v>
+        <v>4.160223612546785e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.5198725126473</v>
+        <v>29.51987251264724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001151386625215254</v>
+        <v>0.001151386625215277</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2844.859297275127</v>
+        <v>2844.859297274892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002428236540452651</v>
+        <v>0.0002428236540456792</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.35295713607451</v>
+        <v>54.35295713604702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07688100924662282</v>
+        <v>0.0768810092466149</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.8576455353012</v>
+        <v>223.8576455353026</v>
       </c>
       <c r="C4" t="n">
-        <v>1.467490337389642e-29</v>
+        <v>1.467490337388218e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003028296940377942</v>
+        <v>-0.3028296940333277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7950259760673331</v>
+        <v>0.7950259760702817</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.68638179238497</v>
+        <v>-20.68638179238512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003940991385707861</v>
+        <v>0.0003940991385707492</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.147791035146398</v>
+        <v>-7.147791035146335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007621967785415363</v>
+        <v>0.007621967785415894</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-762.1323177835618</v>
+        <v>-7.621323177835697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1185560022398505</v>
+        <v>0.1185560022398465</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-285.6665584815546</v>
+        <v>-2.856665584815619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4213507729987022</v>
+        <v>0.4213507729986903</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5350.262518353156</v>
+        <v>53.50262518353161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009349362768887363</v>
+        <v>0.0009349362768887484</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.17057973255548</v>
+        <v>28.17057973255562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009987564648687244</v>
+        <v>0.0009987564648686507</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2364.721423850281</v>
+        <v>2364.721423850468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005131070351980932</v>
+        <v>0.00513107035197672</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.34061295024287</v>
+        <v>74.34061295030264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01610494436340161</v>
+        <v>0.01610494436340178</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.9321286042605</v>
+        <v>202.9321286042407</v>
       </c>
       <c r="C4" t="n">
-        <v>1.656188388273866e-23</v>
+        <v>1.6561883882925e-23</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01421950811567257</v>
+        <v>-1.421950811561992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2612712589317533</v>
+        <v>0.261271258933463</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.81554775568009</v>
+        <v>-22.81554775568014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000319499891832503</v>
+        <v>0.0003194998918324891</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.966228615138846</v>
+        <v>-4.966228615138983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1325692668167178</v>
+        <v>0.1325692668167067</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-433.6809801485849</v>
+        <v>-4.336809801485796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3632537449492839</v>
+        <v>0.3632537449492901</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>379.0485514235741</v>
+        <v>3.790485514235661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.280074228100506</v>
+        <v>0.2800742281005161</v>
       </c>
     </row>
     <row r="10">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6977.556704386379</v>
+        <v>69.7755670438638</v>
       </c>
       <c r="C10" t="n">
         <v>5.003692823211812e-05</v>
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.80399527444279</v>
+        <v>24.80399527444291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00388794547176149</v>
+        <v>0.003887945471761406</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.076394217741</v>
+        <v>1671.076394217596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02353686230053678</v>
+        <v>0.02353686230055193</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.88973767972172</v>
+        <v>66.88973767973518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01900741032855102</v>
+        <v>0.01900741032855081</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7282510667592</v>
+        <v>212.7282510667526</v>
       </c>
       <c r="C4" t="n">
-        <v>5.157761849368938e-27</v>
+        <v>5.157761849395577e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009586638455969201</v>
+        <v>-0.9586638455909504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4193728639788398</v>
+        <v>0.4193728639816999</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.87351458148033</v>
+        <v>-22.87351458148035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001736555555663743</v>
+        <v>0.0001736555555663712</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.06730834541511</v>
+        <v>-4.067308345415203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1270205336667166</v>
+        <v>0.1270205336667077</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-530.1272502135997</v>
+        <v>-5.301272502135769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2397471385522219</v>
+        <v>0.2397471385522437</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.9578052780141</v>
+        <v>3.809578052780168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2720438967061073</v>
+        <v>0.2720438967061035</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8657.007246945228</v>
+        <v>86.57007246945186</v>
       </c>
       <c r="C10" t="n">
-        <v>9.658864634473056e-08</v>
+        <v>9.658864634474227e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.09934258733938</v>
+        <v>30.09934258733932</v>
       </c>
       <c r="C11" t="n">
         <v>0.0003371349493541131</v>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1067.228856014914</v>
+        <v>1067.22885601505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1863208567606721</v>
+        <v>0.1863208567606059</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.63508926534751</v>
+        <v>50.63508926534349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06599708461010456</v>
+        <v>0.06599708461010502</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.0071443309917</v>
+        <v>196.0071443309945</v>
       </c>
       <c r="C4" t="n">
-        <v>1.681723651515884e-24</v>
+        <v>1.681723651512709e-24</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01957173030286215</v>
+        <v>-1.957173030280377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1007452000766457</v>
+        <v>0.1007452000776298</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15.39834491955377</v>
+        <v>-15.39834491955394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01339570093283058</v>
+        <v>0.01339570093282969</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3340567796854081</v>
+        <v>0.3340567796854828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9091958770656416</v>
+        <v>0.9091958770656214</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.97714519237218</v>
+        <v>0.4397714519235301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9222119112256653</v>
+        <v>0.922211911225699</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>634.824134968535</v>
+        <v>6.348241349685413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07871992553593124</v>
+        <v>0.07871992553592852</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8550.448427849951</v>
+        <v>85.50448427849975</v>
       </c>
       <c r="C10" t="n">
-        <v>5.24909174965154e-07</v>
+        <v>5.249091749651337e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.72522838761569</v>
+        <v>24.725228387616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00495681746641864</v>
+        <v>0.004956817466418064</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2559.147868355578</v>
+        <v>2559.147868355267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002561371857052302</v>
+        <v>0.002561371857056546</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.57837675760408</v>
+        <v>60.5783767576059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05601673418595457</v>
+        <v>0.05601673418595356</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.5334748048547</v>
+        <v>202.5334748048552</v>
       </c>
       <c r="C4" t="n">
-        <v>1.871005383940839e-22</v>
+        <v>1.871005383939928e-22</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01143606847266754</v>
+        <v>-1.143606847257573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3685912773513073</v>
+        <v>0.3685912773552029</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25.01256056707789</v>
+        <v>-25.01256056707798</v>
       </c>
       <c r="C6" t="n">
-        <v>7.592333337253272e-05</v>
+        <v>7.59233333725275e-05</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.391147652210972</v>
+        <v>-5.391147652210897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05342826902420919</v>
+        <v>0.05342826902421265</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-659.8072023532269</v>
+        <v>-6.598072023532302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1622017377569928</v>
+        <v>0.1622017377569911</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.2100173733763</v>
+        <v>3.122100173733809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3816061032701734</v>
+        <v>0.3816061032701658</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7230.400233840879</v>
+        <v>72.30400233840894</v>
       </c>
       <c r="C10" t="n">
-        <v>5.446298171408675e-05</v>
+        <v>5.446298171408553e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.41055749295587</v>
+        <v>24.41055749295586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009943104237022665</v>
+        <v>0.009943104237022703</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2221.126135126855</v>
+        <v>2221.126135126528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007479314231404671</v>
+        <v>0.007479314231417103</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.68385608461998</v>
+        <v>54.6838560846365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07628907879574075</v>
+        <v>0.07628907879574218</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.3140041669573</v>
+        <v>209.3140041669629</v>
       </c>
       <c r="C4" t="n">
-        <v>3.466096869590876e-25</v>
+        <v>3.466096869573408e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01285313835723668</v>
+        <v>-1.285313835717837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3079467738752809</v>
+        <v>0.3079467738774969</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.24547764863615</v>
+        <v>-22.24547764863622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005129324112235864</v>
+        <v>0.0005129324112235544</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.511287850077858</v>
+        <v>-6.51128785007786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05028562817612122</v>
+        <v>0.05028562817612032</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-789.2955350890145</v>
+        <v>-7.89295535089034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1447070423008903</v>
+        <v>0.1447070423008817</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.10956969763</v>
+        <v>3.171095696976217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4031449459787466</v>
+        <v>0.4031449459787595</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8663.505543005875</v>
+        <v>86.63505543005896</v>
       </c>
       <c r="C10" t="n">
-        <v>9.928747570128618e-07</v>
+        <v>9.928747570128379e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.8970210859341</v>
+        <v>26.89702108593445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002705795916262939</v>
+        <v>0.002705795916262636</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2663.824638384594</v>
+        <v>2663.82463838472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008381804095906678</v>
+        <v>0.0008381804095900497</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.05696515708276</v>
+        <v>62.05696515710368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0386477264961889</v>
+        <v>0.03864772649618211</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.8682927302947</v>
+        <v>228.8682927302859</v>
       </c>
       <c r="C4" t="n">
-        <v>1.208135879280596e-29</v>
+        <v>1.208135879287186e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005869678851333743</v>
+        <v>-0.586967885129555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6280313791665877</v>
+        <v>0.6280313791688419</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.71474448080642</v>
+        <v>-22.71474448080636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001297123865367806</v>
+        <v>0.0001297123865367869</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.788398668876212</v>
+        <v>-6.788398668876214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0106791761610783</v>
+        <v>0.01067917616107839</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-58.99876381073216</v>
+        <v>-0.5899876381073348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8934392297086642</v>
+        <v>0.8934392297086622</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>283.741431902416</v>
+        <v>2.837414319024106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4042208706894341</v>
+        <v>0.4042208706894431</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5808.169557781264</v>
+        <v>58.08169557781271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004676505575326286</v>
+        <v>0.0004676505575326195</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.02749637155269</v>
+        <v>22.02749637155282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007152385425861783</v>
+        <v>0.007152385425861403</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.887237607426</v>
+        <v>1919.887237607264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007911608814929106</v>
+        <v>0.007911608814935861</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.9433026248518</v>
+        <v>49.94330262487683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05694505834684013</v>
+        <v>0.05694505834684078</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6100581441251</v>
+        <v>209.6100581441253</v>
       </c>
       <c r="C4" t="n">
-        <v>4.657570250252251e-29</v>
+        <v>4.657570250251187e-29</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01503644230398042</v>
+        <v>-1.503644230391262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1697597607802019</v>
+        <v>0.1697597607820774</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.4555220223073</v>
+        <v>-17.45552202230742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001704046074694135</v>
+        <v>0.001704046074694003</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.517824689489224</v>
+        <v>-5.51782468948916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02843916285290968</v>
+        <v>0.02843916285291145</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-784.9940849060908</v>
+        <v>-7.849940849061085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07244965123818238</v>
+        <v>0.07244965123817522</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-39.20914020226473</v>
+        <v>-0.392091402022599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9088074647263256</v>
+        <v>0.9088074647263366</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8556.485098467789</v>
+        <v>85.56485098467768</v>
       </c>
       <c r="C10" t="n">
-        <v>1.405684561116545e-07</v>
+        <v>1.405684561116608e-07</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.52052169648146</v>
+        <v>31.52052169648144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001722000922777129</v>
+        <v>0.0001722000922777189</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.440029946903</v>
+        <v>1860.440029947018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01580678256305906</v>
+        <v>0.01580678256305114</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.56614350369186</v>
+        <v>87.56614350370067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004241821452703316</v>
+        <v>0.004241821452703382</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.3687544968712</v>
+        <v>206.3687544968723</v>
       </c>
       <c r="C4" t="n">
-        <v>6.408539951654079e-28</v>
+        <v>6.408539951648449e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.011547631853861</v>
+        <v>-1.154763185380115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3289958657686606</v>
+        <v>0.3289958657711449</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.80566814867701</v>
+        <v>-21.80566814867678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001902849849075795</v>
+        <v>0.0001902849849076059</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.492756261054936</v>
+        <v>-6.492756261054868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01364764464464152</v>
+        <v>0.0136476446446422</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-595.8282879083918</v>
+        <v>-5.958282879084269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1902831004555226</v>
+        <v>0.1902831004554983</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.4725142580028</v>
+        <v>2.324725142579812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5301996666030887</v>
+        <v>0.5301996666031283</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8848.400155891431</v>
+        <v>88.48400155891439</v>
       </c>
       <c r="C10" t="n">
-        <v>7.55213896459521e-08</v>
+        <v>7.552138964595263e-08</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.76923127892451</v>
+        <v>32.76923127892472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001720637267750363</v>
+        <v>0.0001720637267750129</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>986.8812471999686</v>
+        <v>986.8812471999913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2121853032188181</v>
+        <v>0.2121853032188054</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.91967716695649</v>
+        <v>48.91967716697216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0789358238888995</v>
+        <v>0.07893582388889557</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.8152767371508</v>
+        <v>193.8152767371497</v>
       </c>
       <c r="C4" t="n">
-        <v>4.249113998606629e-25</v>
+        <v>4.249113998608816e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0118065418251791</v>
+        <v>-1.180654182514032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2991006684445811</v>
+        <v>0.2991006684461602</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.12937992765614</v>
+        <v>-13.12937992765612</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04104790331612344</v>
+        <v>0.04104790331612374</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.029560965299801</v>
+        <v>2.029560965299758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5018050326027887</v>
+        <v>0.5018050326027976</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-335.7363270286122</v>
+        <v>-3.357363270286271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4426545262882188</v>
+        <v>0.4426545262882007</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211.20716937059</v>
+        <v>2.11207169370584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5427544572510579</v>
+        <v>0.5427544572510699</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6456.373593358347</v>
+        <v>64.56373593358353</v>
       </c>
       <c r="C10" t="n">
-        <v>7.839399222284897e-05</v>
+        <v>7.839399222284809e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.4014669062786</v>
+        <v>32.40146690627888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001321329368493835</v>
+        <v>0.0001321329368493634</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.508415949332</v>
+        <v>1934.508415949429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02264206944826363</v>
+        <v>0.02264206944825513</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83212433119617</v>
+        <v>48.83212433119694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09832864741347302</v>
+        <v>0.0983286474134721</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9220291815344</v>
+        <v>210.9220291815304</v>
       </c>
       <c r="C4" t="n">
-        <v>1.107836724214762e-25</v>
+        <v>1.107836724219133e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01166788845681489</v>
+        <v>-1.166788845677198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3510263230252407</v>
+        <v>0.351026323027009</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.06432998475319</v>
+        <v>-19.06432998475329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002535759390227749</v>
+        <v>0.002535759390227609</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.311603020099028</v>
+        <v>-5.311603020099138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1371487418823029</v>
+        <v>0.1371487418822948</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-426.9955234193442</v>
+        <v>-4.269955234193437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3542407421460634</v>
+        <v>0.3542407421460632</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.5431467251302</v>
+        <v>1.705431467251245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6327630920832759</v>
+        <v>0.6327630920832874</v>
       </c>
     </row>
     <row r="10">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8016.509499912668</v>
+        <v>80.16509499912672</v>
       </c>
       <c r="C10" t="n">
         <v>3.81596321652793e-06</v>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.89796118273029</v>
+        <v>29.89796118273003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001069459476196685</v>
+        <v>0.001069459476196796</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1466.6887742217</v>
+        <v>1466.688774221614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0689855416616732</v>
+        <v>0.06898554166169345</v>
       </c>
     </row>
     <row r="3">
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.11689282407082</v>
+        <v>54.11689282403987</v>
       </c>
       <c r="C3" t="n">
         <v>0.04980684142713858</v>
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.4362847877421</v>
+        <v>200.4362847877566</v>
       </c>
       <c r="C4" t="n">
-        <v>9.947443106324586e-26</v>
+        <v>9.947443106191427e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01877422318045267</v>
+        <v>-1.877422318036915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1077486856686206</v>
+        <v>0.1077486856701953</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15.2449765861014</v>
+        <v>-15.24497658610138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01290995873542183</v>
+        <v>0.01290995873542193</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.276485389274583</v>
+        <v>-1.276485389274647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6622982233521725</v>
+        <v>0.6622982233521567</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-626.8198235471482</v>
+        <v>-6.268198235471417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1540742371201097</v>
+        <v>0.154074237120115</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.6774518219922</v>
+        <v>3.476774518219816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3358316441629128</v>
+        <v>0.3358316441629278</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7595.034981482647</v>
+        <v>75.95034981482638</v>
       </c>
       <c r="C10" t="n">
-        <v>3.354298109007495e-06</v>
+        <v>3.354298109007563e-06</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.16185942065821</v>
+        <v>29.16185942065839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008277062276868873</v>
+        <v>0.000827706227686824</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2696.003818303991</v>
+        <v>2696.003818304378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004256649327678609</v>
+        <v>0.0004256649327669024</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.33067569109267</v>
+        <v>64.33067569109434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02662209228914653</v>
+        <v>0.02662209228913508</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.1289109972072</v>
+        <v>227.1289109972035</v>
       </c>
       <c r="C4" t="n">
-        <v>9.307241659632079e-32</v>
+        <v>9.307241659652668e-32</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001190386789084535</v>
+        <v>-0.1190386789057953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.912392344896904</v>
+        <v>0.9123923448988384</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.87489547285301</v>
+        <v>-21.87489547285303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001409921475484414</v>
+        <v>0.0001409921475484329</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.716195369220669</v>
+        <v>-6.716195369220781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008504916571220803</v>
+        <v>0.008504916571219724</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-189.6423377411863</v>
+        <v>-1.896423377411914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6655129575259071</v>
+        <v>0.6655129575258999</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.7275977976804</v>
+        <v>-0.4072759779769148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9055886744960346</v>
+        <v>0.905588674496009</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5519.244601302395</v>
+        <v>55.19244601302358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007424582561655005</v>
+        <v>0.0007424582561655482</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.94187121969571</v>
+        <v>23.9418712196956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002898131091479606</v>
+        <v>0.002898131091479732</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2694.729722183034</v>
+        <v>2694.729722183058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008552736705015571</v>
+        <v>0.0008552736705014704</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.44628177623946</v>
+        <v>33.44628177622329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2690125911428478</v>
+        <v>0.2690125911428475</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9198366704414</v>
+        <v>206.91983667044</v>
       </c>
       <c r="C4" t="n">
-        <v>7.362712545393772e-23</v>
+        <v>7.362712545403043e-23</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008869329142706578</v>
+        <v>-0.8869329142662092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4840798529619087</v>
+        <v>0.484079852964058</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.68415440720712</v>
+        <v>-26.6841544072071</v>
       </c>
       <c r="C6" t="n">
-        <v>8.058057517549117e-05</v>
+        <v>8.058057517548973e-05</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.804693683663084</v>
+        <v>-5.804693683663125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03709492452843452</v>
+        <v>0.03709492452843338</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-512.7317613588525</v>
+        <v>-5.127317613588534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3025088912385052</v>
+        <v>0.3025088912385056</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>431.8571653858871</v>
+        <v>4.318571653858766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2358192590833937</v>
+        <v>0.2358192590834055</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6291.759290130146</v>
+        <v>62.91759290130129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000366978519065234</v>
+        <v>0.0003669785190652483</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.24543941839616</v>
+        <v>26.24543941839602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003630202004906258</v>
+        <v>0.003630202004906536</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1692.572745033483</v>
+        <v>1692.572745033344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03048832274590832</v>
+        <v>0.03048832274592464</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.21228387625665</v>
+        <v>90.21228387624238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003781489872857579</v>
+        <v>0.00378148987285745</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1257279212701</v>
+        <v>199.125727921271</v>
       </c>
       <c r="C4" t="n">
-        <v>5.639019306737991e-25</v>
+        <v>5.639019306736618e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01866781961967805</v>
+        <v>-1.866781961964129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1266437012411476</v>
+        <v>0.1266437012418891</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.93750717141637</v>
+        <v>-19.93750717141626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007183564501745439</v>
+        <v>0.0007183564501745998</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.078805567167063</v>
+        <v>-4.078805567166935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1293130549811452</v>
+        <v>0.1293130549811568</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-790.9433864589525</v>
+        <v>-7.90943386458944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1046549539198942</v>
+        <v>0.104654953919899</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>262.4973374425431</v>
+        <v>2.624973374425343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4485979514461232</v>
+        <v>0.4485979514461388</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9527.477515609213</v>
+        <v>95.27477515609196</v>
       </c>
       <c r="C10" t="n">
-        <v>5.182947111942236e-08</v>
+        <v>5.182947111942492e-08</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.80412779615168</v>
+        <v>27.80412779615147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00128936964304969</v>
+        <v>0.001289369643049794</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1799.392730350366</v>
+        <v>1799.392730350502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01672597534515502</v>
+        <v>0.01672597534514473</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.31703978587947</v>
+        <v>50.31703978589031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0756522509373157</v>
+        <v>0.07565225093730965</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.0763610342626</v>
+        <v>216.0763610342613</v>
       </c>
       <c r="C4" t="n">
-        <v>2.395990874510164e-26</v>
+        <v>2.395990874512082e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01333597673646007</v>
+        <v>-1.333597673640242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271138063085773</v>
+        <v>0.2711380630878039</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16.54359913299277</v>
+        <v>-16.54359913299265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004720277346010039</v>
+        <v>0.004720277346010285</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.735619171003292</v>
+        <v>-3.735619171003257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1658087434008499</v>
+        <v>0.1658087434008526</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-644.6379769462756</v>
+        <v>-6.446379769462915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1828481894819773</v>
+        <v>0.1828481894819687</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.256229281946389</v>
+        <v>-0.01256229281954191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9971864754892023</v>
+        <v>0.9971864754891848</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7825.73652723232</v>
+        <v>78.25736527232307</v>
       </c>
       <c r="C10" t="n">
-        <v>2.420904836346971e-06</v>
+        <v>2.420904836347074e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.07433919211064</v>
+        <v>29.07433919211057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008069447013961735</v>
+        <v>0.0008069447013961975</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2333.405378677445</v>
+        <v>2333.405378677419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006040859405493715</v>
+        <v>0.006040859405494791</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.84483226168229</v>
+        <v>35.84483226167038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1979565236685714</v>
+        <v>0.1979565236685623</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.2670228070717</v>
+        <v>201.2670228070782</v>
       </c>
       <c r="C4" t="n">
-        <v>2.527163973043349e-24</v>
+        <v>2.527163973025856e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007253011529891631</v>
+        <v>-0.7253011529852595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.528493235895964</v>
+        <v>0.5284932358981878</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.10444588327785</v>
+        <v>-19.10444588327787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002706496072637543</v>
+        <v>0.002706496072637579</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.600466975361154</v>
+        <v>-3.600466975361185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2443747820117484</v>
+        <v>0.2443747820117445</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-583.7927224959167</v>
+        <v>-5.83792722495911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1928965738210248</v>
+        <v>0.1928965738210292</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-66.12841126080804</v>
+        <v>-0.6612841126081306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.853183464112139</v>
+        <v>0.8531834641121279</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5631.215861339266</v>
+        <v>56.31215861339287</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009896831789616622</v>
+        <v>0.0009896831789616355</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.35539501291548</v>
+        <v>29.35539501291544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004885077984975221</v>
+        <v>0.0004885077984975151</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043.383248617111</v>
+        <v>2043.383248616939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01379640876376708</v>
+        <v>0.01379640876377745</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.38656303059267</v>
+        <v>76.3865630305999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01153856587995512</v>
+        <v>0.01153856587995523</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.7930116184318</v>
+        <v>204.7930116184368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.008236218145374e-24</v>
+        <v>1.00823621814236e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01229688175906017</v>
+        <v>-1.22968817589864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3299305276354836</v>
+        <v>0.3299305276383807</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.16956149555625</v>
+        <v>-26.16956149555619</v>
       </c>
       <c r="C6" t="n">
-        <v>2.678426593155343e-05</v>
+        <v>2.678426593155479e-05</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.703021166849203</v>
+        <v>-3.70302116684933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1800345837036501</v>
+        <v>0.1800345837036352</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-294.5176814599388</v>
+        <v>-2.945176814599417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.528945976871305</v>
+        <v>0.5289459768713012</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>597.2991450982671</v>
+        <v>5.972991450982541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09483864369412963</v>
+        <v>0.09483864369413673</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6834.933075944613</v>
+        <v>68.34933075944603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001010260791665175</v>
+        <v>0.0001010260791665196</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.446127198662</v>
+        <v>28.44612719866166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001920582641637569</v>
+        <v>0.001920582641637816</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1988.211648993362</v>
+        <v>1988.211648993184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005397211013339873</v>
+        <v>0.005397211013345587</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.96305120457052</v>
+        <v>58.96305120461175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06172592500563757</v>
+        <v>0.06172592500562734</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.540089939492</v>
+        <v>215.5400899394764</v>
       </c>
       <c r="C4" t="n">
-        <v>1.002485444128766e-28</v>
+        <v>1.002485444136132e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01225208251593697</v>
+        <v>-1.225208251587506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2947458194416711</v>
+        <v>0.2947458194440637</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.18960362280222</v>
+        <v>-19.18960362280226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009918651944365942</v>
+        <v>0.0009918651944365658</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.30037161119786</v>
+        <v>-6.300371611197882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01211218182401198</v>
+        <v>0.01211218182401176</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-245.7596106879332</v>
+        <v>-2.457596106879443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5570490662922458</v>
+        <v>0.5570490662922282</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>136.8467647346922</v>
+        <v>1.3684676473469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6886149837411479</v>
+        <v>0.688614983741153</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9116.163883004585</v>
+        <v>91.1616388300457</v>
       </c>
       <c r="C10" t="n">
-        <v>1.785989923236237e-08</v>
+        <v>1.785989923236412e-08</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.89413490780181</v>
+        <v>24.8941349078017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001842755602572612</v>
+        <v>0.001842755602572701</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2083.402773341705</v>
+        <v>2083.402773341547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007743882885487969</v>
+        <v>0.00774388288549521</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.71879233839627</v>
+        <v>34.71879233840346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2365583476953622</v>
+        <v>0.2365583476953451</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.5654297885953</v>
+        <v>221.5654297886068</v>
       </c>
       <c r="C4" t="n">
-        <v>4.841892390440722e-28</v>
+        <v>4.841892390390339e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006628214520425658</v>
+        <v>-0.6628214520358173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5718891494668827</v>
+        <v>0.5718891494708291</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.68680634917497</v>
+        <v>-21.68680634917484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005530416489199222</v>
+        <v>0.0005530416489199543</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.109305639736473</v>
+        <v>-4.109305639736437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1313199372964809</v>
+        <v>0.131319937296484</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-467.9410650929876</v>
+        <v>-4.679410650929945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3094729972530932</v>
+        <v>0.3094729972530866</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.49138006786131</v>
+        <v>0.6549138006785538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8449927090850046</v>
+        <v>0.8449927090850186</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6918.305113538786</v>
+        <v>69.18305113538781</v>
       </c>
       <c r="C10" t="n">
-        <v>4.354509661924295e-05</v>
+        <v>4.354509661924482e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.67669774872658</v>
+        <v>28.67669774872699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009087943789304404</v>
+        <v>0.000908794378930279</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2378.721297197003</v>
+        <v>2378.721297197116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006269989384759421</v>
+        <v>0.006269989384755973</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.21217662471165</v>
+        <v>50.21217662470153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09238707765361054</v>
+        <v>0.09238707765360953</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.4678074260845</v>
+        <v>210.4678074260896</v>
       </c>
       <c r="C4" t="n">
-        <v>2.12067787863212e-27</v>
+        <v>2.120677878624379e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01520942288934297</v>
+        <v>-1.520942288930728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2127609075272863</v>
+        <v>0.2127609075283364</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.76438649781542</v>
+        <v>-20.76438649781533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001146438426526057</v>
+        <v>0.001146438426526123</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.024762017175888</v>
+        <v>-6.02476201717576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0676327121050166</v>
+        <v>0.06763271210502257</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-722.6578477386036</v>
+        <v>-7.226578477386061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1466145658005504</v>
+        <v>0.1466145658005491</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472.1522280039862</v>
+        <v>4.721522280039947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1954585228227428</v>
+        <v>0.1954585228227342</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7571.847364491939</v>
+        <v>75.71847364491946</v>
       </c>
       <c r="C10" t="n">
-        <v>1.764705287070326e-05</v>
+        <v>1.76470528707029e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.05184321009497</v>
+        <v>24.05184321009504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01017263791890576</v>
+        <v>0.01017263791890543</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2369.576307573211</v>
+        <v>2369.57630757323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001843252768314551</v>
+        <v>0.001843252768314358</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.5589399344413</v>
+        <v>46.55893993444184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09068151113059449</v>
+        <v>0.09068151113059238</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7078576627442</v>
+        <v>200.7078576627504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.070971609728733e-25</v>
+        <v>1.070971609722311e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008650051341783885</v>
+        <v>-0.8650051341727192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4500880386195071</v>
+        <v>0.4500880386224786</v>
       </c>
     </row>
     <row r="6">
@@ -6372,7 +6372,7 @@
         <v>-22.70235371364262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001120483621358763</v>
+        <v>0.0001120483621358753</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.444827568176917</v>
+        <v>-5.444827568176931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04051474835818548</v>
+        <v>0.04051474835818451</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1134.059060452623</v>
+        <v>-11.34059060452623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01647718421146185</v>
+        <v>0.01647718421146199</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.395223523613595</v>
+        <v>-0.05395223523615211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9877032983937567</v>
+        <v>0.987703298393753</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7955.526905535562</v>
+        <v>79.55526905535568</v>
       </c>
       <c r="C10" t="n">
-        <v>4.655366180452418e-06</v>
+        <v>4.655366180452322e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.26680321913624</v>
+        <v>29.26680321913636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000582009786679061</v>
+        <v>0.0005820097866790315</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1427.858620321664</v>
+        <v>1427.858620321487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1075971657123346</v>
+        <v>0.1075971657123852</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.82714928370655</v>
+        <v>47.82714928370466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.134122013356304</v>
+        <v>0.1341220133562991</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9843418976441</v>
+        <v>189.9843418976443</v>
       </c>
       <c r="C4" t="n">
-        <v>4.683702774087025e-21</v>
+        <v>4.683702774085985e-21</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02272195256255388</v>
+        <v>-2.272195256250768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06437107887331177</v>
+        <v>0.06437107887384008</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.84680455059585</v>
+        <v>-14.84680455059571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02521149478743904</v>
+        <v>0.02521149478744033</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3496092498992107</v>
+        <v>0.3496092498994101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9127884981269252</v>
+        <v>0.9127884981268757</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-303.5437473571515</v>
+        <v>-3.035437473571474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5106009026411921</v>
+        <v>0.5106009026411977</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>597.9085661960692</v>
+        <v>5.97908566196071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107621355251604</v>
+        <v>0.1076213552516034</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6897.432448947256</v>
+        <v>68.97432448947268</v>
       </c>
       <c r="C10" t="n">
-        <v>6.378313305002386e-05</v>
+        <v>6.378313305002213e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.87813524394724</v>
+        <v>26.87813524394728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0024606708722927</v>
+        <v>0.002460670872292695</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2337.264783636915</v>
+        <v>2337.264783636686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001573390260620377</v>
+        <v>0.001573390260622505</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.25929679955053</v>
+        <v>61.25929679954194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03897181553700077</v>
+        <v>0.03897181553699362</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.2335077822544</v>
+        <v>222.2335077822657</v>
       </c>
       <c r="C4" t="n">
-        <v>1.025732268780448e-28</v>
+        <v>1.025732268771747e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0006140245157809504</v>
+        <v>-0.06140245157167668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9584059537415721</v>
+        <v>0.9584059537459222</v>
       </c>
     </row>
     <row r="6">
@@ -6704,7 +6704,7 @@
         <v>-21.1424982104143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001580126423173622</v>
+        <v>0.0001580126423173602</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.70638552812671</v>
+        <v>-5.706385528126777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02607760193100863</v>
+        <v>0.02607760193100673</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-756.8824366140257</v>
+        <v>-7.568824366140394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09666873036934624</v>
+        <v>0.09666873036934127</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-214.9964739855952</v>
+        <v>-2.149964739856093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5138269317916628</v>
+        <v>0.5138269317916351</v>
       </c>
     </row>
     <row r="10">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6975.386554053904</v>
+        <v>69.75386554053908</v>
       </c>
       <c r="C10" t="n">
         <v>9.484299535142486e-06</v>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.40700130212337</v>
+        <v>27.40700130212354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006362248414591191</v>
+        <v>0.0006362248414590808</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1888.169943555687</v>
+        <v>1888.169943555714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01692504349187409</v>
+        <v>0.01692504349187191</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.2207452988775</v>
+        <v>52.22074529888233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07023816693662113</v>
+        <v>0.07023816693662348</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.4315375375343</v>
+        <v>227.4315375375292</v>
       </c>
       <c r="C4" t="n">
-        <v>1.444516131820769e-29</v>
+        <v>1.444516131826379e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01690945787586537</v>
+        <v>-1.690945787582372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1563838791586977</v>
+        <v>0.1563838791596938</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.85657486305363</v>
+        <v>-18.85657486305365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001898964704782206</v>
+        <v>0.001898964704782117</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.01527106043498</v>
+        <v>-7.015271060435033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03128059945417151</v>
+        <v>0.03128059945417001</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-94.05726564329757</v>
+        <v>-0.9405726564333055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8357178140879958</v>
+        <v>0.83571781408794</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>511.8286165022766</v>
+        <v>5.118286165022629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1459331762567446</v>
+        <v>0.1459331762567551</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8601.305528707569</v>
+        <v>86.0130552870759</v>
       </c>
       <c r="C10" t="n">
-        <v>9.150958315893427e-07</v>
+        <v>9.150958315892938e-07</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.81011808920188</v>
+        <v>26.81011808920199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001637947849773361</v>
+        <v>0.001637947849773269</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2304.581905339629</v>
+        <v>2304.581905339423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004559699194046598</v>
+        <v>0.00455969919405102</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.08878104354876</v>
+        <v>63.08878104354329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02971355202390289</v>
+        <v>0.02971355202390167</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.8491432418562</v>
+        <v>204.8491432418541</v>
       </c>
       <c r="C4" t="n">
-        <v>4.654437749873966e-26</v>
+        <v>4.654437749880485e-26</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01060470544253271</v>
+        <v>-1.060470544244758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3823946211415946</v>
+        <v>0.3823946211453906</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23.61447379214069</v>
+        <v>-23.61447379214038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003024470230302564</v>
+        <v>0.0003024470230303069</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.132365693174727</v>
+        <v>-5.132365693174567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05885401520478848</v>
+        <v>0.05885401520479597</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-164.4865871021957</v>
+        <v>-1.644865871022034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7272806510851368</v>
+        <v>0.7272806510851257</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.2380097368632</v>
+        <v>2.952380097368497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4180370496499012</v>
+        <v>0.4180370496499224</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6671.610124419002</v>
+        <v>66.71610124418996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001139071851138803</v>
+        <v>0.0001139071851138832</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.81332055006216</v>
+        <v>27.81332055006224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003472856885582588</v>
+        <v>0.003472856885582526</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2144.376128031301</v>
+        <v>2144.376128031614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004664606101695669</v>
+        <v>0.004664606101687808</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.09056027140898</v>
+        <v>61.09056027140167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02145851884331035</v>
+        <v>0.02145851884329681</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.8565821179577</v>
+        <v>203.8565821179551</v>
       </c>
       <c r="C4" t="n">
-        <v>6.307944465111973e-27</v>
+        <v>6.307944465112197e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01214779415174493</v>
+        <v>-1.21477941516898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2767413084278088</v>
+        <v>0.2767413084299641</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.18009018485478</v>
+        <v>-21.18009018485498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002417180335730536</v>
+        <v>0.0002417180335730102</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.700136187915227</v>
+        <v>-4.700136187915209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06876334025554771</v>
+        <v>0.06876334025554888</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-970.3905064179571</v>
+        <v>-9.7039050641797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04279873553753253</v>
+        <v>0.04279873553752967</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.38594912770259</v>
+        <v>-0.213859491277006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9485885663900064</v>
+        <v>0.9485885663900111</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8931.455858231609</v>
+        <v>89.31455858231595</v>
       </c>
       <c r="C10" t="n">
-        <v>2.63342605567681e-07</v>
+        <v>2.633426055676849e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.5324845482766</v>
+        <v>26.53248454827671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002026910488859231</v>
+        <v>0.002026910488859171</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2530.918774844367</v>
+        <v>2530.918774844209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002293477760186049</v>
+        <v>0.002293477760188188</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.12374074304635</v>
+        <v>57.12374074302259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04924010817099483</v>
+        <v>0.04924010817099136</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.1471160043681</v>
+        <v>211.1471160043715</v>
       </c>
       <c r="C4" t="n">
-        <v>1.513798929881691e-25</v>
+        <v>1.513798929877829e-25</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008606764291935437</v>
+        <v>-0.8606764291888318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4799955258912686</v>
+        <v>0.4799955258937335</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.84804226343007</v>
+        <v>-22.84804226343003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001962858475597516</v>
+        <v>0.0001962858475597506</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.528174652711222</v>
+        <v>-4.528174652711286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09731968046292835</v>
+        <v>0.09731968046292346</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-310.8774789130798</v>
+        <v>-3.108774789130955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5015482351283795</v>
+        <v>0.5015482351283596</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.6963634152407</v>
+        <v>3.586963634152312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3330033360152137</v>
+        <v>0.333003336015226</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6072.671013368406</v>
+        <v>60.72671013368436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006663703501245097</v>
+        <v>0.0006663703501244794</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.90819609176657</v>
+        <v>20.90819609176658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01834150748575494</v>
+        <v>0.01834150748575482</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2039.841051352815</v>
+        <v>2039.84105135271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007775225667326907</v>
+        <v>0.007775225667330958</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.20569047150953</v>
+        <v>46.20569047150758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1080733478035407</v>
+        <v>0.1080733478035382</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.7647904719785</v>
+        <v>211.764790471982</v>
       </c>
       <c r="C4" t="n">
-        <v>6.484733923680401e-27</v>
+        <v>6.484733923664095e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009025061478163208</v>
+        <v>-0.9025061478122471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4505459970441583</v>
+        <v>0.4505459970462077</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.08279607983228</v>
+        <v>-21.08279607983229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002904053098394354</v>
+        <v>0.0002904053098394318</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.056427169731814</v>
+        <v>-6.056427169731677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02000550809759197</v>
+        <v>0.02000550809759467</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-284.7861738964353</v>
+        <v>-2.847861738964385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5289821814080202</v>
+        <v>0.5289821814080147</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.0635231421448</v>
+        <v>1.940635231421443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5959165768089157</v>
+        <v>0.5959165768089167</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599.141119154656</v>
+        <v>75.99141119154621</v>
       </c>
       <c r="C10" t="n">
-        <v>5.754351576781041e-06</v>
+        <v>5.754351576781479e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.31792758433335</v>
+        <v>32.31792758433313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001705546471609154</v>
+        <v>0.0001705546471609273</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>977.0684333959084</v>
+        <v>977.0684333959075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2533044306406424</v>
+        <v>0.2533044306406408</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.49774303205622</v>
+        <v>56.49774303204538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08652719875411612</v>
+        <v>0.08652719875410797</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.2519283642041</v>
+        <v>202.2519283642113</v>
       </c>
       <c r="C4" t="n">
-        <v>1.153158712188511e-23</v>
+        <v>1.153158712181757e-23</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01630927634289431</v>
+        <v>-1.630927634283825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1722258922492329</v>
+        <v>0.1722258922507115</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.67396060285251</v>
+        <v>-13.67396060285223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05841776663584485</v>
+        <v>0.05841776663585002</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.601321183680859</v>
+        <v>1.60132118368103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6257661498231275</v>
+        <v>0.6257661498230913</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-96.90028074262409</v>
+        <v>-0.9690028074261097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8296814828018709</v>
+        <v>0.829681482801894</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474.6190097015105</v>
+        <v>4.746190097015129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1903819680071567</v>
+        <v>0.1903819680071543</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7121.401740103969</v>
+        <v>71.21401740103943</v>
       </c>
       <c r="C10" t="n">
-        <v>1.803004553900721e-05</v>
+        <v>1.803004553900812e-05</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.40443325339346</v>
+        <v>27.40443325339326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001790742998066193</v>
+        <v>0.00179074299806631</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2187.787313482552</v>
+        <v>2187.787313482426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002192948960843877</v>
+        <v>0.002192948960845705</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.20682621520508</v>
+        <v>53.20682621520751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04297327275184885</v>
+        <v>0.04297327275184812</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.6430302164416</v>
+        <v>206.6430302164518</v>
       </c>
       <c r="C4" t="n">
-        <v>9.49490357797805e-28</v>
+        <v>9.494903577890157e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007665645070365212</v>
+        <v>-0.7665645070312905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.50708725506924</v>
+        <v>0.5070872550721133</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.87179272580645</v>
+        <v>-19.87179272580646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000405630730171038</v>
+        <v>0.0004056307301710332</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.297481050787161</v>
+        <v>-5.297481050787194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03644872636143934</v>
+        <v>0.03644872636143832</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-456.7906146891132</v>
+        <v>-4.567906146891163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2864647549368971</v>
+        <v>0.2864647549368942</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.99974733389297</v>
+        <v>0.5299974733388773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8730117206896959</v>
+        <v>0.8730117206897083</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7305.34324676568</v>
+        <v>73.05343246765705</v>
       </c>
       <c r="C10" t="n">
-        <v>7.05752130182745e-06</v>
+        <v>7.057521301827056e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.6649549241437</v>
+        <v>27.66495492414353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005842982525404877</v>
+        <v>0.0005842982525405364</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2558.821166166797</v>
+        <v>2558.821166166565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001450794825967958</v>
+        <v>0.001450794825970058</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.62140036550048</v>
+        <v>51.62140036552411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08484865983374693</v>
+        <v>0.08484865983374444</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.3979675844768</v>
+        <v>217.397967584483</v>
       </c>
       <c r="C4" t="n">
-        <v>2.75802552296178e-28</v>
+        <v>2.758025522948938e-28</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01477172371454799</v>
+        <v>-1.477172371448516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2391771270081589</v>
+        <v>0.2391771270102024</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.64125279902224</v>
+        <v>-20.64125279902229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004546698259589934</v>
+        <v>0.0004546698259589745</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.149949831331883</v>
+        <v>-8.149949831332043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009840858493133669</v>
+        <v>0.009840858493132376</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-958.7367046831248</v>
+        <v>-9.58736704683108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04513209758935936</v>
+        <v>0.04513209758936319</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.2284933437795</v>
+        <v>1.102284933437772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.742791822846919</v>
+        <v>0.7427918228469244</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7594.207634828686</v>
+        <v>75.9420763482869</v>
       </c>
       <c r="C10" t="n">
-        <v>4.597966384566821e-06</v>
+        <v>4.597966384566777e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.37388775027476</v>
+        <v>28.37388775027462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009796685422018619</v>
+        <v>0.0009796685422019259</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2470.606278961306</v>
+        <v>2470.606278961353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002626795706501613</v>
+        <v>0.002626795706500823</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.97745856401485</v>
+        <v>59.97745856400493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04569497718325365</v>
+        <v>0.04569497718325272</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.460004166323</v>
+        <v>205.4600041663113</v>
       </c>
       <c r="C4" t="n">
-        <v>7.293285821383874e-26</v>
+        <v>7.293285821450484e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008121536804245814</v>
+        <v>-0.8121536804180918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4988325759809857</v>
+        <v>0.4988325759844021</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23.51712141452366</v>
+        <v>-23.51712141452349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001698508056817341</v>
+        <v>0.0001698508056817444</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.252228336524203</v>
+        <v>-5.252228336524162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05838539701363675</v>
+        <v>0.0583853970136381</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-639.1962004570337</v>
+        <v>-6.391962004570587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1524726280028191</v>
+        <v>0.152472628002805</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.3994856914178</v>
+        <v>2.273994856913848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5237827260908552</v>
+        <v>0.5237827260909149</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6240.490025942968</v>
+        <v>62.4049002594297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003223670353201446</v>
+        <v>0.0003223670353201461</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.54192049082921</v>
+        <v>27.54192049082957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001823723499720826</v>
+        <v>0.001823723499720551</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1322.722392179005</v>
+        <v>1322.72239217926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1056827901664201</v>
+        <v>0.1056827901663419</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.38220694400583</v>
+        <v>50.38220694402428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1233976139338894</v>
+        <v>0.1233976139338763</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.0952894228554</v>
+        <v>194.0952894228389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.114963830492689e-24</v>
+        <v>4.114963830526882e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01929835312093367</v>
+        <v>-1.929835312089436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1221255194415908</v>
+        <v>0.122125519442302</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.12353666543124</v>
+        <v>-11.12353666543133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07502654473212877</v>
+        <v>0.07502654473212636</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3154065587999675</v>
+        <v>0.3154065588000279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9180485005618805</v>
+        <v>0.9180485005618649</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-367.2509307661353</v>
+        <v>-3.672509307661286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4666294536083937</v>
+        <v>0.4666294536084027</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>336.5422881323775</v>
+        <v>3.365422881323873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3332982487437888</v>
+        <v>0.3332982487437749</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7474.127164001615</v>
+        <v>74.74127164001597</v>
       </c>
       <c r="C10" t="n">
-        <v>1.289539061769425e-05</v>
+        <v>1.28953906176949e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.03751655008593</v>
+        <v>25.03751655008581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003655172773603123</v>
+        <v>0.003655172773603234</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2020.19443697515</v>
+        <v>2020.194436975254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007484522439412276</v>
+        <v>0.007484522439408136</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.47212774005729</v>
+        <v>49.47212774005652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08097305734240855</v>
+        <v>0.08097305734240393</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.594894021592</v>
+        <v>223.5948940215997</v>
       </c>
       <c r="C4" t="n">
-        <v>3.500730009701123e-28</v>
+        <v>3.500730009673147e-28</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009987970791401443</v>
+        <v>-0.9987970791336398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3956621983924151</v>
+        <v>0.395662198395488</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16.13942174420504</v>
+        <v>-16.13942174420495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007649055686881643</v>
+        <v>0.007649055686881829</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.1933822112992</v>
+        <v>-4.193382211299213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1172860280017919</v>
+        <v>0.1172860280017897</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-664.9541917548017</v>
+        <v>-6.649541917548287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1311665573948614</v>
+        <v>0.1311665573948493</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.61823598332444</v>
+        <v>-0.4161823598334777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9063853303865578</v>
+        <v>0.9063853303865057</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7299.869897526418</v>
+        <v>72.99869897526391</v>
       </c>
       <c r="C10" t="n">
-        <v>1.24281350815469e-05</v>
+        <v>1.242813508154775e-05</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.52742948021888</v>
+        <v>24.52742948021924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003598897660737683</v>
+        <v>0.00359889766073714</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2389.72212700362</v>
+        <v>2389.72212700349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001169927185553027</v>
+        <v>0.001169927185554149</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.81612298468488</v>
+        <v>35.81612298469181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1754068808492236</v>
+        <v>0.175406880849219</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.9283233972806</v>
+        <v>221.9283233972877</v>
       </c>
       <c r="C4" t="n">
-        <v>3.765097298991488e-29</v>
+        <v>3.765097298967349e-29</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006420487042723598</v>
+        <v>-0.642048704266148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541800140029399</v>
+        <v>0.5418001400333239</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29.56341788530696</v>
+        <v>-29.56341788530707</v>
       </c>
       <c r="C6" t="n">
-        <v>7.218932820724435e-07</v>
+        <v>7.218932820723796e-07</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.736383997953769</v>
+        <v>-7.736383997953691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002083136802699711</v>
+        <v>0.002083136802699943</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.648750324618049</v>
+        <v>-0.03648750324630612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9934277901698463</v>
+        <v>0.9934277901698236</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>353.0098669403228</v>
+        <v>3.530098669403252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3146111695803808</v>
+        <v>0.3146111695803772</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7486.950339397068</v>
+        <v>74.86950339397058</v>
       </c>
       <c r="C10" t="n">
-        <v>2.171961726780853e-06</v>
+        <v>2.17196172678095e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.3566234923009</v>
+        <v>32.35662349230073</v>
       </c>
       <c r="C11" t="n">
-        <v>7.20519150921188e-05</v>
+        <v>7.205191509212711e-05</v>
       </c>
     </row>
   </sheetData>
